--- a/public/files/data_downloaded.xlsx
+++ b/public/files/data_downloaded.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="629">
   <si>
     <t>id</t>
   </si>
@@ -75,7 +75,7 @@
     <t>preprocess_state</t>
   </si>
   <si>
-    <t>Homo_sapiens-Spinal_Cord-ST-1</t>
+    <t>STW-Homo_sapiens-Spinal_Cord-ST-1</t>
   </si>
   <si>
     <t>Spatiotemporal dynamics of molecular pathology in amyotrophic lateral sclerosis</t>
@@ -108,16 +108,10 @@
     <t>GEO记录的都是mouse</t>
   </si>
   <si>
-    <t>Homo sapiens-Spinal Cord-ST-1</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Spinal_Cord-ST-2</t>
-  </si>
-  <si>
-    <t>Homo sapiens-Spinal Cord-ST-2</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Bone-ST-1</t>
+    <t>STW-Homo_sapiens-Spinal_Cord-ST-2</t>
+  </si>
+  <si>
+    <t>STW-Homo_sapiens-Bone-ST-1</t>
   </si>
   <si>
     <t>Exploring inflammatory signatures in arthritic joint biopsies with Spatial Transcriptomics</t>
@@ -169,10 +163,7 @@
     </r>
   </si>
   <si>
-    <t>Homo sapiens-Bone-ST-1</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Heart-ST-1</t>
+    <t>STW-Homo_sapiens-Heart-ST-1</t>
   </si>
   <si>
     <t>A Spatiotemporal Organ-Wide Gene Expression and Cell Atlas of the Developing Human Heart</t>
@@ -219,10 +210,7 @@
     <t>同时提供了单细胞的数据，暂未整理</t>
   </si>
   <si>
-    <t>Homo sapiens-Heart-ST-1</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Testis-Slide-seq2-1</t>
+    <t>STW-Homo_sapiens-Testis-Slide-seq2-1</t>
   </si>
   <si>
     <t>Dissecting Mammalian Spermatogenesis Using Spatial Transcriptomics</t>
@@ -283,10 +271,7 @@
 3. 根据BioSample的介绍来看，应该是指生物学重复</t>
   </si>
   <si>
-    <t>Homo sapiens-Testis-Slide-seq2-1</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Uterus-Visium-1</t>
+    <t>STW-Homo_sapiens-Uterus-Visium-1</t>
   </si>
   <si>
     <t>Mapping the temporal and spatial dynamics of the human endometrium in vivo and in vitro</t>
@@ -320,10 +305,7 @@
     <t>Standard 10x visium format</t>
   </si>
   <si>
-    <t>Homo sapiens-Uterus-Visium-1</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Colon-Visium-1</t>
+    <t>STW-Homo_sapiens-Colon-Visium-1</t>
   </si>
   <si>
     <t>Spatiotemporal analysis of human intestinal development at single-cell resolution</t>
@@ -522,10 +504,7 @@
     </r>
   </si>
   <si>
-    <t>Homo sapiens-Colon-Visium-1</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Colon-Visium-2</t>
+    <t>STW-Homo_sapiens-Colon-Visium-2</t>
   </si>
   <si>
     <t>19 pcw</t>
@@ -569,10 +548,7 @@
     </r>
   </si>
   <si>
-    <t>Homo sapiens-Colon-Visium-2</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Colon-Visium-3</t>
+    <t>STW-Homo_sapiens-Colon-Visium-3</t>
   </si>
   <si>
     <r>
@@ -604,9 +580,6 @@
     </r>
   </si>
   <si>
-    <t>Homo sapiens-Colon-Visium-3</t>
-  </si>
-  <si>
     <t>Three-dimensional spatial transcriptomics uncovers cell type dynamics in the rheumatoid arthritis synovium</t>
   </si>
   <si>
@@ -639,7 +612,7 @@
     </r>
   </si>
   <si>
-    <t>Homo_sapiens-Bone-ST-2</t>
+    <t>STW-Homo_sapiens-Bone-ST-2</t>
   </si>
   <si>
     <t>Rheumatoid Arthritis Synovium Hip Biopsie</t>
@@ -648,10 +621,7 @@
     <t>same as 11</t>
   </si>
   <si>
-    <t>Homo sapiens-Bone-ST-2</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Prostate-Visium-1</t>
+    <t>STW-Homo_sapiens-Prostate-Visium-1</t>
   </si>
   <si>
     <t>Vitamin D sufficiency enhances differentiation of patient-derived prostate epithelial organoids</t>
@@ -695,10 +665,7 @@
     <t>ETOH</t>
   </si>
   <si>
-    <t>Homo sapiens-Prostate-Visium-1</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Prostate-Visium-2</t>
+    <t>STW-Homo_sapiens-Prostate-Visium-2</t>
   </si>
   <si>
     <t>Benign Prostate Tissue Slices From A Patient Undergoing Radical Prostatectomy (Cultured In Vitamin D)</t>
@@ -710,10 +677,7 @@
     <t>25D</t>
   </si>
   <si>
-    <t>Homo sapiens-Prostate-Visium-2</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Kidney-Visium-1</t>
+    <t>STW-Homo_sapiens-Kidney-Visium-1</t>
   </si>
   <si>
     <t>Integration of spatial transcriptomic and single cell sequencing identifies expression patterns underlying immune and epithelial cell cross-talk in acute kidney injury</t>
@@ -740,10 +704,7 @@
     <t>还包含mouse数据</t>
   </si>
   <si>
-    <t>Homo sapiens-Kidney-Visium-1</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Liver-Visium-1</t>
+    <t>STW-Homo_sapiens-Liver-Visium-1</t>
   </si>
   <si>
     <t>Integrating Spatial Transcriptomics and Single-Cell RNA-seq Reveals the Gene Expression Profling of the Human Embryonic Liver</t>
@@ -771,10 +732,7 @@
     <t>8-postconception weeks- fetal livers</t>
   </si>
   <si>
-    <t>Homo sapiens-Liver-Visium-1</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Liver-Visium-2</t>
+    <t>STW-Homo_sapiens-Liver-Visium-2</t>
   </si>
   <si>
     <t>17 PCW</t>
@@ -787,10 +745,7 @@
 </t>
   </si>
   <si>
-    <t>Homo sapiens-Liver-Visium-2</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Adipose_Tissue-Visium-1</t>
+    <t>STW-Homo_sapiens-Adipose_Tissue-Visium-1</t>
   </si>
   <si>
     <t>Spatial mapping reveals human adipocyte subpopulations with distinct sensitivities to insulin</t>
@@ -811,10 +766,7 @@
     <t>S41_trimmed - S55_trimmed</t>
   </si>
   <si>
-    <t>Homo sapiens-Adipose Tissue-Visium-1</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Liver-Visium-3</t>
+    <t>STW-Homo_sapiens-Liver-Visium-3</t>
   </si>
   <si>
     <t>Single-Cell, Single-Nucleus, and Spatial RNA Sequencing of the Human Liver Identifies Cholangiocyte and Mesenchymal Heterogeneity</t>
@@ -827,9 +779,6 @@
   </si>
   <si>
     <t>Spatial_C73_D1</t>
-  </si>
-  <si>
-    <t>Homo sapiens-Liver-Visium-3</t>
   </si>
   <si>
     <t>5-alpha reductase inhibitors induce a prostate luminal to club cell transition in human benign prostatic hyperplasia</t>
@@ -961,7 +910,7 @@
     </r>
   </si>
   <si>
-    <t>Homo_sapiens-Prostate-Visium-3</t>
+    <t>STW-Homo_sapiens-Prostate-Visium-3</t>
   </si>
   <si>
     <t>Prostate (Control)</t>
@@ -996,10 +945,7 @@
     </r>
   </si>
   <si>
-    <t>Homo sapiens-Prostate-Visium-3</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Brain-Visium-1</t>
+    <t>STW-Homo_sapiens-Brain-Visium-1</t>
   </si>
   <si>
     <t>Lineage recording in human cerebral organoids</t>
@@ -1052,10 +998,7 @@
     <t>基因名称数量不对</t>
   </si>
   <si>
-    <t>Homo sapiens--Visium-1</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Liver-Visium-4</t>
+    <t>STW-Homo_sapiens-Liver-Visium-4</t>
   </si>
   <si>
     <t>Spatial proteogenomics reveals distinct and evolutionarily conserved hepatic macrophage niches</t>
@@ -1102,10 +1045,7 @@
     <t>包含人和鼠得数据</t>
   </si>
   <si>
-    <t>Homo sapiens-Liver-Visium-4</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Liver-Visium-5</t>
+    <t>STW-Homo_sapiens-Liver-Visium-5</t>
   </si>
   <si>
     <t>Liver (Steatosis, No Fibrosis)</t>
@@ -1158,10 +1098,7 @@
     </r>
   </si>
   <si>
-    <t>Homo sapiens-Liver-Visium-5</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Lung-Visium-1</t>
+    <t>STW-Homo_sapiens-Lung-Visium-1</t>
   </si>
   <si>
     <t>Human distal lung maps and lineage hierarchies reveal a bipotent progenitor</t>
@@ -1182,10 +1119,7 @@
     <t>GSM5388414_DD073R_A1</t>
   </si>
   <si>
-    <t>Homo sapiens-Lung-Visium-1</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Lung-Visium-2</t>
+    <t>STW-Homo_sapiens-Lung-Visium-2</t>
   </si>
   <si>
     <t>Distal Lung</t>
@@ -1194,10 +1128,7 @@
     <t>GSM5388415_DD073R_D1</t>
   </si>
   <si>
-    <t>Homo sapiens-Lung-Visium-2</t>
-  </si>
-  <si>
-    <t>Homo_sapiens-Embryo-Visium-2</t>
+    <t>STW-Homo_sapiens-Embryo-Visium-2</t>
   </si>
   <si>
     <t>Mapping human haematopoietic stem cells from haemogenic endothelium to birth</t>
@@ -1229,10 +1160,7 @@
 GSM5513610：Transverse section of a human embryo (5 weeks, CS15). Dorsal aorta, between vitelline vessels and umbilical cord. Umbillical vessels. </t>
   </si>
   <si>
-    <t>Homo sapiens--Visium-2</t>
-  </si>
-  <si>
-    <t>Mus_musculus-Brain-ST-1</t>
+    <t>STW-Mus_musculus-Brain-ST-1</t>
   </si>
   <si>
     <t>Visualization and analysis of gene expression in tissue sections by spatial transcriptomics</t>
@@ -1264,7 +1192,7 @@
     <t>1. 未说明生物重复还是技术重复，MOB暂且认定为生物重复，Breast暂且认定为技术重复</t>
   </si>
   <si>
-    <t>Mus_musculus-Embryo-DBiT-seq-1</t>
+    <t>STW-Mus_musculus-Embryo-DBiT-seq-1</t>
   </si>
   <si>
     <t>High-Spatial-Resolution Multi-Omics Atlas Sequencing of Mouse Embryos via Deterministic Barcoding in Tissue</t>
@@ -1307,7 +1235,7 @@
     <t>1. 暂且认定为生物学重复</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-DBiT-seq-1</t>
+    <t>STW-Mus_musculus-Brain-DBiT-seq-1</t>
   </si>
   <si>
     <t>FALSE</t>
@@ -1316,10 +1244,10 @@
     <t>E10</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-DBiT-seq-2</t>
-  </si>
-  <si>
-    <t>Mus_musculus-Brain-ST-2</t>
+    <t>STW-Mus_musculus-Brain-DBiT-seq-2</t>
+  </si>
+  <si>
+    <t>STW-Mus_musculus-Brain-ST-2</t>
   </si>
   <si>
     <t>Automation of Spatial Transcriptomics library preparation to enable rapid and robust insights into spatial organization of tissues</t>
@@ -1379,7 +1307,7 @@
 3. 暂且认定为生物学重复</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-ST-3</t>
+    <t>STW-Mus_musculus-Brain-ST-3</t>
   </si>
   <si>
     <t>Molecular atlas of the adult mouse brain</t>
@@ -1397,7 +1325,7 @@
     <t>matrix(tsv)\image(jpg)\meta(tsv)</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-Visium-1</t>
+    <t>STW-Mus_musculus-Brain-Visium-1</t>
   </si>
   <si>
     <t>Genome-wide spatial expression profiling in formalin-fixed tissues</t>
@@ -1418,7 +1346,7 @@
     <t>GSM5621972-GSM5621978</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-ST-4</t>
+    <t>STW-Mus_musculus-Brain-ST-4</t>
   </si>
   <si>
     <t>Spatial Transcriptomics and In Situ Sequencing to Study Alzheimer's Disease</t>
@@ -1464,7 +1392,7 @@
 GSM4647075 N05_D2</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-ST-5</t>
+    <t>STW-Mus_musculus-Brain-ST-5</t>
   </si>
   <si>
     <t>AppNL-G-F</t>
@@ -1473,7 +1401,7 @@
     <t>GSM4647060-GSM4647063;GSM4647065;GSM4647067;GSM4647072-GSM4647075</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-Visium-2</t>
+    <t>STW-Mus_musculus-Brain-Visium-2</t>
   </si>
   <si>
     <t>A spatially resolved brain region- and cell type-specific isoform atlas of the postnatal mouse brain</t>
@@ -1497,7 +1425,7 @@
     <t>GSM4800808</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-SiT-1</t>
+    <t>STW-Mus_musculus-Brain-SiT-1</t>
   </si>
   <si>
     <t>The spatial landscape of gene expression isoforms in tissue sections</t>
@@ -1527,7 +1455,7 @@
 </t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-SiT-2</t>
+    <t>STW-Mus_musculus-Brain-SiT-2</t>
   </si>
   <si>
     <t>C57BL/6J</t>
@@ -1542,7 +1470,7 @@
     <t>GSM4656179、GSM4656180、GSM4656182、GSM4656183</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-ST-6</t>
+    <t>STW-Mus_musculus-Brain-ST-6</t>
   </si>
   <si>
     <t>Spatial Transcriptomics Reveals Genes Associated with Dysregulated Mitochondrial Functions and Stress Signaling in Alzheimer Disease</t>
@@ -1563,7 +1491,7 @@
     <t>matrix（tsv）、image（jpg）、meta（tsv）</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-ST-7</t>
+    <t>STW-Mus_musculus-Brain-ST-7</t>
   </si>
   <si>
     <t>3xAD</t>
@@ -1572,7 +1500,7 @@
     <t>ad</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-ST-8</t>
+    <t>STW-Mus_musculus-Brain-ST-8</t>
   </si>
   <si>
     <t>PB</t>
@@ -1581,25 +1509,25 @@
     <t>polb</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-ST-9</t>
+    <t>STW-Mus_musculus-Brain-ST-9</t>
   </si>
   <si>
     <t>wt</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-ST-10</t>
-  </si>
-  <si>
-    <t>Mus_musculus-Brain-ST-11</t>
-  </si>
-  <si>
-    <t>Mus_musculus-Brain-ST-12</t>
-  </si>
-  <si>
-    <t>Mus_musculus-Brain-ST-13</t>
-  </si>
-  <si>
-    <t>Mus_musculus-Testis-Slide-seq2-1</t>
+    <t>STW-Mus_musculus-Brain-ST-10</t>
+  </si>
+  <si>
+    <t>STW-Mus_musculus-Brain-ST-11</t>
+  </si>
+  <si>
+    <t>STW-Mus_musculus-Brain-ST-12</t>
+  </si>
+  <si>
+    <t>STW-Mus_musculus-Brain-ST-13</t>
+  </si>
+  <si>
+    <t>STW-Mus_musculus-Testis-Slide-seq2-1</t>
   </si>
   <si>
     <t>7 to 18 weeks</t>
@@ -1631,13 +1559,13 @@
     </r>
   </si>
   <si>
-    <t>Mus_musculus-Testis-Slide-seq2-2</t>
+    <t>STW-Mus_musculus-Testis-Slide-seq2-2</t>
   </si>
   <si>
     <t>WT1-3</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-Visium-3</t>
+    <t>STW-Mus_musculus-Brain-Visium-3</t>
   </si>
   <si>
     <t>Comprehensive mapping of tissue cell architecture via integrated single cell and spatial transcriptomics</t>
@@ -1655,7 +1583,7 @@
     <t>ST8059048-ST8059052</t>
   </si>
   <si>
-    <t>Mus_musculus-Hindlimb-Visium-1</t>
+    <t>STW-Mus_musculus-Hindlimb-Visium-1</t>
   </si>
   <si>
     <t>Large-scale integration of single-cell transcriptomic data captures transitional progenitor states in mouse skeletal muscle regeneration</t>
@@ -1679,7 +1607,7 @@
     <t>GSM4904759</t>
   </si>
   <si>
-    <t>Mus_musculus-Hindlimb-Visium-2</t>
+    <t>STW-Mus_musculus-Hindlimb-Visium-2</t>
   </si>
   <si>
     <t>5 days after notexin</t>
@@ -1688,7 +1616,7 @@
     <t>GSM4904760</t>
   </si>
   <si>
-    <t>Mus_musculus-Hindlimb-Visium-3</t>
+    <t>STW-Mus_musculus-Hindlimb-Visium-3</t>
   </si>
   <si>
     <t>7 days after notexin</t>
@@ -1697,7 +1625,7 @@
     <t>GSM4904761</t>
   </si>
   <si>
-    <t>Mus_musculus-Embryo-DBiT-seq-2</t>
+    <t>STW-Mus_musculus-Embryo-DBiT-seq-2</t>
   </si>
   <si>
     <t>Spatial transcriptome sequencing of FFPE tissues at cellular level</t>
@@ -1718,7 +1646,7 @@
     <t>matrix（tsv）</t>
   </si>
   <si>
-    <t>Mus_musculus-Aorta-DBiT-seq-1</t>
+    <t>STW-Mus_musculus-Aorta-DBiT-seq-1</t>
   </si>
   <si>
     <t>Aorta (Ffpe)</t>
@@ -1730,7 +1658,7 @@
     <t>GSM4745617</t>
   </si>
   <si>
-    <t>Mus_musculus-Heart-DBiT-seq-1</t>
+    <t>STW-Mus_musculus-Heart-DBiT-seq-1</t>
   </si>
   <si>
     <t>Atrium (Ffpe)</t>
@@ -1739,7 +1667,7 @@
     <t>GSM4745618</t>
   </si>
   <si>
-    <t>Mus_musculus-Heart-DBiT-seq-2</t>
+    <t>STW-Mus_musculus-Heart-DBiT-seq-2</t>
   </si>
   <si>
     <t>Ventricle (Ffpe)</t>
@@ -1748,7 +1676,7 @@
     <t>GSM4745619</t>
   </si>
   <si>
-    <t>Mus_musculus-Kidney-Visium-1</t>
+    <t>STW-Mus_musculus-Kidney-Visium-1</t>
   </si>
   <si>
     <t>Kidney With Ischemia Reperfusion Injury</t>
@@ -1760,7 +1688,7 @@
     <t>还包含Human Nephrectomy（GSM5224978）、Mouse Sham Model（GSM5224979）</t>
   </si>
   <si>
-    <t>Mus_musculus-Kidney-Visium-2</t>
+    <t>STW-Mus_musculus-Kidney-Visium-2</t>
   </si>
   <si>
     <t>Kidney With Cecal Ligation Puncture</t>
@@ -1769,7 +1697,7 @@
     <t>GSM5224981</t>
   </si>
   <si>
-    <t>Mus_musculus-Liver-Seq-Scope-1</t>
+    <t>STW-Mus_musculus-Liver-Seq-Scope-1</t>
   </si>
   <si>
     <t>Microscopic examination of spatial transcriptome using Seq-Scope</t>
@@ -1790,25 +1718,25 @@
     <t>可能多个组织放到了一个切片上</t>
   </si>
   <si>
-    <t>Mus_musculus-Liver-Seq-Scope-2</t>
-  </si>
-  <si>
-    <t>Mus_musculus-Liver-Seq-Scope-3</t>
-  </si>
-  <si>
-    <t>Mus_musculus-Liver-Seq-Scope-4</t>
+    <t>STW-Mus_musculus-Liver-Seq-Scope-2</t>
+  </si>
+  <si>
+    <t>STW-Mus_musculus-Liver-Seq-Scope-3</t>
+  </si>
+  <si>
+    <t>STW-Mus_musculus-Liver-Seq-Scope-4</t>
   </si>
   <si>
     <t>Tsc1Δhep/Depdc5Δhep</t>
   </si>
   <si>
-    <t>Mus_musculus-Colon-Seq-Scope-1</t>
+    <t>STW-Mus_musculus-Colon-Seq-Scope-1</t>
   </si>
   <si>
     <t>GSM5212845</t>
   </si>
   <si>
-    <t>Mus_musculus-Liver-ST-1</t>
+    <t>STW-Mus_musculus-Liver-ST-1</t>
   </si>
   <si>
     <t>Spatial Transcriptomics to define transcriptional patterns of zonation and structural components in the liver</t>
@@ -1829,7 +1757,7 @@
     <t>The full protocol, including sequencing and computational analysis was performed for 8 sections across 3 samples. Sample 1 and sample 3 each include three sections of the caudate lobe. Sample 2 includes two sections of a liver piece of the right liver lobe.(文章说8个切片，数据有12套？)</t>
   </si>
   <si>
-    <t>Mus_musculus-Colon-Visium-1</t>
+    <t>STW-Mus_musculus-Colon-Visium-1</t>
   </si>
   <si>
     <t>The spatial transcriptomic landscape of the healing intestine following damage</t>
@@ -1866,7 +1794,7 @@
 </t>
   </si>
   <si>
-    <t>Mus_musculus-Colon-Visium-2</t>
+    <t>STW-Mus_musculus-Colon-Visium-2</t>
   </si>
   <si>
     <t>Colon (Dss)</t>
@@ -1878,7 +1806,7 @@
     <t>GSM5213484</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-Visium-4</t>
+    <t>STW-Mus_musculus-Brain-Visium-4</t>
   </si>
   <si>
     <t>Single-cell spatial transcriptomic analysis reveals common and divergent features of developing postnatal granule cerebellar cells and medulloblastoma</t>
@@ -1905,7 +1833,7 @@
     <t>matrix(txt)</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-sci-Space-1</t>
+    <t>STW-Mus_musculus-Brain-sci-Space-1</t>
   </si>
   <si>
     <t>Embryo-scale, single-cell spatial transcriptomics</t>
@@ -1949,7 +1877,7 @@
 3. 提供了详细的代码以重现他们的结果，需要仔细研究</t>
   </si>
   <si>
-    <t>Mus_musculus-Uterus-Visium-1</t>
+    <t>STW-Mus_musculus-Uterus-Visium-1</t>
   </si>
   <si>
     <t>Spatial Transcriptomics Analysis of Uterine Gene Expression in Enhancer of Zeste Homolog 2 (Ezh2) Conditional Knockout Mice</t>
@@ -1974,13 +1902,13 @@
 GSM5513652 Uterus_EZKO_rep4</t>
   </si>
   <si>
-    <t>Mus_musculus-Uterus-Visium-2</t>
+    <t>STW-Mus_musculus-Uterus-Visium-2</t>
   </si>
   <si>
     <t>Ezh2cKO</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-Visium-5</t>
+    <t>STW-Mus_musculus-Brain-Visium-5</t>
   </si>
   <si>
     <t>Neuroinflammatory astrocyte subtypes in the mouse brain</t>
@@ -2004,7 +1932,7 @@
     <t>GSM5026147-GSM5026149</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-Visium-6</t>
+    <t>STW-Mus_musculus-Brain-Visium-6</t>
   </si>
   <si>
     <t>Brain (Saline)</t>
@@ -2013,7 +1941,7 @@
     <t>GSM5026144-GSM5026146</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-Space-TREX-1</t>
+    <t>STW-Mus_musculus-Brain-Space-TREX-1</t>
   </si>
   <si>
     <t>Clonal relations in the mouse brain revealed by single-cell and spatial transcriptomics</t>
@@ -2041,7 +1969,7 @@
 GSM4644086 section8</t>
   </si>
   <si>
-    <t>Mus_musculus-Urinary_Bladder-Visium-1</t>
+    <t>STW-Mus_musculus-Urinary_Bladder-Visium-1</t>
   </si>
   <si>
     <t>A Cellular Reference Resource for the Mouse Urinary Bladder</t>
@@ -2091,7 +2019,7 @@
     </r>
   </si>
   <si>
-    <t>Mus_musculus-Kidney-Slide-seq2-1</t>
+    <t>STW-Mus_musculus-Kidney-Slide-seq2-1</t>
   </si>
   <si>
     <t>High Resolution Slide-seqV2 Spatial Transcriptomics Enables Discovery of Disease-Specific Cell Neighborhoods and Pathways</t>
@@ -2180,7 +2108,7 @@
     <t>没有记录UMOD相关数据</t>
   </si>
   <si>
-    <t>Mus_musculus-Kidney-Slide-seq2-2</t>
+    <t>STW-Mus_musculus-Kidney-Slide-seq2-2</t>
   </si>
   <si>
     <t>BTBR wt/wt</t>
@@ -2189,7 +2117,7 @@
     <t>Kidney (Control)</t>
   </si>
   <si>
-    <t>Mus_musculus-Bone-Visium-1</t>
+    <t>STW-Mus_musculus-Bone-Visium-1</t>
   </si>
   <si>
     <t>Spatial transcriptomics reveals a role for sensory nerves in preserving cranial suture patency through modulation of BMP/TGF-β signaling</t>
@@ -2217,7 +2145,7 @@
 </t>
   </si>
   <si>
-    <t>Mus_musculus-Bone-Visium-2</t>
+    <t>STW-Mus_musculus-Bone-Visium-2</t>
   </si>
   <si>
     <t>TrkAF592A</t>
@@ -2226,7 +2154,7 @@
     <t>Sagittal Suture And Surrounding Parietal Bones, Periosteum, And Dura Mater (Mutant)</t>
   </si>
   <si>
-    <t>Mus_musculus-Lung-Visium-1</t>
+    <t>STW-Mus_musculus-Lung-Visium-1</t>
   </si>
   <si>
     <t>Immunoglobulin-producing AT2-like cells secrete IgA into the extracellular matrix in pulmonary fibrosis</t>
@@ -2247,7 +2175,7 @@
     <t>matrix(10x标准格式)、image(jpg)</t>
   </si>
   <si>
-    <t>Mus_musculus-Lung-Visium-2</t>
+    <t>STW-Mus_musculus-Lung-Visium-2</t>
   </si>
   <si>
     <t>56 days after intratracheal instillation</t>
@@ -2256,7 +2184,7 @@
     <t>GSM5567515</t>
   </si>
   <si>
-    <t>Mus_musculus-Lung-Visium-3</t>
+    <t>STW-Mus_musculus-Lung-Visium-3</t>
   </si>
   <si>
     <t>Lung (Sio2)</t>
@@ -2265,13 +2193,13 @@
     <t>GSM5567514</t>
   </si>
   <si>
-    <t>Mus_musculus-Lung-Visium-4</t>
+    <t>STW-Mus_musculus-Lung-Visium-4</t>
   </si>
   <si>
     <t>GSM5567516</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-Visium-7</t>
+    <t>STW-Mus_musculus-Brain-Visium-7</t>
   </si>
   <si>
     <t>Spatial transcriptome analysis defines heme as a hemopexin-targetable inflammatoxin in the brain</t>
@@ -2299,19 +2227,19 @@
 control, no treatment (untouched brain)</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-Visium-8</t>
+    <t>STW-Mus_musculus-Brain-Visium-8</t>
   </si>
   <si>
     <t>Striatum (Heme‒Hemopexin)</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-Visium-9</t>
+    <t>STW-Mus_musculus-Brain-Visium-9</t>
   </si>
   <si>
     <t>Striatum (Saline)</t>
   </si>
   <si>
-    <t>Mus_musculus-Kidney-Visium-3</t>
+    <t>STW-Mus_musculus-Kidney-Visium-3</t>
   </si>
   <si>
     <t>Spatially Resolved Transcriptomic Analysis of Acute Kidney Injury in a Female Murine Model</t>
@@ -2337,7 +2265,7 @@
 </t>
   </si>
   <si>
-    <t>Mus_musculus-Heart-Visium-1</t>
+    <t>STW-Mus_musculus-Heart-Visium-1</t>
   </si>
   <si>
     <t>Spatiotemporal transcriptomics reveals pathogenesis of viral myocarditis</t>
@@ -2365,7 +2293,7 @@
     <t>matrix(h5)</t>
   </si>
   <si>
-    <t>Mus_musculus-Ileum-Visium-1</t>
+    <t>STW-Mus_musculus-Ileum-Visium-1</t>
   </si>
   <si>
     <t>Ileum Infected With The Myocarditis Retrovirus</t>
@@ -2377,19 +2305,19 @@
     <t>1 and 4 days post infection</t>
   </si>
   <si>
-    <t>Mus_musculus-Heart-Visium-2</t>
+    <t>STW-Mus_musculus-Heart-Visium-2</t>
   </si>
   <si>
     <t>Heart (Mock Infection)</t>
   </si>
   <si>
-    <t>Mus_musculus-Ileum-Visium-2</t>
+    <t>STW-Mus_musculus-Ileum-Visium-2</t>
   </si>
   <si>
     <t>Ileum (Mock Infection)</t>
   </si>
   <si>
-    <t>Mus_musculus-Heart-Visium-3</t>
+    <t>STW-Mus_musculus-Heart-Visium-3</t>
   </si>
   <si>
     <t>PRDM16 Is a Compact Myocardium-Enriched Transcription Factor Required to Maintain Compact Myocardial Cardiomyocyte Identity in Left Ventricle</t>
@@ -2417,22 +2345,22 @@
     <t>没有分清control和pathlogical</t>
   </si>
   <si>
-    <t>Mus_musculus-Heart-Visium-4</t>
+    <t>STW-Mus_musculus-Heart-Visium-4</t>
   </si>
   <si>
     <t>E15.5</t>
   </si>
   <si>
-    <t>Mus_musculus-Heart-Visium-5</t>
+    <t>STW-Mus_musculus-Heart-Visium-5</t>
   </si>
   <si>
     <t>Heart (Control)</t>
   </si>
   <si>
-    <t>Mus_musculus-Heart-Visium-6</t>
-  </si>
-  <si>
-    <t>Mus_musculus-Liver-Visium-1</t>
+    <t>STW-Mus_musculus-Heart-Visium-6</t>
+  </si>
+  <si>
+    <t>STW-Mus_musculus-Liver-Visium-1</t>
   </si>
   <si>
     <t>C57Bl/6J</t>
@@ -2444,7 +2372,7 @@
     <t>done（在human中）</t>
   </si>
   <si>
-    <t>Mus_musculus-Heart-Visium-7</t>
+    <t>STW-Mus_musculus-Heart-Visium-7</t>
   </si>
   <si>
     <t>Characterizing Neonatal Heart Maturation, Regeneration, and Scar Resolution Using Spatial Transcriptomics</t>
@@ -2469,7 +2397,7 @@
 </t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-Slide-seq2-1</t>
+    <t>STW-Mus_musculus-Brain-Slide-seq2-1</t>
   </si>
   <si>
     <t>Spatial transcriptomic reconstruction of the mouse olfactory glomerular map suggests principles of odor processing</t>
@@ -2490,7 +2418,7 @@
     <t>matrix(mtx)、location(csv)、rds</t>
   </si>
   <si>
-    <t>Mus_musculus-Skeletal_Muscle-STRS-1</t>
+    <t>STW-Mus_musculus-Skeletal_Muscle-STRS-1</t>
   </si>
   <si>
     <t>In situ polyadenylation enables spatial mapping of the total transcriptome</t>
@@ -2511,19 +2439,19 @@
     <t>20 months old, 2 dpi</t>
   </si>
   <si>
-    <t>Mus_musculus-Skeletal_Muscle-STRS-2</t>
+    <t>STW-Mus_musculus-Skeletal_Muscle-STRS-2</t>
   </si>
   <si>
     <t>20 months old, 5 dpi</t>
   </si>
   <si>
-    <t>Mus_musculus-Skeletal_Muscle-STRS-3</t>
+    <t>STW-Mus_musculus-Skeletal_Muscle-STRS-3</t>
   </si>
   <si>
     <t>20 months old, 7 dpi</t>
   </si>
   <si>
-    <t>Mus_musculus-Skeletal_Muscle-STRS-4</t>
+    <t>STW-Mus_musculus-Skeletal_Muscle-STRS-4</t>
   </si>
   <si>
     <t>Tibialis Anterior (Control)</t>
@@ -2532,19 +2460,19 @@
     <t>20 months old</t>
   </si>
   <si>
-    <t>Mus_musculus-Heart-STRS-1</t>
+    <t>STW-Mus_musculus-Heart-STRS-1</t>
   </si>
   <si>
     <t>Viral-Induced Myocarditis</t>
   </si>
   <si>
-    <t>Mus_musculus-Heart-STRS-2</t>
+    <t>STW-Mus_musculus-Heart-STRS-2</t>
   </si>
   <si>
     <t>Saline Injected Control</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-HCR-seqFISH-1</t>
+    <t>STW-Mus_musculus-Brain-HCR-seqFISH-1</t>
   </si>
   <si>
     <t>In Situ Transcription Profiling of Single Cells Reveals Spatial Organization of Cells in the Mouse Hippocampus</t>
@@ -2568,13 +2496,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-HCR-seqFISH-2</t>
+    <t>STW-Mus_musculus-Brain-HCR-seqFISH-2</t>
   </si>
   <si>
     <t>Cortex; Hippocampus</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-osmFISH-1</t>
+    <t>STW-Mus_musculus-Brain-osmFISH-1</t>
   </si>
   <si>
     <t>Spatial organization of the somatosensory cortex revealed by osmFISH</t>
@@ -2598,7 +2526,7 @@
     <t>loom</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-MERFISH-1</t>
+    <t>STW-Mus_musculus-Brain-MERFISH-1</t>
   </si>
   <si>
     <t>Molecular, spatial, and functional single-cell profiling of the hypothalamic preoptic region</t>
@@ -2613,7 +2541,7 @@
     <t>Hypothalamus</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-seqFISH+-1</t>
+    <t>STW-Mus_musculus-Brain-seqFISH+-1</t>
   </si>
   <si>
     <t>Transcriptome-scale super-resolved imaging in tissues by RNA seqFISH+</t>
@@ -2631,7 +2559,7 @@
     <t>P23</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-seqFISH+-2</t>
+    <t>STW-Mus_musculus-Brain-seqFISH+-2</t>
   </si>
   <si>
     <t>P40</t>
@@ -2652,22 +2580,22 @@
     <t>counts(h5ad)、segmented_cells(csv)、spots（csv）</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-MERFISH-2</t>
-  </si>
-  <si>
-    <t>Mus_musculus-Brain-MERFISH-3</t>
+    <t>STW-Mus_musculus-Brain-MERFISH-2</t>
+  </si>
+  <si>
+    <t>STW-Mus_musculus-Brain-MERFISH-3</t>
   </si>
   <si>
     <t>Ssp</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-MERFISH-4</t>
+    <t>STW-Mus_musculus-Brain-MERFISH-4</t>
   </si>
   <si>
     <t>Tea</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-HybISS-1</t>
+    <t>STW-Mus_musculus-Brain-HybISS-1</t>
   </si>
   <si>
     <t>Molecular architecture of the developing mouse brain</t>
@@ -2682,7 +2610,7 @@
     <t>Neural Tube</t>
   </si>
   <si>
-    <t>Mus_musculus-Embryo-seqFISH-1</t>
+    <t>STW-Mus_musculus-Embryo-seqFISH-1</t>
   </si>
   <si>
     <t>Integration of spatial and single-cell transcriptomic data elucidates mouse organogenesis</t>
@@ -2709,7 +2637,7 @@
     <t>Rds</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-EASI-FISH-1</t>
+    <t>STW-Mus_musculus-Brain-EASI-FISH-1</t>
   </si>
   <si>
     <t>EASI-FISH for thick tissue defines lateral hypothalamus spatio-molecular organization</t>
@@ -2730,7 +2658,7 @@
     <t>csv</t>
   </si>
   <si>
-    <t>Mus_musculus-Brain-smFISH-1</t>
+    <t>STW-Mus_musculus-Brain-smFISH-1</t>
   </si>
   <si>
     <t>Integrated spatial genomics in tissues reveals invariant and cell type dependent nuclear architecture</t>
@@ -2748,7 +2676,7 @@
     <t>6-7 weeks</t>
   </si>
   <si>
-    <t>Mus_musculus-Liver-MERFISH-1</t>
+    <t>STW-Mus_musculus-Liver-MERFISH-1</t>
   </si>
   <si>
     <t>Spatial transcriptome profiling by MERFISH reveals fetal liver hematopoietic stem cell niche architecture</t>
@@ -2769,7 +2697,7 @@
     <t>Liver (Tet2−/−)</t>
   </si>
   <si>
-    <t>Mus_musculus-Liver-MERFISH-2</t>
+    <t>STW-Mus_musculus-Liver-MERFISH-2</t>
   </si>
   <si>
     <t>Comparative analysis of MERFISH spatial transcriptomics with bulk and single-cell RNA sequencing</t>
@@ -2781,13 +2709,13 @@
     <t>h5ad</t>
   </si>
   <si>
-    <t>Mus_musculus-Kidney-MERFISH-1</t>
-  </si>
-  <si>
-    <t>Mus_musculus-Brain-MERFISH-5</t>
-  </si>
-  <si>
-    <t>Mus_musculus-Brain-RNAscope-1</t>
+    <t>STW-Mus_musculus-Kidney-MERFISH-1</t>
+  </si>
+  <si>
+    <t>STW-Mus_musculus-Brain-MERFISH-5</t>
+  </si>
+  <si>
+    <t>STW-Mus_musculus-Brain-RNAscope-1</t>
   </si>
   <si>
     <t>SCAMPR: Single-Cell Automated Multiplex Pipeline for RNA Quantification and Spatial Mapping</t>
@@ -2816,11 +2744,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -2966,8 +2894,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2983,6 +2934,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2990,15 +2971,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3012,24 +2985,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3043,30 +3000,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3083,13 +3018,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3141,13 +3069,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3159,7 +3153,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3171,67 +3171,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3249,7 +3189,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3261,43 +3231,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3310,12 +3244,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3333,7 +3261,36 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3368,26 +3325,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3417,19 +3354,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3448,127 +3376,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4104,10 +4032,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.4"/>
@@ -4133,7 +4061,8 @@
     <col min="19" max="19" width="16.6666666666667" style="52" customWidth="1"/>
     <col min="20" max="20" width="34.5925925925926" style="52" customWidth="1"/>
     <col min="21" max="21" width="37.7777777777778" style="52" customWidth="1"/>
-    <col min="22" max="16384" width="8.66666666666667" style="52"/>
+    <col min="22" max="22" width="36.5555555555556" style="52" customWidth="1"/>
+    <col min="23" max="16384" width="8.66666666666667" style="52"/>
   </cols>
   <sheetData>
     <row r="1" s="15" customFormat="1" ht="15.6" spans="1:19">
@@ -4195,8 +4124,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="52" customFormat="1" ht="31.2" spans="1:21">
-      <c r="A2" s="52" t="s">
+    <row r="2" s="52" customFormat="1" ht="31.2" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="57">
@@ -4239,17 +4168,10 @@
       <c r="R2" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="52" t="s">
+    </row>
+    <row r="3" ht="31.2" spans="1:18">
+      <c r="A3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="U2" s="52" t="str">
-        <f>SUBSTITUTE(T2," ","_")</f>
-        <v>Homo_sapiens-Spinal_Cord-ST-1</v>
-      </c>
-    </row>
-    <row r="3" ht="31.2" spans="1:21">
-      <c r="A3" s="52" t="s">
-        <v>31</v>
       </c>
       <c r="B3" s="57">
         <v>43560</v>
@@ -4291,32 +4213,25 @@
       <c r="R3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="52" t="str">
-        <f t="shared" ref="U3:U28" si="0">SUBSTITUTE(T3," ","_")</f>
-        <v>Homo_sapiens-Spinal_Cord-ST-2</v>
-      </c>
-    </row>
-    <row r="4" ht="78" spans="1:21">
-      <c r="A4" s="52" t="s">
-        <v>33</v>
+    </row>
+    <row r="4" ht="78" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="57">
         <v>43811</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="14">
         <v>31831833</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>23</v>
@@ -4326,58 +4241,51 @@
       </c>
       <c r="I4" s="40"/>
       <c r="J4" s="66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" s="14" t="b">
         <v>1</v>
       </c>
       <c r="M4" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="P4" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="67" t="s">
+      <c r="Q4" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="76" t="s">
+    </row>
+    <row r="5" ht="409.5" spans="1:18">
+      <c r="A5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="R4" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Bone-ST-1</v>
-      </c>
-    </row>
-    <row r="5" ht="409.5" spans="1:21">
-      <c r="A5" s="52" t="s">
-        <v>46</v>
       </c>
       <c r="B5" s="60">
         <v>43811</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="62">
         <v>31835037</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5" s="62" t="s">
         <v>23</v>
@@ -4387,340 +4295,298 @@
       </c>
       <c r="I5" s="62"/>
       <c r="J5" s="69" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K5" s="62" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L5" s="62" t="b">
         <v>0</v>
       </c>
       <c r="M5" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="71" t="s">
+    </row>
+    <row r="6" ht="93.6" spans="1:18">
+      <c r="A6" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="O5" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="U5" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Heart-ST-1</v>
-      </c>
-    </row>
-    <row r="6" ht="93.6" spans="1:21">
-      <c r="A6" s="52" t="s">
-        <v>56</v>
       </c>
       <c r="B6" s="57">
         <v>44502</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" s="14">
         <v>34731600</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="40"/>
       <c r="J6" s="66" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L6" s="14" t="b">
         <v>0</v>
       </c>
       <c r="M6" s="73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N6" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" ht="124.8" spans="1:18">
+      <c r="A7" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="O6" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="U6" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Testis-Slide-seq2-1</v>
-      </c>
-    </row>
-    <row r="7" ht="124.8" spans="1:21">
-      <c r="A7" s="52" t="s">
-        <v>67</v>
       </c>
       <c r="B7" s="57">
         <v>44532</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D7" s="14">
         <v>34857954</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="40"/>
       <c r="J7" s="66" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L7" s="14" t="b">
         <v>0</v>
       </c>
       <c r="M7" s="67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N7" s="68" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O7" s="68" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P7" s="67" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R7" s="67"/>
-      <c r="T7" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="U7" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Uterus-Visium-1</v>
-      </c>
-    </row>
-    <row r="8" s="52" customFormat="1" ht="234" spans="1:21">
-      <c r="A8" s="52" t="s">
-        <v>78</v>
+    </row>
+    <row r="8" s="52" customFormat="1" ht="234" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B8" s="57">
         <v>44200</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D8" s="14">
         <v>33406409</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="40"/>
       <c r="J8" s="66" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L8" s="14" t="b">
         <v>0</v>
       </c>
       <c r="M8" s="70" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N8" s="14">
         <v>5</v>
       </c>
       <c r="O8" s="66" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P8" s="14"/>
       <c r="R8" s="14"/>
-      <c r="T8" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="U8" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Colon-Visium-1</v>
-      </c>
-    </row>
-    <row r="9" s="52" customFormat="1" ht="15.6" spans="1:21">
-      <c r="A9" s="52" t="s">
-        <v>85</v>
+    </row>
+    <row r="9" s="52" customFormat="1" ht="15.6" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B9" s="57">
         <v>44200</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D9" s="14">
         <v>33406409</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I9" s="40"/>
       <c r="J9" s="66" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L9" s="14" t="b">
         <v>0</v>
       </c>
       <c r="M9" s="70" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="N9" s="14">
         <v>1</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="P9" s="14"/>
       <c r="R9" s="14"/>
-      <c r="T9" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="U9" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Colon-Visium-2</v>
-      </c>
-    </row>
-    <row r="10" ht="15.6" spans="1:21">
-      <c r="A10" s="52" t="s">
-        <v>89</v>
+    </row>
+    <row r="10" ht="15.6" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B10" s="57">
         <v>44200</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D10" s="14">
         <v>33406409</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="40"/>
       <c r="J10" s="66" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L10" s="14" t="b">
         <v>0</v>
       </c>
       <c r="M10" s="70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N10" s="14">
         <v>2</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="P10" s="14"/>
       <c r="R10" s="14"/>
-      <c r="T10" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="U10" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Colon-Visium-3</v>
-      </c>
-    </row>
-    <row r="11" ht="46.8" spans="1:21">
-      <c r="A11" s="52" t="s">
-        <v>33</v>
+    </row>
+    <row r="11" ht="46.8" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B11" s="57">
         <v>44603</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D11" s="14">
         <v>35149753</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>23</v>
@@ -4730,10 +4596,10 @@
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="66" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11" s="14" t="b">
         <v>1</v>
@@ -4743,37 +4609,30 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R11" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="T11" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="U11" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Bone-ST-1</v>
-      </c>
-    </row>
-    <row r="12" ht="46.8" spans="1:21">
-      <c r="A12" s="52" t="s">
-        <v>97</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" ht="46.8" spans="1:18">
+      <c r="A12" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B12" s="57">
         <v>44603</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D12" s="14">
         <v>35149753</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>23</v>
@@ -4783,10 +4642,10 @@
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="66" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L12" s="14" t="b">
         <v>1</v>
@@ -4796,50 +4655,43 @@
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R12" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="T12" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="U12" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Bone-ST-2</v>
-      </c>
-    </row>
-    <row r="13" ht="93.6" spans="1:21">
-      <c r="A13" s="52" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" ht="93.6" spans="1:18">
+      <c r="A13" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B13" s="57">
         <v>44218</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D13" s="14">
         <v>33458620</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="66" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L13" s="14" t="b">
         <v>0</v>
@@ -4849,56 +4701,49 @@
         <v>1</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="T13" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="U13" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Prostate-Visium-1</v>
-      </c>
-    </row>
-    <row r="14" ht="109.2" spans="1:21">
-      <c r="A14" s="52" t="s">
-        <v>111</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" ht="109.2" spans="1:18">
+      <c r="A14" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B14" s="57">
         <v>44218</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D14" s="14">
         <v>33458620</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="66" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L14" s="14" t="b">
         <v>0</v>
@@ -4908,56 +4753,49 @@
         <v>1</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="P14" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="T14" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="U14" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Prostate-Visium-2</v>
-      </c>
-    </row>
-    <row r="15" ht="78" spans="1:21">
-      <c r="A15" s="52" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" ht="78" spans="1:18">
+      <c r="A15" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B15" s="57">
         <v>44334</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D15" s="14">
         <v>34003797</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="66" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="L15" s="14" t="b">
         <v>1</v>
@@ -4967,178 +4805,157 @@
         <v>1</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="T15" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="U15" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Kidney-Visium-1</v>
-      </c>
-    </row>
-    <row r="16" ht="15.6" spans="1:21">
-      <c r="A16" s="52" t="s">
-        <v>126</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:18">
+      <c r="A16" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B16" s="57">
         <v>44336</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D16" s="14">
         <v>34095116</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="66" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L16" s="14" t="b">
         <v>0</v>
       </c>
       <c r="M16" s="70" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="N16" s="14">
         <v>1</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="T16" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="U16" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Liver-Visium-1</v>
-      </c>
-    </row>
-    <row r="17" ht="15.6" spans="1:21">
-      <c r="A17" s="52" t="s">
-        <v>136</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:18">
+      <c r="A17" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B17" s="57">
         <v>44336</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D17" s="14">
         <v>34095116</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="66" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L17" s="14" t="b">
         <v>0</v>
       </c>
       <c r="M17" s="70" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="N17" s="14">
         <v>1</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="T17" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="U17" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Liver-Visium-2</v>
-      </c>
-    </row>
-    <row r="18" ht="55" customHeight="1" spans="1:21">
-      <c r="A18" s="52" t="s">
-        <v>141</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" ht="55" customHeight="1" spans="1:19">
+      <c r="A18" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B18" s="57">
         <v>44418</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D18" s="14">
         <v>34380013</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="40"/>
       <c r="J18" s="66" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="L18" s="14" t="b">
         <v>0</v>
@@ -5148,56 +4965,49 @@
         <v>13</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S18" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="T18" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="U18" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Adipose_Tissue-Visium-1</v>
-      </c>
-    </row>
-    <row r="19" ht="15.6" spans="1:21">
-      <c r="A19" s="52" t="s">
-        <v>149</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B19" s="57">
         <v>44518</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D19" s="14">
         <v>34792289</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="66" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L19" s="14" t="b">
         <v>0</v>
@@ -5207,57 +5017,50 @@
         <v>1</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R19" s="14"/>
       <c r="S19" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="U19" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Liver-Visium-3</v>
-      </c>
-    </row>
-    <row r="20" ht="62.4" spans="1:21">
-      <c r="A20" s="52" t="s">
-        <v>101</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" ht="62.4" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B20" s="57">
         <v>44550</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D20" s="14">
         <v>34928497</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="40"/>
       <c r="J20" s="74" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L20" s="14" t="b">
         <v>1</v>
@@ -5267,53 +5070,46 @@
         <v>6</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="U20" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Prostate-Visium-1</v>
-      </c>
-    </row>
-    <row r="21" ht="62.4" spans="1:21">
-      <c r="A21" s="52" t="s">
-        <v>111</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" ht="62.4" spans="1:16">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B21" s="57">
         <v>44550</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D21" s="14">
         <v>34928497</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I21" s="40"/>
       <c r="J21" s="74" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L21" s="14" t="b">
         <v>1</v>
@@ -5323,48 +5119,41 @@
         <v>2</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="P21" s="14"/>
-      <c r="T21" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="U21" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Prostate-Visium-2</v>
-      </c>
-    </row>
-    <row r="22" ht="15.6" spans="1:21">
-      <c r="A22" s="52" t="s">
-        <v>163</v>
+    </row>
+    <row r="22" ht="15.6" spans="1:16">
+      <c r="A22" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B22" s="57">
         <v>44550</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D22" s="14">
         <v>34928497</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="40"/>
       <c r="J22" s="66" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L22" s="14" t="b">
         <v>0</v>
@@ -5374,48 +5163,41 @@
         <v>2</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="P22" s="14"/>
-      <c r="T22" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="U22" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Prostate-Visium-3</v>
-      </c>
-    </row>
-    <row r="23" ht="111.5" customHeight="1" spans="1:21">
-      <c r="A23" s="52" t="s">
-        <v>167</v>
+    </row>
+    <row r="23" ht="111.5" customHeight="1" spans="1:19">
+      <c r="A23" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B23" s="57">
         <v>44560</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D23" s="14">
         <v>34969984</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I23" s="40"/>
       <c r="J23" s="66" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="K23" s="40" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
@@ -5423,56 +5205,49 @@
         <v>3</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="P23" s="40" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S23" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="T23" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="U23" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens--Visium-1</v>
-      </c>
-    </row>
-    <row r="24" ht="15.6" spans="1:21">
-      <c r="A24" s="52" t="s">
-        <v>177</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:19">
+      <c r="A24" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B24" s="57">
         <v>44572</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D24" s="14">
         <v>35021063</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F24" s="64" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I24" s="40"/>
       <c r="J24" s="66" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L24" s="14" t="b">
         <v>0</v>
@@ -5482,59 +5257,52 @@
         <v>2</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="P24" s="52" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R24" s="52" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="S24" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="T24" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="U24" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Liver-Visium-4</v>
-      </c>
-    </row>
-    <row r="25" ht="31.2" spans="1:21">
-      <c r="A25" s="52" t="s">
-        <v>185</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" ht="31.2" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B25" s="57">
         <v>44572</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D25" s="14">
         <v>35021063</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F25" s="64" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I25" s="40"/>
       <c r="J25" s="74" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L25" s="14" t="b">
         <v>1</v>
@@ -5544,47 +5312,40 @@
         <v>3</v>
       </c>
       <c r="O25" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="T25" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="U25" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Liver-Visium-5</v>
-      </c>
-    </row>
-    <row r="26" ht="31.2" spans="1:21">
-      <c r="A26" s="52" t="s">
-        <v>189</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" ht="31.2" spans="1:19">
+      <c r="A26" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="B26" s="57">
         <v>44650</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D26" s="14">
         <v>35355018</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F26" s="64" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I26" s="40"/>
       <c r="J26" s="66" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="L26" s="14" t="b">
         <v>0</v>
@@ -5594,56 +5355,49 @@
         <v>1</v>
       </c>
       <c r="O26" s="14" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S26" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="T26" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="U26" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Lung-Visium-1</v>
-      </c>
-    </row>
-    <row r="27" ht="15.6" spans="1:21">
-      <c r="A27" s="52" t="s">
-        <v>197</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:16">
+      <c r="A27" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B27" s="57">
         <v>44650</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D27" s="14">
         <v>35355018</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F27" s="64" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I27" s="40"/>
       <c r="J27" s="66" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="L27" s="14" t="b">
         <v>0</v>
@@ -5653,74 +5407,60 @@
         <v>1</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="P27" s="14"/>
-      <c r="T27" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="U27" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens-Lung-Visium-2</v>
-      </c>
-    </row>
-    <row r="28" ht="58" customHeight="1" spans="1:21">
-      <c r="A28" s="52" t="s">
-        <v>201</v>
+    </row>
+    <row r="28" ht="58" customHeight="1" spans="1:18">
+      <c r="A28" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B28" s="57">
         <v>44664</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D28" s="14">
         <v>35418685</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F28" s="64" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I28" s="40"/>
       <c r="J28" s="66" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="K28" s="40" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L28" s="40"/>
       <c r="M28" s="70" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="N28" s="40">
         <v>8</v>
       </c>
       <c r="O28" s="40" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R28" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="T28" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="U28" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>Homo_sapiens--Visium-2</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5776,8 +5516,8 @@
   <sheetPr/>
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="K1" sqref="K$1:K$1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -5857,13 +5597,13 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="202.8" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="B2" s="10">
         <v>42552</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D2" s="5">
         <v>27365449</v>
@@ -5872,272 +5612,272 @@
         <v>21</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L2" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="Q2" s="48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="280.8" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="B3" s="10">
         <v>44148</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D3" s="5">
         <v>33188776</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L3" s="28" t="b">
         <v>0</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R3" s="27" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="B4" s="10">
         <v>44148</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D4" s="5">
         <v>33188776</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="P4" s="27" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="B5" s="10">
         <v>44148</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D5" s="5">
         <v>33188776</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R5" s="27" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="234" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B6" s="17">
         <v>43936</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D6" s="18">
         <v>32293264</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I6" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>239</v>
-      </c>
       <c r="K6" s="18" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B7" s="10">
         <v>44008</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D7" s="5">
         <v>32637622</v>
@@ -6146,392 +5886,392 @@
         <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L7" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N7" s="7">
         <v>75</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R7" s="16"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="B8" s="10">
         <v>44538</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L8" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N8" s="7">
         <v>7</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R8" s="16"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" customHeight="1" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="B9" s="10">
         <v>44029</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="D9" s="5">
         <v>32702314</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L9" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="N9" s="30">
         <v>9</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="Q9" s="49" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="R9" s="43" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="B10" s="10">
         <v>44029</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="D10" s="5">
         <v>32702314</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L10" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="N10" s="30">
         <v>8</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="49" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="R10" s="44"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B11" s="10">
         <v>44215</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="D11" s="5">
         <v>33469025</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L11" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="N11" s="5">
         <v>1</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R11" s="16"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="15.5" customHeight="1" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B12" s="10">
         <v>44566</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L12" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="N12" s="5">
         <v>2</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R12" s="43" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B13" s="10">
         <v>44566</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="N13" s="5">
         <v>4</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R13" s="44"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="B14" s="10">
         <v>44088</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D14" s="7">
         <v>33083725</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L14" s="10" t="b">
         <v>1</v>
@@ -6541,49 +6281,49 @@
         <v>6</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="P14" s="31" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R14" s="16"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B15" s="10">
         <v>44088</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D15" s="7">
         <v>33083725</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L15" s="10" t="b">
         <v>1</v>
@@ -6593,49 +6333,49 @@
         <v>8</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R15" s="16"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="B16" s="10">
         <v>44088</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D16" s="7">
         <v>33083725</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L16" s="10" t="b">
         <v>1</v>
@@ -6645,49 +6385,49 @@
         <v>9</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R16" s="16"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="B17" s="10">
         <v>44088</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D17" s="7">
         <v>33083725</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L17" s="10" t="b">
         <v>0</v>
@@ -6697,49 +6437,49 @@
         <v>8</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R17" s="16"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="B18" s="10">
         <v>44088</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D18" s="7">
         <v>33083725</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L18" s="10" t="b">
         <v>1</v>
@@ -6749,49 +6489,49 @@
         <v>6</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R18" s="16"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="B19" s="10">
         <v>44088</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D19" s="7">
         <v>33083725</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L19" s="10" t="b">
         <v>1</v>
@@ -6801,49 +6541,49 @@
         <v>6</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R19" s="16"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B20" s="10">
         <v>44088</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D20" s="7">
         <v>33083725</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L20" s="10" t="b">
         <v>1</v>
@@ -6853,49 +6593,49 @@
         <v>8</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R20" s="16"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="B21" s="10">
         <v>44088</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D21" s="7">
         <v>33083725</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L21" s="10" t="b">
         <v>0</v>
@@ -6905,552 +6645,552 @@
         <v>6</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="P21" s="31" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="B22" s="10">
         <v>44502</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D22" s="7">
         <v>34731600</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L22" s="10" t="b">
         <v>1</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="N22" s="5">
         <v>3</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R22" s="14" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="B23" s="10">
         <v>44502</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D23" s="7">
         <v>34731600</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L23" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="N23" s="5">
         <v>3</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R23" s="14"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="B24" s="10">
         <v>44152</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="10" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L24" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="N24" s="5">
         <v>5</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R24" s="50"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="B25" s="10">
         <v>44512</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="D25" s="7">
         <v>34773081</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="L25" s="10" t="b">
         <v>1</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="N25" s="5">
         <v>1</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R25" s="50"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="B26" s="10">
         <v>44512</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="D26" s="7">
         <v>34773081</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="L26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="N26" s="5">
         <v>1</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R26" s="50"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A27" s="1" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="B27" s="10">
         <v>44512</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="D27" s="7">
         <v>34773081</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="L27" s="10" t="b">
         <v>1</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="N27" s="5">
         <v>1</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="1:17">
       <c r="A28" s="1" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="B28" s="10">
         <v>44123</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="K28" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L28" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="N28">
         <v>2</v>
       </c>
       <c r="O28" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="P28" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="Q28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="B29" s="10">
         <v>44123</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="L29" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="P29" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="Q29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:17">
       <c r="A30" s="1" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B30" s="10">
         <v>44123</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L30" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="P30" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="Q30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" ht="15.6" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="B31" s="10">
         <v>44123</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L31" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="P31" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="Q31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="1:19">
       <c r="A32" s="1" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="B32" s="8">
         <v>44334</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D32" s="7">
         <v>34003797</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="L32" s="7" t="b">
         <v>1</v>
@@ -7460,51 +7200,51 @@
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="P32" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Q32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R32" s="35" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="S32" s="35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="1:19">
       <c r="A33" s="1" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="B33" s="8">
         <v>44334</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D33" s="7">
         <v>34003797</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="L33" s="7" t="b">
         <v>1</v>
@@ -7514,47 +7254,47 @@
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="P33" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Q33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
     </row>
     <row r="34" ht="15.6" spans="1:19">
       <c r="A34" s="1" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="B34" s="8">
         <v>44223</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="D34" s="7">
         <v>34115981</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L34" s="7" t="b">
         <v>0</v>
@@ -7564,51 +7304,51 @@
         <v>4</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="P34" s="36" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="Q34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R34" s="35" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="S34" s="35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="15.6" spans="1:19">
       <c r="A35" s="1" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="B35" s="8">
         <v>44223</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="D35" s="7">
         <v>34115981</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L35" s="7" t="b">
         <v>0</v>
@@ -7618,41 +7358,41 @@
       <c r="O35" s="35"/>
       <c r="P35" s="36"/>
       <c r="Q35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R35" s="35"/>
       <c r="S35" s="35"/>
     </row>
     <row r="36" ht="15.6" spans="1:19">
       <c r="A36" s="1" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="B36" s="8">
         <v>44223</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="D36" s="7">
         <v>34115981</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L36" s="7" t="b">
         <v>0</v>
@@ -7662,41 +7402,41 @@
       <c r="O36" s="35"/>
       <c r="P36" s="36"/>
       <c r="Q36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
     </row>
     <row r="37" ht="15.6" spans="1:19">
       <c r="A37" s="1" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="B37" s="8">
         <v>44223</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="D37" s="7">
         <v>34115981</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L37" s="7" t="b">
         <v>1</v>
@@ -7706,41 +7446,41 @@
       <c r="O37" s="35"/>
       <c r="P37" s="36"/>
       <c r="Q37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
     </row>
     <row r="38" ht="15.6" spans="1:19">
       <c r="A38" s="1" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="B38" s="8">
         <v>44223</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="D38" s="7">
         <v>34115981</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L38" s="7" t="b">
         <v>0</v>
@@ -7750,107 +7490,107 @@
         <v>1</v>
       </c>
       <c r="O38" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="P38" s="36"/>
       <c r="Q38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
     </row>
     <row r="39" ht="15.6" spans="1:19">
       <c r="A39" s="1" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="B39" s="8">
         <v>44532</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="D39" s="7">
         <v>34857782</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L39" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="N39" s="7">
         <v>8</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A40" s="1" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="B40" s="21">
         <v>44603</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D40" s="5">
         <v>35149721</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L40" s="7" t="b">
         <v>0</v>
@@ -7860,134 +7600,134 @@
         <v>1</v>
       </c>
       <c r="O40" s="38" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="P40" s="37" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R40" s="51" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A41" s="1" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="B41" s="21">
         <v>44603</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D41" s="5">
         <v>35149721</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L41" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="N41" s="37">
         <v>1</v>
       </c>
       <c r="O41" s="37" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="P41" s="37" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R41" s="52"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B42" s="21">
         <v>44378</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="D42" s="5">
         <v>34210306</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L42" s="5" t="b">
         <v>0</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="N42" s="37">
         <v>1</v>
       </c>
       <c r="O42" s="37" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="P42" s="37" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="96.6" spans="1:18">
       <c r="A43" s="1" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="B43" s="22">
         <v>44379</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="D43" s="18">
         <v>34210887</v>
@@ -7996,78 +7736,78 @@
         <v>21</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L43" s="18" t="b">
         <v>0</v>
       </c>
       <c r="M43" s="24" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="N43" s="28" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="O43" s="28" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="P43" s="28" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="Q43" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R43" s="53" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="B44" s="21">
         <v>44411</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="D44" s="5">
         <v>34344022</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L44" s="7" t="b">
         <v>0</v>
@@ -8077,46 +7817,46 @@
         <v>4</v>
       </c>
       <c r="O44" s="39" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="P44" s="37"/>
       <c r="Q44" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="B45" s="21">
         <v>44411</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="D45" s="5">
         <v>34344022</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L45" s="7" t="b">
         <v>1</v>
@@ -8128,148 +7868,148 @@
       <c r="O45" s="40"/>
       <c r="P45" s="37"/>
       <c r="Q45" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B46" s="21">
         <v>44427</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="D46" s="5">
         <v>34413515</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="J46" s="33" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L46" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="N46" s="37">
         <v>3</v>
       </c>
       <c r="O46" s="37" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="P46" s="37" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="B47" s="21">
         <v>44427</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="D47" s="5">
         <v>34413515</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L47" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="N47" s="37">
         <v>3</v>
       </c>
       <c r="O47" s="37" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="P47" s="37" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="B48" s="21">
         <v>44616</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="D48" s="5">
         <v>35210624</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L48" s="5" t="b">
         <v>0</v>
@@ -8279,44 +8019,44 @@
         <v>8</v>
       </c>
       <c r="O48" s="37" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="P48" s="37"/>
       <c r="Q48" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A49" s="1" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="B49" s="21">
         <v>44462</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="L49" s="5" t="b">
         <v>1</v>
@@ -8326,48 +8066,48 @@
         <v>4</v>
       </c>
       <c r="O49" s="37" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="P49" s="37" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A50" s="1" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="B50" s="21">
         <v>44636</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="D50" s="5">
         <v>35372810</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="L50" s="7" t="b">
         <v>1</v>
@@ -8375,51 +8115,51 @@
       <c r="M50"/>
       <c r="N50" s="37"/>
       <c r="O50" s="39" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="P50" s="37" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R50" s="52" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A51" s="1" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="B51" s="21">
         <v>44636</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="D51" s="5">
         <v>35372810</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="L51" s="7" t="b">
         <v>0</v>
@@ -8428,352 +8168,352 @@
       <c r="N51" s="37"/>
       <c r="O51" s="40"/>
       <c r="P51" s="37" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R51" s="52"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A52" s="1" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="B52" s="21">
         <v>44488</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="D52" s="5">
         <v>34663698</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I52"/>
       <c r="J52" s="7" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L52" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="N52" s="41" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="O52" s="39" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="P52" s="37" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A53" s="1" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="B53" s="21">
         <v>44488</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="D53" s="5">
         <v>34663698</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="J53" s="42" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L53" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="N53" s="40"/>
       <c r="O53" s="40"/>
       <c r="P53" s="37" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A54" s="1" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="B54" s="8">
         <v>44502</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="L54" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="N54" s="7">
         <v>1</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R54" s="50"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A55" s="1" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="B55" s="8">
         <v>44502</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="L55" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="N55" s="7">
         <v>1</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R55" s="50"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A56" s="1" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="B56" s="8">
         <v>44502</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="L56" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="N56" s="7">
         <v>1</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A57" s="1" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="B57" s="8">
         <v>44502</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="L57" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="N57" s="7">
         <v>1</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A58" s="1" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="B58" s="8">
         <v>44516</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="D58" s="7">
         <v>34793930</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L58" s="7" t="b">
         <v>1</v>
@@ -8783,51 +8523,51 @@
         <v>4</v>
       </c>
       <c r="O58" s="43" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R58" s="51" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A59" s="1" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="B59" s="8">
         <v>44516</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="D59" s="7">
         <v>34793930</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L59" s="7" t="b">
         <v>1</v>
@@ -8838,46 +8578,46 @@
       </c>
       <c r="O59" s="44"/>
       <c r="P59" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R59" s="51"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A60" s="1" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="B60" s="8">
         <v>44516</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="D60" s="7">
         <v>34793930</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L60" s="7" t="b">
         <v>1</v>
@@ -8888,347 +8628,347 @@
       </c>
       <c r="O60" s="44"/>
       <c r="P60" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R60" s="51"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A61" s="1" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="B61" s="8">
         <v>44531</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="D61" s="7">
         <v>34853151</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="L61" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="N61" s="7">
         <v>5</v>
       </c>
       <c r="O61" s="45" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A62" s="1" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="B62" s="8">
         <v>44678</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L62" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="N62" s="7">
         <v>2</v>
       </c>
       <c r="O62" s="46" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A63" s="1" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="B63" s="8">
         <v>44678</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="L63" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="N63" s="7">
         <v>2</v>
       </c>
       <c r="O63" s="47"/>
       <c r="P63" s="7" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A64" s="1" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="B64" s="8">
         <v>44678</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L64" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="N64" s="7">
         <v>2</v>
       </c>
       <c r="O64" s="47"/>
       <c r="P64" s="7" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="B65" s="8">
         <v>44678</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="L65" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="N65" s="7">
         <v>2</v>
       </c>
       <c r="O65" s="47"/>
       <c r="P65" s="7" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A66" s="1" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="B66" s="8">
         <v>44547</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="D66" s="7">
         <v>34915728</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="N66" s="7">
         <v>1</v>
       </c>
       <c r="O66" s="43" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="P66" s="7"/>
       <c r="Q66" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R66" s="52" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A67" s="1" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="B67" s="8">
         <v>44547</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="D67" s="7">
         <v>34915728</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L67" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="N67" s="7">
         <v>1</v>
@@ -9236,47 +8976,47 @@
       <c r="O67" s="44"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R67" s="52"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A68" s="1" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="B68" s="8">
         <v>44547</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="D68" s="7">
         <v>34915728</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L68" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="N68" s="7">
         <v>1</v>
@@ -9284,47 +9024,47 @@
       <c r="O68" s="44"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R68" s="52"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A69" s="1" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="B69" s="8">
         <v>44547</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="D69" s="7">
         <v>34915728</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="7" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L69" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="N69" s="7">
         <v>1</v>
@@ -9332,43 +9072,43 @@
       <c r="O69" s="44"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R69" s="52"/>
     </row>
     <row r="70" ht="15.6" spans="1:19">
       <c r="A70" s="1" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="B70" s="8">
         <v>44572</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D70" s="7">
         <v>35021063</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L70" s="7" t="b">
         <v>0</v>
@@ -9377,371 +9117,371 @@
         <v>5</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="Q70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R70" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="S70" s="7" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
     </row>
     <row r="71" ht="15.6" spans="1:19">
       <c r="A71" s="1" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="B71" s="10">
         <v>44551</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="D71" s="7">
         <v>35050211</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L71" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="N71" s="7">
         <v>4</v>
       </c>
       <c r="O71" s="54" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="Q71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" ht="15.6" spans="1:19">
       <c r="A72" s="1" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="B72" s="8">
         <v>44641</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="D72" s="7">
         <v>35314823</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L72" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="Q72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S72" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" ht="15.6" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="B73" s="8">
         <v>44672</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J73" s="33" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="L73" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="Q73" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" ht="15.6" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="B74" s="8">
         <v>44672</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J74" s="33" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="L74" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="Q74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="15.6" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="B75" s="8">
         <v>44672</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J75" s="33" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="L75" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="Q75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" ht="15.6" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="B76" s="8">
         <v>44672</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J76" s="33" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="L76" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="Q76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="15.6" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="B77" s="8">
         <v>44672</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J77" s="33" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L77" s="7" t="b">
         <v>1</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="Q77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" ht="15.6" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="B78" s="8">
         <v>44672</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J78" s="33" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L78" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="Q78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -9853,7 +9593,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -9935,164 +9675,164 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="15.6" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="B2" s="4">
         <v>42662</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="D2" s="5">
         <v>27764670</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L2" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R2" s="16"/>
       <c r="S2" s="1" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="B3" s="4">
         <v>42662</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="D3" s="5">
         <v>27764670</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L3" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R3" s="16"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="B4" s="4">
         <v>43403</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="D4" s="5">
         <v>30377364</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L4" s="14" t="b">
         <v>0</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="N4" s="7">
         <v>1</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R4" s="16"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="B5" s="4">
         <v>43420</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="D5" s="5">
         <v>30385464</v>
@@ -10101,20 +9841,20 @@
         <v>21</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L5" s="14"/>
       <c r="M5" s="7"/>
@@ -10122,49 +9862,49 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R5" s="16"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="B6" s="4">
         <v>43549</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="D6" s="5">
         <v>30911168</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L6" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="N6" s="7">
         <v>1</v>
@@ -10172,49 +9912,49 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R6" s="16"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="B7" s="4">
         <v>43549</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="D7" s="5">
         <v>30911168</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L7" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="N7" s="7">
         <v>1</v>
@@ -10222,99 +9962,99 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R7" s="16"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="B8" s="8">
         <v>44475</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="D8" s="7">
         <v>34616063</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="16"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="B9" s="8">
         <v>44475</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="D9" s="7">
         <v>34616063</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L9" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -10324,43 +10064,43 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="B10" s="8">
         <v>44475</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="D10" s="7">
         <v>34616063</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -10370,43 +10110,43 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="15.6" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="B11" s="8">
         <v>44475</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="D11" s="7">
         <v>34616063</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L11" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -10416,41 +10156,41 @@
     </row>
     <row r="12" ht="15.6" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="B12" s="10">
         <v>44405</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="D12" s="7">
         <v>34321664</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L12" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="N12" s="7">
         <v>24</v>
@@ -10458,287 +10198,287 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R12" s="3"/>
     </row>
     <row r="13" ht="15.6" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="B13" s="10">
         <v>44445</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="D13" s="7">
         <v>34489600</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L13" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R13" s="3"/>
     </row>
     <row r="14" ht="15.6" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="B14" s="10">
         <v>44536</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="D14" s="7">
         <v>34875226</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L14" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="N14" s="7">
         <v>1</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R14" s="3"/>
     </row>
     <row r="15" ht="15.6" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="B15" s="10">
         <v>44313</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="10" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L15" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="N15" s="7">
         <v>3</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R15" s="3"/>
     </row>
     <row r="16" ht="15.6" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="B16" s="10">
         <v>44376</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="D16" s="7">
         <v>34183665</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L16" s="10" t="b">
         <v>0</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R16" s="3"/>
     </row>
     <row r="17" ht="15.6" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="B17" s="10">
         <v>44376</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="D17" s="7">
         <v>34183665</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L17" s="10" t="b">
         <v>1</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R17" s="3"/>
     </row>
     <row r="18" ht="15.6" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="B18" s="8">
         <v>44627</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="b">
         <v>0</v>
@@ -10748,39 +10488,39 @@
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="B19" s="8">
         <v>44627</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="b">
         <v>0</v>
@@ -10790,48 +10530,48 @@
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="B20" s="8">
         <v>44641</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="D20" s="7">
         <v>35314823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L20" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="N20" s="7">
         <v>3</v>
@@ -10839,95 +10579,95 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="B21" s="8">
         <v>44646</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L21" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="B22" s="8">
         <v>44646</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/data_downloaded.xlsx
+++ b/public/files/data_downloaded.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunfu/WebstormProjects/Spatial_Trans_Web/public/files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F321984-7F90-A94B-8D85-57B7D370B2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22360" windowHeight="9260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NGS-Human" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="691">
   <si>
     <t>ID</t>
   </si>
@@ -128,7 +134,7 @@
         <sz val="12"/>
         <color theme="2"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>barcodes</t>
     </r>
@@ -137,6 +143,7 @@
         <sz val="12"/>
         <color theme="2"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -146,7 +153,7 @@
         <sz val="12"/>
         <color theme="2"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>annotation</t>
     </r>
@@ -155,6 +162,7 @@
         <sz val="12"/>
         <color theme="2"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -164,7 +172,7 @@
         <sz val="12"/>
         <color theme="2"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>counts</t>
     </r>
@@ -173,6 +181,7 @@
         <sz val="12"/>
         <color theme="2"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -182,7 +191,7 @@
         <sz val="12"/>
         <color theme="2"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>image(jpg)</t>
     </r>
@@ -260,7 +269,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Preprocess (20220805)                                   </t>
     </r>
@@ -269,6 +278,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>过滤、归一化、聚类、坐标标准化、</t>
@@ -278,7 +288,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>X</t>
     </r>
@@ -287,6 +297,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>格式转换、保存为zarr文件。</t>
@@ -296,7 +307,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 min_counts=500</t>
@@ -306,6 +317,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
@@ -315,7 +327,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>obs["pct_counts_mt"] &lt; 25</t>
     </r>
@@ -324,6 +336,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
@@ -333,7 +346,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>min_cells=5</t>
     </r>
@@ -396,6 +409,7 @@
         <sz val="12"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>过滤、归一化、聚类、坐标标准化、</t>
@@ -405,7 +419,7 @@
         <sz val="12"/>
         <color theme="4"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>X</t>
     </r>
@@ -414,6 +428,7 @@
         <sz val="12"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>格式转换、保存为</t>
@@ -423,7 +438,7 @@
         <sz val="12"/>
         <color theme="4"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>zarr</t>
     </r>
@@ -432,6 +447,7 @@
         <sz val="12"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件。</t>
@@ -441,7 +457,7 @@
         <sz val="12"/>
         <color theme="4"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 min_counts=50</t>
@@ -451,6 +467,7 @@
         <sz val="12"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
@@ -460,7 +477,7 @@
         <sz val="12"/>
         <color theme="4"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>obs["pct_counts_mt"] &lt; 25</t>
     </r>
@@ -469,6 +486,7 @@
         <sz val="12"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
@@ -478,7 +496,7 @@
         <sz val="12"/>
         <color theme="4"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>min_cells=5</t>
     </r>
@@ -526,6 +544,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>过滤、归一化、聚类、坐标标准化、</t>
@@ -535,7 +554,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>X</t>
     </r>
@@ -544,6 +563,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>格式转换、保存为</t>
@@ -553,7 +573,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>zarr</t>
     </r>
@@ -562,6 +582,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件。</t>
@@ -571,7 +592,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 min_counts=500</t>
@@ -581,6 +602,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
@@ -590,7 +612,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>obs["pct_counts_mt"] &lt; 25</t>
     </r>
@@ -599,6 +621,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
@@ -608,7 +631,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>min_cells=5</t>
     </r>
@@ -643,7 +666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM4797918</t>
     </r>
@@ -652,6 +675,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -661,7 +685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>whole colon section</t>
     </r>
@@ -670,6 +694,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）、</t>
@@ -679,7 +704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM4797920</t>
     </r>
@@ -688,6 +713,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -697,7 +723,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">whole small intestine section
 </t>
@@ -707,6 +733,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）、</t>
@@ -716,7 +743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM4797921</t>
     </r>
@@ -725,6 +752,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -734,7 +762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">whole small intestine section
 </t>
@@ -744,6 +772,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）、</t>
@@ -753,7 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM4797922</t>
     </r>
@@ -762,6 +791,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -771,7 +801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>whole colon section</t>
     </r>
@@ -780,6 +810,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）、</t>
@@ -789,7 +820,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM4797923</t>
     </r>
@@ -798,6 +829,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -807,7 +839,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>whole colon section</t>
     </r>
@@ -816,6 +848,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -833,7 +866,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM4797919</t>
     </r>
@@ -842,6 +875,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -851,7 +885,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>whole colon section</t>
     </r>
@@ -860,6 +894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -877,7 +912,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM4797916</t>
     </r>
@@ -886,6 +921,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -895,7 +931,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM4797917</t>
     </r>
@@ -921,7 +957,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1. SCP</t>
     </r>
@@ -930,6 +966,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数据，暂且搁置不用</t>
@@ -974,7 +1011,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>10x</t>
     </r>
@@ -983,6 +1020,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>标准格式</t>
@@ -994,6 +1032,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>过滤、归一化、聚类、坐标标准化、</t>
@@ -1003,7 +1042,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>X</t>
     </r>
@@ -1012,6 +1051,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>格式转换、保存为</t>
@@ -1021,7 +1061,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>zarr</t>
     </r>
@@ -1030,6 +1070,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件。</t>
@@ -1039,7 +1080,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 min_counts=100</t>
@@ -1049,6 +1090,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
@@ -1058,7 +1100,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>obs["pct_counts_mt"] &lt; 25</t>
     </r>
@@ -1067,6 +1109,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
@@ -1076,7 +1119,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>min_cells=5</t>
     </r>
@@ -1123,7 +1166,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>matrix</t>
     </r>
@@ -1132,7 +1175,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>（</t>
     </r>
@@ -1141,7 +1184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>csv</t>
     </r>
@@ -1150,7 +1193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>）、</t>
     </r>
@@ -1159,7 +1202,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>image</t>
     </r>
@@ -1168,7 +1211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>（</t>
     </r>
@@ -1177,7 +1220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>tif</t>
     </r>
@@ -1186,7 +1229,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>）</t>
     </r>
@@ -1197,7 +1240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>还包含</t>
     </r>
@@ -1206,7 +1249,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>mouse</t>
     </r>
@@ -1215,7 +1258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>数据</t>
     </r>
@@ -1297,6 +1340,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>过滤、归一化、聚类、坐标标准化、</t>
@@ -1306,7 +1350,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>X</t>
     </r>
@@ -1315,6 +1359,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>格式转换、保存为</t>
@@ -1324,7 +1369,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>zarr</t>
     </r>
@@ -1333,6 +1378,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>文件。</t>
@@ -1342,7 +1388,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 min_counts=100</t>
@@ -1352,6 +1398,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
@@ -1361,7 +1408,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>obs["pct_counts_mt"] &lt; 35</t>
     </r>
@@ -1370,6 +1417,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
@@ -1379,7 +1427,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>min_cells=5</t>
     </r>
@@ -1432,7 +1480,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>BPH20</t>
     </r>
@@ -1441,6 +1489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -1450,7 +1499,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>BPH185</t>
     </r>
@@ -1459,6 +1508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -1468,7 +1518,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>BPH186</t>
     </r>
@@ -1477,6 +1527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -1486,7 +1537,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>BPH560</t>
     </r>
@@ -1503,7 +1554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>BPH553</t>
     </r>
@@ -1512,6 +1563,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -1521,7 +1573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>BPH559</t>
     </r>
@@ -1538,7 +1590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM5414183</t>
     </r>
@@ -1547,6 +1599,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -1556,7 +1609,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM5414184</t>
     </r>
@@ -1585,7 +1638,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>image(tif);</t>
     </r>
@@ -1594,6 +1647,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>位置信息</t>
@@ -1603,7 +1657,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>(.json);matrix(mtx)</t>
     </r>
@@ -1614,6 +1668,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>基因名称数量不对</t>
@@ -1634,7 +1689,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM5764426</t>
     </r>
@@ -1643,6 +1698,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1652,7 +1708,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM5764428</t>
     </r>
@@ -1669,7 +1725,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>10x</t>
     </r>
@@ -1678,6 +1734,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>标准格式</t>
@@ -1689,6 +1746,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>包含人和鼠得数据</t>
@@ -1700,7 +1758,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM5764426</t>
     </r>
@@ -1709,6 +1767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -1718,7 +1777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM5764428</t>
     </r>
@@ -1735,7 +1794,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM5764424</t>
     </r>
@@ -1744,6 +1803,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1753,7 +1813,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM5764425</t>
     </r>
@@ -1762,6 +1822,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1771,7 +1832,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM5764427</t>
     </r>
@@ -1782,7 +1843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM5764424</t>
     </r>
@@ -1791,6 +1852,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -1800,7 +1862,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM5764425</t>
     </r>
@@ -1809,6 +1871,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -1818,7 +1881,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM5764427</t>
     </r>
@@ -1886,7 +1949,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>GSM5513604</t>
     </r>
@@ -1895,6 +1958,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -1904,7 +1968,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Transverse section of a human embryo (5 weeks, CS15). Dorsal aorta, upper/mid liver 
 GSM5513605</t>
@@ -1914,6 +1978,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -1923,7 +1988,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Transverse section of a human embryo (5 weeks, CS15). Dorsal aorta, mid/lower liver 
 GSM5513606</t>
@@ -1933,6 +1998,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -1942,7 +2008,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Transverse section of a human embryo (5 weeks, CS15). Dorsal aorta and vitelline artery juncture. Umbillical vessels. 
 GSM5513607</t>
@@ -1952,6 +2018,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -1961,7 +2028,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Transverse section of a human embryo (5 weeks, CS15). Dorsal aorta, between vitelline vessels and umbilical cord. Umbillical vessels. 
 GSM5513608</t>
@@ -1971,6 +2038,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -1980,7 +2048,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Transverse section of a human embryo (5 weeks, CS15). Dorsal aorta, between vitelline vessels and umbilical cord. GSM5513609</t>
     </r>
@@ -1989,6 +2057,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -1998,7 +2067,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Transverse section of a human embryo (5 weeks, CS15). Dorsal aorta, between vitelline vessels and umbilical cord. Umbillical vessels. 
 GSM5513610</t>
@@ -2008,6 +2077,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
       <t>：</t>
@@ -2017,7 +2087,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Transverse section of a human embryo (5 weeks, CS15). Dorsal aorta, between vitelline vessels and umbilical cord. Umbillical vessels. </t>
     </r>
@@ -2433,7 +2503,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>GEO</t>
     </r>
@@ -2442,6 +2512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>记录与原记录不符</t>
@@ -2700,7 +2771,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>10x</t>
     </r>
@@ -2709,6 +2780,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>标准格式</t>
@@ -2789,7 +2861,7 @@
         <sz val="12"/>
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>https://doi.org/10.1126/science.abb9536</t>
     </r>
@@ -2918,7 +2990,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>matrix(csv)</t>
     </r>
@@ -2927,6 +2999,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、</t>
@@ -2936,7 +3009,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>image(jpg)</t>
     </r>
@@ -2968,7 +3041,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>location(csv)</t>
     </r>
@@ -2977,6 +3050,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、mappedDGE(csv)</t>
@@ -3700,23 +3774,23 @@
   <si>
     <t>P100</t>
   </si>
+  <si>
+    <t>Journal</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3724,33 +3798,33 @@
       <sz val="18"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="2"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="2"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3758,98 +3832,102 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="2"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="2"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="2"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3857,286 +3935,164 @@
       <sz val="12"/>
       <color theme="4"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="2"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF1155CC"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="2"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="4"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="2"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4157,192 +4113,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4379,253 +4155,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4637,10 +4177,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4661,10 +4201,10 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4673,16 +4213,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4754,7 +4294,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4856,65 +4396,53 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="着色 1" xfId="2" builtinId="29"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5172,46 +4700,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="34.5" style="48" customWidth="1"/>
     <col min="2" max="2" width="17" style="49" customWidth="1"/>
-    <col min="3" max="3" width="14.1666666666667" style="49" customWidth="1"/>
-    <col min="4" max="4" width="19.8333333333333" style="49" customWidth="1"/>
-    <col min="5" max="5" width="15.3333333333333" style="49" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="49" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="49" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="49" customWidth="1"/>
     <col min="7" max="7" width="24" style="49" customWidth="1"/>
     <col min="8" max="8" width="35" style="49" customWidth="1"/>
-    <col min="9" max="9" width="33.8333333333333" style="49" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" style="49" customWidth="1"/>
     <col min="10" max="10" width="44" style="49" customWidth="1"/>
     <col min="11" max="11" width="35" style="50" customWidth="1"/>
-    <col min="12" max="12" width="19.1666666666667" style="49" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="49" customWidth="1"/>
     <col min="13" max="13" width="17" style="49" customWidth="1"/>
-    <col min="14" max="14" width="12.3333333333333" style="49" customWidth="1"/>
-    <col min="15" max="15" width="39.3333333333333" style="49" customWidth="1"/>
-    <col min="16" max="16" width="33.6666666666667" style="49" customWidth="1"/>
-    <col min="17" max="17" width="43.3333333333333" style="49" customWidth="1"/>
-    <col min="18" max="18" width="36.6666666666667" style="49" customWidth="1"/>
-    <col min="19" max="19" width="45.8333333333333" style="49" customWidth="1"/>
-    <col min="20" max="20" width="39.3333333333333" style="49" customWidth="1"/>
-    <col min="21" max="21" width="37.8333333333333" style="51" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="49" customWidth="1"/>
+    <col min="15" max="15" width="39.33203125" style="49" customWidth="1"/>
+    <col min="16" max="16" width="33.6640625" style="49" customWidth="1"/>
+    <col min="17" max="17" width="43.33203125" style="49" customWidth="1"/>
+    <col min="18" max="18" width="36.6640625" style="49" customWidth="1"/>
+    <col min="19" max="19" width="45.83203125" style="49" customWidth="1"/>
+    <col min="20" max="20" width="39.33203125" style="49" customWidth="1"/>
+    <col min="21" max="21" width="37.83203125" style="51" customWidth="1"/>
     <col min="22" max="22" width="36.5" style="51" customWidth="1"/>
-    <col min="23" max="16384" width="8.66666666666667" style="51"/>
+    <col min="23" max="16384" width="8.6640625" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:20">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5273,7 +4801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="78" spans="1:20">
+    <row r="2" spans="1:21" ht="85">
       <c r="A2" s="48" t="s">
         <v>20</v>
       </c>
@@ -5327,7 +4855,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" s="45" customFormat="1" ht="78" spans="1:21">
+    <row r="3" spans="1:21" s="45" customFormat="1" ht="85">
       <c r="A3" s="53" t="s">
         <v>33</v>
       </c>
@@ -5384,7 +4912,7 @@
       </c>
       <c r="U3" s="51"/>
     </row>
-    <row r="4" ht="109.2" spans="1:20">
+    <row r="4" spans="1:21" ht="102">
       <c r="A4" s="48" t="s">
         <v>37</v>
       </c>
@@ -5443,7 +4971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" s="46" customFormat="1" ht="296.4" spans="1:21">
+    <row r="5" spans="1:21" s="46" customFormat="1" ht="323">
       <c r="A5" s="56" t="s">
         <v>49</v>
       </c>
@@ -5504,7 +5032,7 @@
       </c>
       <c r="U5" s="51"/>
     </row>
-    <row r="6" s="47" customFormat="1" ht="93.6" spans="1:21">
+    <row r="6" spans="1:21" s="47" customFormat="1" ht="102">
       <c r="A6" s="56" t="s">
         <v>59</v>
       </c>
@@ -5567,7 +5095,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" ht="78" spans="1:20">
+    <row r="7" spans="1:21" ht="85">
       <c r="A7" s="56" t="s">
         <v>71</v>
       </c>
@@ -5626,7 +5154,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" ht="124.8" spans="1:20">
+    <row r="8" spans="1:21" ht="102">
       <c r="A8" s="56" t="s">
         <v>83</v>
       </c>
@@ -5651,7 +5179,7 @@
       <c r="I8" s="52">
         <v>5</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="79" t="s">
         <v>86</v>
       </c>
       <c r="K8" s="64">
@@ -5671,14 +5199,14 @@
       </c>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
-      <c r="S8" s="41" t="s">
+      <c r="S8" s="81" t="s">
         <v>81</v>
       </c>
       <c r="T8" s="52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" ht="93.6" spans="1:20">
+    <row r="9" spans="1:21" ht="68">
       <c r="A9" s="56" t="s">
         <v>90</v>
       </c>
@@ -5703,6 +5231,7 @@
       <c r="I9" s="52">
         <v>1</v>
       </c>
+      <c r="J9" s="79"/>
       <c r="K9" s="64">
         <v>44200</v>
       </c>
@@ -5720,12 +5249,12 @@
       </c>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
-      <c r="S9" s="51"/>
+      <c r="S9" s="82"/>
       <c r="T9" s="52" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" ht="93.6" spans="1:20">
+    <row r="10" spans="1:21" ht="68">
       <c r="A10" s="56" t="s">
         <v>93</v>
       </c>
@@ -5750,6 +5279,7 @@
       <c r="I10" s="52">
         <v>2</v>
       </c>
+      <c r="J10" s="79"/>
       <c r="K10" s="64">
         <v>44200</v>
       </c>
@@ -5767,12 +5297,12 @@
       </c>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
-      <c r="S10" s="51"/>
+      <c r="S10" s="82"/>
       <c r="T10" s="52" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" ht="109.2" spans="1:20">
+    <row r="11" spans="1:21" ht="102">
       <c r="A11" s="61" t="s">
         <v>96</v>
       </c>
@@ -5818,7 +5348,7 @@
       </c>
       <c r="T11" s="52"/>
     </row>
-    <row r="12" ht="109.2" spans="1:20">
+    <row r="12" spans="1:21" ht="102">
       <c r="A12" s="61" t="s">
         <v>103</v>
       </c>
@@ -5864,7 +5394,7 @@
       </c>
       <c r="T12" s="52"/>
     </row>
-    <row r="13" ht="93.6" spans="1:20">
+    <row r="13" spans="1:21" ht="85">
       <c r="A13" s="56" t="s">
         <v>106</v>
       </c>
@@ -5915,14 +5445,14 @@
       <c r="R13" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="S13" s="41" t="s">
+      <c r="S13" s="81" t="s">
         <v>114</v>
       </c>
       <c r="T13" s="52" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" ht="109.2" spans="1:20">
+    <row r="14" spans="1:21" ht="102">
       <c r="A14" s="56" t="s">
         <v>116</v>
       </c>
@@ -5973,12 +5503,12 @@
       <c r="R14" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="S14" s="51"/>
+      <c r="S14" s="82"/>
       <c r="T14" s="52" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" ht="156" spans="1:20">
+    <row r="15" spans="1:21" ht="136">
       <c r="A15" s="56" t="s">
         <v>120</v>
       </c>
@@ -6036,7 +5566,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" ht="124.8" spans="1:20">
+    <row r="16" spans="1:21" ht="119">
       <c r="A16" s="56" t="s">
         <v>130</v>
       </c>
@@ -6089,14 +5619,14 @@
       <c r="R16" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="S16" s="41" t="s">
+      <c r="S16" s="81" t="s">
         <v>81</v>
       </c>
       <c r="T16" s="52" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="17" ht="124.8" spans="1:20">
+    <row r="17" spans="1:20" ht="119">
       <c r="A17" s="56" t="s">
         <v>140</v>
       </c>
@@ -6149,12 +5679,12 @@
       <c r="R17" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="S17" s="51"/>
+      <c r="S17" s="82"/>
       <c r="T17" s="52" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" ht="55" customHeight="1" spans="1:20">
+    <row r="18" spans="1:20" ht="55" customHeight="1">
       <c r="A18" s="56" t="s">
         <v>145</v>
       </c>
@@ -6208,7 +5738,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" ht="124.8" spans="1:20">
+    <row r="19" spans="1:20" ht="136">
       <c r="A19" s="56" t="s">
         <v>154</v>
       </c>
@@ -6263,7 +5793,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" ht="109.2" spans="1:20">
+    <row r="20" spans="1:20" ht="102">
       <c r="A20" s="48" t="s">
         <v>160</v>
       </c>
@@ -6301,20 +5831,21 @@
       <c r="O20" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="P20" s="52" t="s">
+      <c r="P20" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="R20" s="49" t="s">
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="S20" s="41" t="s">
+      <c r="S20" s="81" t="s">
         <v>166</v>
       </c>
       <c r="T20" s="52" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" ht="109.2" spans="1:20">
+    <row r="21" spans="1:20" ht="102">
       <c r="A21" s="48" t="s">
         <v>168</v>
       </c>
@@ -6352,13 +5883,15 @@
       <c r="O21" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="P21" s="52"/>
-      <c r="S21" s="51"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="82"/>
       <c r="T21" s="52" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="22" ht="109.2" spans="1:20">
+    <row r="22" spans="1:20" ht="102">
       <c r="A22" s="48" t="s">
         <v>171</v>
       </c>
@@ -6396,13 +5929,15 @@
       <c r="O22" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="P22" s="52"/>
-      <c r="S22" s="51"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="82"/>
       <c r="T22" s="52" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="23" ht="111.5" customHeight="1" spans="1:20">
+    <row r="23" spans="1:20" ht="111.5" customHeight="1">
       <c r="A23" s="48" t="s">
         <v>174</v>
       </c>
@@ -6449,7 +5984,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" ht="93.6" spans="1:20">
+    <row r="24" spans="1:20" ht="85">
       <c r="A24" s="56" t="s">
         <v>183</v>
       </c>
@@ -6490,23 +6025,23 @@
       <c r="O24" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="P24" s="49" t="s">
+      <c r="P24" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="Q24" s="49" t="s">
+      <c r="Q24" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="R24" s="49" t="s">
+      <c r="R24" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="S24" s="77" t="s">
+      <c r="S24" s="83" t="s">
         <v>81</v>
       </c>
       <c r="T24" s="52" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="25" ht="93.6" spans="1:20">
+    <row r="25" spans="1:20" ht="85">
       <c r="A25" s="56" t="s">
         <v>191</v>
       </c>
@@ -6547,11 +6082,15 @@
       <c r="O25" s="73" t="s">
         <v>187</v>
       </c>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
       <c r="T25" s="52" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" ht="62.4" spans="1:20">
+    <row r="26" spans="1:20" ht="68">
       <c r="A26" s="56" t="s">
         <v>195</v>
       </c>
@@ -6592,20 +6131,20 @@
       <c r="O26" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="P26" s="52" t="s">
+      <c r="P26" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="R26" s="49" t="s">
+      <c r="R26" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="S26" s="77" t="s">
+      <c r="S26" s="83" t="s">
         <v>81</v>
       </c>
       <c r="T26" s="52" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="27" ht="62.4" spans="1:20">
+    <row r="27" spans="1:20" ht="68">
       <c r="A27" s="56" t="s">
         <v>203</v>
       </c>
@@ -6646,12 +6185,14 @@
       <c r="O27" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="P27" s="52"/>
+      <c r="P27" s="80"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
       <c r="T27" s="52" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28" ht="58" customHeight="1" spans="1:20">
+    <row r="28" spans="1:20" ht="58" customHeight="1">
       <c r="A28" s="48" t="s">
         <v>207</v>
       </c>
@@ -6703,12 +6244,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q24:Q25"/>
     <mergeCell ref="R20:R22"/>
     <mergeCell ref="R24:R25"/>
     <mergeCell ref="R26:R27"/>
@@ -6718,77 +6253,82 @@
     <mergeCell ref="S20:S22"/>
     <mergeCell ref="S24:S25"/>
     <mergeCell ref="S26:S27"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q24:Q25"/>
   </mergeCells>
+  <phoneticPr fontId="44" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" display="https://doi.org/10.1126/science.aav9776"/>
-    <hyperlink ref="O9" r:id="rId2" display="https://doi.org/10.1016/j.cell.2020.12.016"/>
-    <hyperlink ref="O8" r:id="rId2" display="https://doi.org/10.1016/j.cell.2020.12.016"/>
-    <hyperlink ref="O16" r:id="rId3" display="https://doi.org/10.3389/fcell.2021.652408"/>
-    <hyperlink ref="O17" r:id="rId3" display="https://doi.org/10.3389/fcell.2021.652408"/>
-    <hyperlink ref="O11" r:id="rId4" display="https://doi.org/10.1038/s42003-022-03050-3"/>
-    <hyperlink ref="O12" r:id="rId4" display="https://doi.org/10.1038/s42003-022-03050-3"/>
-    <hyperlink ref="O13" r:id="rId5" display="https://doi.org/10.1016/j.isci.2020.101974"/>
-    <hyperlink ref="O14" r:id="rId5" display="https://doi.org/10.1016/j.isci.2020.101974"/>
-    <hyperlink ref="O15" r:id="rId6" display="https://doi.org/10.1172/jci.insight.147703"/>
-    <hyperlink ref="O10" r:id="rId2" display="https://doi.org/10.1016/j.cell.2020.12.016"/>
-    <hyperlink ref="O7" r:id="rId7" display="https://doi.org/10.1038/s41588-021-00972-2"/>
-    <hyperlink ref="O6" r:id="rId8" display="https://doi.org/10.1016/j.celrep.2021.109915"/>
-    <hyperlink ref="O5" r:id="rId9" display="https://doi.org/10.1016/j.cell.2019.11.025"/>
-    <hyperlink ref="O4" r:id="rId10" display="https://doi.org/10.1038/s41598-019-55441-y"/>
-    <hyperlink ref="O3" r:id="rId1" display="https://doi.org/10.1126/science.aav9776"/>
-    <hyperlink ref="O28" r:id="rId11" display="https://doi.org/10.1038/s41586-022-04571-x"/>
-    <hyperlink ref="O27" r:id="rId12" display="https://doi.org/10.1038/s41586-022-04541-3"/>
-    <hyperlink ref="O26" r:id="rId12" display="https://doi.org/10.1038/s41586-022-04541-3"/>
-    <hyperlink ref="O25" r:id="rId13" display="https://doi.org/10.1016/j.cell.2021.12.018"/>
-    <hyperlink ref="O24" r:id="rId13" display="https://doi.org/10.1016/j.cell.2021.12.018"/>
-    <hyperlink ref="O23" r:id="rId14" display="https://doi.org/10.1038/s41592-021-01344-8"/>
-    <hyperlink ref="O22" r:id="rId15" display="https://doi.org/10.1002/path.5857"/>
-    <hyperlink ref="O21" r:id="rId15" display="https://doi.org/10.1002/path.5857"/>
-    <hyperlink ref="O20" r:id="rId15" display="https://doi.org/10.1002/path.5857"/>
-    <hyperlink ref="O19" r:id="rId16" display="https://doi.org/10.1002/hep4.1854"/>
-    <hyperlink ref="O18" r:id="rId17" display="https://doi.org/10.1016/j.cmet.2021.07.018"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O16" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="O15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="O5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O4" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="O3" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="O28" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="O27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="O26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="O25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="O24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="O23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="O22" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="O21" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="O20" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="O19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="O18" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A70" sqref="$A70:$XFD70"/>
+    <sheetView topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="38.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.1666666666667" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="15" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.83333333333333" style="8"/>
+    <col min="4" max="4" width="8.83203125" style="8"/>
     <col min="5" max="5" width="14.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.6666666666667" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="18" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.8425925925926" style="8" customWidth="1"/>
-    <col min="9" max="9" width="19.5185185185185" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.1666666666667" style="8" customWidth="1"/>
-    <col min="11" max="11" width="30.9537037037037" style="8" customWidth="1"/>
-    <col min="12" max="12" width="25.6574074074074" style="8" customWidth="1"/>
-    <col min="13" max="13" width="27.3055555555556" style="8" customWidth="1"/>
-    <col min="14" max="14" width="12.6666666666667" style="8" customWidth="1"/>
-    <col min="15" max="15" width="36.6666666666667" style="8" customWidth="1"/>
-    <col min="16" max="16" width="25.8703703703704" style="8" customWidth="1"/>
-    <col min="17" max="17" width="24.8333333333333" style="8" customWidth="1"/>
-    <col min="18" max="18" width="23.6481481481481" style="8" customWidth="1"/>
-    <col min="19" max="19" width="23.4907407407407" style="8" customWidth="1"/>
-    <col min="20" max="20" width="38.25" style="8" customWidth="1"/>
-    <col min="21" max="16384" width="8.83333333333333" style="8"/>
+    <col min="8" max="8" width="29.83203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="31" style="8" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="27.33203125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="36.6640625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="25.83203125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="23.6640625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="23.5" style="8" customWidth="1"/>
+    <col min="20" max="20" width="38.1640625" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:20">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6850,7 +6390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="313" customHeight="1" spans="1:20">
+    <row r="2" spans="1:21" ht="313" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>217</v>
       </c>
@@ -6912,7 +6452,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="187.2" spans="1:20">
+    <row r="3" spans="1:21" ht="204">
       <c r="A3" s="26" t="s">
         <v>229</v>
       </c>
@@ -6938,7 +6478,7 @@
       <c r="I3" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="84" t="s">
         <v>234</v>
       </c>
       <c r="K3" s="12">
@@ -6965,14 +6505,14 @@
       <c r="R3" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="84" t="s">
         <v>227</v>
       </c>
       <c r="T3" s="35" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="78" spans="1:20">
+    <row r="4" spans="1:21" ht="85">
       <c r="A4" s="26" t="s">
         <v>240</v>
       </c>
@@ -6998,6 +6538,7 @@
       <c r="I4" s="35" t="s">
         <v>105</v>
       </c>
+      <c r="J4" s="84"/>
       <c r="K4" s="12">
         <v>44148</v>
       </c>
@@ -7022,11 +6563,12 @@
       <c r="R4" s="29" t="s">
         <v>102</v>
       </c>
+      <c r="S4" s="84"/>
       <c r="T4" s="35" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" ht="78" spans="1:20">
+    <row r="5" spans="1:21" ht="85">
       <c r="A5" s="26" t="s">
         <v>243</v>
       </c>
@@ -7052,6 +6594,7 @@
       <c r="I5" s="35" t="s">
         <v>105</v>
       </c>
+      <c r="J5" s="84"/>
       <c r="K5" s="12">
         <v>44148</v>
       </c>
@@ -7076,11 +6619,12 @@
       <c r="R5" s="29" t="s">
         <v>102</v>
       </c>
+      <c r="S5" s="84"/>
       <c r="T5" s="35" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" s="25" customFormat="1" ht="218.4" spans="1:21">
+    <row r="6" spans="1:21" s="25" customFormat="1" ht="238">
       <c r="A6" s="25" t="s">
         <v>244</v>
       </c>
@@ -7140,7 +6684,7 @@
       </c>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" s="8" customFormat="1" ht="390" spans="1:20">
+    <row r="7" spans="1:21" ht="372">
       <c r="A7" s="26" t="s">
         <v>256</v>
       </c>
@@ -7197,7 +6741,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" ht="171.6" spans="1:20">
+    <row r="8" spans="1:21" ht="170">
       <c r="A8" s="26" t="s">
         <v>263</v>
       </c>
@@ -7255,7 +6799,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" ht="15.5" customHeight="1" spans="1:20">
+    <row r="9" spans="1:21" ht="15.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>273</v>
       </c>
@@ -7301,7 +6845,7 @@
       <c r="P9" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="84" t="s">
         <v>279</v>
       </c>
       <c r="R9" s="43" t="s">
@@ -7311,7 +6855,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" ht="46.8" spans="1:20">
+    <row r="10" spans="1:21" ht="51">
       <c r="A10" s="8" t="s">
         <v>282</v>
       </c>
@@ -7357,6 +6901,7 @@
       <c r="P10" s="8" t="s">
         <v>278</v>
       </c>
+      <c r="Q10" s="84"/>
       <c r="R10" s="43" t="s">
         <v>280</v>
       </c>
@@ -7364,7 +6909,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="11" spans="1:21" ht="102">
       <c r="A11" s="26" t="s">
         <v>285</v>
       </c>
@@ -7421,7 +6966,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="1" ht="15.5" customHeight="1" spans="1:20">
+    <row r="12" spans="1:21" ht="15.5" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>294</v>
       </c>
@@ -7463,7 +7008,7 @@
         <v>299</v>
       </c>
       <c r="P12" s="21"/>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="84" t="s">
         <v>300</v>
       </c>
       <c r="R12" s="7" t="s">
@@ -7473,7 +7018,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="1" ht="46.8" spans="1:20">
+    <row r="13" spans="1:21" ht="51">
       <c r="A13" s="8" t="s">
         <v>302</v>
       </c>
@@ -7515,6 +7060,7 @@
         <v>299</v>
       </c>
       <c r="P13" s="21"/>
+      <c r="Q13" s="84"/>
       <c r="R13" s="7" t="s">
         <v>102</v>
       </c>
@@ -7522,7 +7068,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="14" spans="1:21" ht="102">
       <c r="A14" s="8" t="s">
         <v>307</v>
       </c>
@@ -7574,7 +7120,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="15" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="15" spans="1:21" ht="102">
       <c r="A15" s="8" t="s">
         <v>314</v>
       </c>
@@ -7626,7 +7172,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="16" spans="1:21" ht="102">
       <c r="A16" s="8" t="s">
         <v>317</v>
       </c>
@@ -7678,7 +7224,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="17" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="17" spans="1:20" ht="102">
       <c r="A17" s="8" t="s">
         <v>320</v>
       </c>
@@ -7730,7 +7276,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="18" spans="1:20" ht="102">
       <c r="A18" s="8" t="s">
         <v>322</v>
       </c>
@@ -7782,7 +7328,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="19" spans="1:20" ht="102">
       <c r="A19" s="8" t="s">
         <v>323</v>
       </c>
@@ -7834,7 +7380,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="20" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="20" spans="1:20" ht="102">
       <c r="A20" s="8" t="s">
         <v>324</v>
       </c>
@@ -7886,7 +7432,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="21" spans="1:20" ht="102">
       <c r="A21" s="8" t="s">
         <v>325</v>
       </c>
@@ -7937,7 +7483,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="1" ht="46.8" spans="1:20">
+    <row r="22" spans="1:20" ht="51">
       <c r="A22" s="26" t="s">
         <v>326</v>
       </c>
@@ -7984,20 +7530,20 @@
       <c r="P22" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="86" t="s">
         <v>330</v>
       </c>
       <c r="R22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="S22" s="8" t="s">
+      <c r="S22" s="84" t="s">
         <v>331</v>
       </c>
       <c r="T22" s="8" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="23" s="8" customFormat="1" ht="46.8" spans="1:20">
+    <row r="23" spans="1:20" ht="51">
       <c r="A23" s="26" t="s">
         <v>333</v>
       </c>
@@ -8044,15 +7590,16 @@
       <c r="P23" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="Q23" s="7"/>
+      <c r="Q23" s="86"/>
       <c r="R23" s="12" t="s">
         <v>102</v>
       </c>
+      <c r="S23" s="84"/>
       <c r="T23" s="8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="24" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="24" spans="1:20" ht="102">
       <c r="A24" s="26" t="s">
         <v>336</v>
       </c>
@@ -8108,7 +7655,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="25" spans="1:20" ht="85">
       <c r="A25" s="26" t="s">
         <v>344</v>
       </c>
@@ -8160,14 +7707,14 @@
       <c r="R25" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="S25" s="8" t="s">
+      <c r="S25" s="84" t="s">
         <v>352</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="26" spans="1:20" ht="85">
       <c r="A26" s="26" t="s">
         <v>353</v>
       </c>
@@ -8219,11 +7766,12 @@
       <c r="R26" s="12" t="s">
         <v>102</v>
       </c>
+      <c r="S26" s="84"/>
       <c r="T26" s="8" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="27" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="27" spans="1:20" ht="85">
       <c r="A27" s="26" t="s">
         <v>356</v>
       </c>
@@ -8275,11 +7823,12 @@
       <c r="R27" s="12" t="s">
         <v>102</v>
       </c>
+      <c r="S27" s="84"/>
       <c r="T27" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="28" ht="46.8" spans="1:20">
+    <row r="28" spans="1:20" ht="51">
       <c r="A28" s="26" t="s">
         <v>359</v>
       </c>
@@ -8325,14 +7874,14 @@
       <c r="R28" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="S28" s="8" t="s">
+      <c r="S28" s="84" t="s">
         <v>366</v>
       </c>
       <c r="T28" s="8" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="29" ht="46.8" spans="1:20">
+    <row r="29" spans="1:20" ht="51">
       <c r="A29" s="26" t="s">
         <v>368</v>
       </c>
@@ -8378,11 +7927,12 @@
       <c r="R29" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="S29" s="84"/>
       <c r="T29" s="8" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="30" ht="46.8" spans="1:20">
+    <row r="30" spans="1:20" ht="51">
       <c r="A30" s="26" t="s">
         <v>372</v>
       </c>
@@ -8428,11 +7978,12 @@
       <c r="R30" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="S30" s="84"/>
       <c r="T30" s="8" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="31" ht="46.8" spans="1:20">
+    <row r="31" spans="1:20" ht="51">
       <c r="A31" s="26" t="s">
         <v>376</v>
       </c>
@@ -8478,11 +8029,12 @@
       <c r="R31" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="S31" s="84"/>
       <c r="T31" s="8" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="32" ht="109.2" spans="1:20">
+    <row r="32" spans="1:20" ht="119">
       <c r="A32" s="26" t="s">
         <v>380</v>
       </c>
@@ -8504,7 +8056,7 @@
       <c r="I32" s="8">
         <v>1</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="84" t="s">
         <v>382</v>
       </c>
       <c r="K32" s="17">
@@ -8525,20 +8077,20 @@
       <c r="P32" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="84" t="s">
         <v>384</v>
       </c>
       <c r="R32" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="S32" s="8" t="s">
+      <c r="S32" s="84" t="s">
         <v>227</v>
       </c>
       <c r="T32" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="33" ht="109.2" spans="1:20">
+    <row r="33" spans="1:20" ht="119">
       <c r="A33" s="26" t="s">
         <v>386</v>
       </c>
@@ -8560,6 +8112,7 @@
       <c r="I33" s="8">
         <v>1</v>
       </c>
+      <c r="J33" s="84"/>
       <c r="K33" s="17">
         <v>44334</v>
       </c>
@@ -8578,14 +8131,16 @@
       <c r="P33" s="8" t="s">
         <v>383</v>
       </c>
+      <c r="Q33" s="84"/>
       <c r="R33" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="S33" s="84"/>
       <c r="T33" s="8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="34" ht="46.8" spans="1:20">
+    <row r="34" spans="1:20" ht="51">
       <c r="A34" s="8" t="s">
         <v>389</v>
       </c>
@@ -8604,7 +8159,7 @@
       <c r="G34" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="84">
         <v>4</v>
       </c>
       <c r="K34" s="17">
@@ -8622,23 +8177,23 @@
       <c r="O34" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="P34" s="8" t="s">
+      <c r="P34" s="84" t="s">
         <v>393</v>
       </c>
-      <c r="Q34" s="8" t="s">
+      <c r="Q34" s="84" t="s">
         <v>394</v>
       </c>
       <c r="R34" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="S34" s="8" t="s">
+      <c r="S34" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="T34" s="8" t="s">
+      <c r="T34" s="84" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="35" ht="46.8" spans="1:18">
+    <row r="35" spans="1:20" ht="51">
       <c r="A35" s="8" t="s">
         <v>396</v>
       </c>
@@ -8657,6 +8212,7 @@
       <c r="G35" s="8" t="b">
         <v>0</v>
       </c>
+      <c r="I35" s="84"/>
       <c r="K35" s="17">
         <v>44223</v>
       </c>
@@ -8672,11 +8228,15 @@
       <c r="O35" s="16" t="s">
         <v>392</v>
       </c>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
       <c r="R35" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" ht="46.8" spans="1:18">
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+    </row>
+    <row r="36" spans="1:20" ht="51">
       <c r="A36" s="8" t="s">
         <v>397</v>
       </c>
@@ -8695,6 +8255,7 @@
       <c r="G36" s="8" t="b">
         <v>0</v>
       </c>
+      <c r="I36" s="84"/>
       <c r="K36" s="17">
         <v>44223</v>
       </c>
@@ -8710,11 +8271,15 @@
       <c r="O36" s="16" t="s">
         <v>392</v>
       </c>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
       <c r="R36" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" ht="46.8" spans="1:18">
+      <c r="S36" s="84"/>
+      <c r="T36" s="84"/>
+    </row>
+    <row r="37" spans="1:20" ht="51">
       <c r="A37" s="8" t="s">
         <v>398</v>
       </c>
@@ -8733,6 +8298,7 @@
       <c r="G37" s="8" t="b">
         <v>1</v>
       </c>
+      <c r="I37" s="84"/>
       <c r="K37" s="17">
         <v>44223</v>
       </c>
@@ -8748,11 +8314,15 @@
       <c r="O37" s="16" t="s">
         <v>392</v>
       </c>
+      <c r="P37" s="84"/>
+      <c r="Q37" s="84"/>
       <c r="R37" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" ht="46.8" spans="1:20">
+      <c r="S37" s="84"/>
+      <c r="T37" s="84"/>
+    </row>
+    <row r="38" spans="1:20" ht="51">
       <c r="A38" s="8" t="s">
         <v>400</v>
       </c>
@@ -8789,14 +8359,17 @@
       <c r="O38" s="16" t="s">
         <v>392</v>
       </c>
+      <c r="P38" s="84"/>
+      <c r="Q38" s="84"/>
       <c r="R38" s="8" t="s">
         <v>102</v>
       </c>
+      <c r="S38" s="84"/>
       <c r="T38" s="8" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="39" ht="202.8" spans="1:20">
+    <row r="39" spans="1:20" ht="204">
       <c r="A39" s="8" t="s">
         <v>402</v>
       </c>
@@ -8855,7 +8428,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="40" s="8" customFormat="1" ht="62.4" spans="1:20">
+    <row r="40" spans="1:20" ht="51">
       <c r="A40" s="8" t="s">
         <v>409</v>
       </c>
@@ -8898,7 +8471,7 @@
       <c r="P40" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="Q40" s="84" t="s">
         <v>413</v>
       </c>
       <c r="R40" s="7" t="s">
@@ -8908,7 +8481,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" s="8" customFormat="1" ht="62.4" spans="1:20">
+    <row r="41" spans="1:20" ht="51">
       <c r="A41" s="8" t="s">
         <v>415</v>
       </c>
@@ -8954,6 +8527,7 @@
       <c r="P41" s="38" t="s">
         <v>412</v>
       </c>
+      <c r="Q41" s="84"/>
       <c r="R41" s="7" t="s">
         <v>102</v>
       </c>
@@ -8961,7 +8535,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="42" s="8" customFormat="1" ht="109.2" spans="1:20">
+    <row r="42" spans="1:20" ht="119">
       <c r="A42" s="8" t="s">
         <v>419</v>
       </c>
@@ -9014,7 +8588,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="43" s="8" customFormat="1" ht="156" spans="1:20">
+    <row r="43" spans="1:20" ht="119">
       <c r="A43" s="8" t="s">
         <v>428</v>
       </c>
@@ -9070,7 +8644,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="44" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="44" spans="1:20" ht="85">
       <c r="A44" s="8" t="s">
         <v>439</v>
       </c>
@@ -9115,11 +8689,11 @@
       <c r="R44" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="T44" s="38" t="s">
+      <c r="T44" s="85" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="45" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="45" spans="1:20" ht="85">
       <c r="A45" s="8" t="s">
         <v>445</v>
       </c>
@@ -9164,9 +8738,9 @@
       <c r="R45" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="T45" s="38"/>
-    </row>
-    <row r="46" s="8" customFormat="1" ht="187.2" spans="1:20">
+      <c r="T45" s="85"/>
+    </row>
+    <row r="46" spans="1:20" ht="204">
       <c r="A46" s="8" t="s">
         <v>447</v>
       </c>
@@ -9219,7 +8793,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" s="8" customFormat="1" ht="187.2" spans="1:20">
+    <row r="47" spans="1:20" ht="204">
       <c r="A47" s="8" t="s">
         <v>455</v>
       </c>
@@ -9272,7 +8846,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="48" s="8" customFormat="1" ht="124.8" spans="1:20">
+    <row r="48" spans="1:20" ht="136">
       <c r="A48" s="8" t="s">
         <v>458</v>
       </c>
@@ -9320,7 +8894,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="49" s="8" customFormat="1" ht="62.4" spans="1:20">
+    <row r="49" spans="1:20" ht="68">
       <c r="A49" s="8" t="s">
         <v>465</v>
       </c>
@@ -9368,7 +8942,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="50" s="8" customFormat="1" ht="109.2" spans="1:20">
+    <row r="50" spans="1:20" ht="85">
       <c r="A50" s="8" t="s">
         <v>472</v>
       </c>
@@ -9409,17 +8983,17 @@
       <c r="P50" s="38" t="s">
         <v>477</v>
       </c>
-      <c r="Q50" s="8" t="s">
+      <c r="Q50" s="84" t="s">
         <v>478</v>
       </c>
       <c r="R50" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="T50" s="38" t="s">
+      <c r="T50" s="85" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="51" s="8" customFormat="1" ht="109.2" spans="1:20">
+    <row r="51" spans="1:20" ht="85">
       <c r="A51" s="8" t="s">
         <v>480</v>
       </c>
@@ -9460,12 +9034,13 @@
       <c r="P51" s="38" t="s">
         <v>477</v>
       </c>
+      <c r="Q51" s="84"/>
       <c r="R51" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="T51" s="38"/>
-    </row>
-    <row r="52" s="8" customFormat="1" ht="93.6" spans="1:20">
+      <c r="T51" s="85"/>
+    </row>
+    <row r="52" spans="1:20" ht="102">
       <c r="A52" s="8" t="s">
         <v>483</v>
       </c>
@@ -9487,7 +9062,7 @@
       <c r="H52" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="I52" s="41" t="s">
+      <c r="I52" s="81" t="s">
         <v>486</v>
       </c>
       <c r="K52" s="15">
@@ -9511,11 +9086,11 @@
       <c r="R52" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="T52" s="38" t="s">
+      <c r="T52" s="85" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="53" s="8" customFormat="1" ht="93.6" spans="1:20">
+    <row r="53" spans="1:20" ht="102">
       <c r="A53" s="8" t="s">
         <v>491</v>
       </c>
@@ -9540,7 +9115,7 @@
       <c r="H53" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="I53" s="38"/>
+      <c r="I53" s="85"/>
       <c r="K53" s="15">
         <v>44488</v>
       </c>
@@ -9562,9 +9137,9 @@
       <c r="R53" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="T53" s="38"/>
-    </row>
-    <row r="54" s="8" customFormat="1" ht="78" spans="1:20">
+      <c r="T53" s="85"/>
+    </row>
+    <row r="54" spans="1:20" ht="68">
       <c r="A54" s="8" t="s">
         <v>494</v>
       </c>
@@ -9614,7 +9189,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="55" s="8" customFormat="1" ht="78" spans="1:20">
+    <row r="55" spans="1:20" ht="68">
       <c r="A55" s="8" t="s">
         <v>501</v>
       </c>
@@ -9664,7 +9239,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="56" s="8" customFormat="1" ht="78" spans="1:20">
+    <row r="56" spans="1:20" ht="68">
       <c r="A56" s="8" t="s">
         <v>504</v>
       </c>
@@ -9714,7 +9289,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="57" s="8" customFormat="1" ht="78" spans="1:20">
+    <row r="57" spans="1:20" ht="68">
       <c r="A57" s="8" t="s">
         <v>507</v>
       </c>
@@ -9764,7 +9339,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="58" s="8" customFormat="1" ht="78" spans="1:20">
+    <row r="58" spans="1:20" ht="68">
       <c r="A58" s="8" t="s">
         <v>509</v>
       </c>
@@ -9807,17 +9382,17 @@
       <c r="P58" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="Q58" s="8" t="s">
+      <c r="Q58" s="84" t="s">
         <v>514</v>
       </c>
       <c r="R58" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="T58" s="8" t="s">
+      <c r="T58" s="84" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="59" s="8" customFormat="1" ht="78" spans="1:18">
+    <row r="59" spans="1:20" ht="68">
       <c r="A59" s="8" t="s">
         <v>516</v>
       </c>
@@ -9860,11 +9435,13 @@
       <c r="P59" s="8" t="s">
         <v>292</v>
       </c>
+      <c r="Q59" s="84"/>
       <c r="R59" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="60" s="8" customFormat="1" ht="78" spans="1:18">
+      <c r="T59" s="84"/>
+    </row>
+    <row r="60" spans="1:20" ht="68">
       <c r="A60" s="8" t="s">
         <v>518</v>
       </c>
@@ -9907,11 +9484,13 @@
       <c r="P60" s="8" t="s">
         <v>292</v>
       </c>
+      <c r="Q60" s="84"/>
       <c r="R60" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="61" s="8" customFormat="1" ht="93.6" spans="1:20">
+      <c r="T60" s="84"/>
+    </row>
+    <row r="61" spans="1:20" ht="102">
       <c r="A61" s="8" t="s">
         <v>520</v>
       </c>
@@ -9961,7 +9540,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="62" s="8" customFormat="1" ht="62.4" spans="1:20">
+    <row r="62" spans="1:20" ht="68">
       <c r="A62" s="8" t="s">
         <v>527</v>
       </c>
@@ -10004,11 +9583,11 @@
       <c r="R62" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="T62" s="8" t="s">
+      <c r="T62" s="84" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="63" s="8" customFormat="1" ht="62.4" spans="1:18">
+    <row r="63" spans="1:20" ht="68">
       <c r="A63" s="8" t="s">
         <v>534</v>
       </c>
@@ -10051,8 +9630,9 @@
       <c r="R63" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="64" s="8" customFormat="1" ht="62.4" spans="1:18">
+      <c r="T63" s="84"/>
+    </row>
+    <row r="64" spans="1:20" ht="68">
       <c r="A64" s="8" t="s">
         <v>538</v>
       </c>
@@ -10095,8 +9675,9 @@
       <c r="R64" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="65" s="8" customFormat="1" ht="62.4" spans="1:18">
+      <c r="T64" s="84"/>
+    </row>
+    <row r="65" spans="1:20" ht="68">
       <c r="A65" s="8" t="s">
         <v>540</v>
       </c>
@@ -10139,8 +9720,9 @@
       <c r="R65" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="66" s="8" customFormat="1" ht="109.2" spans="1:20">
+      <c r="T65" s="84"/>
+    </row>
+    <row r="66" spans="1:20" ht="119">
       <c r="A66" s="8" t="s">
         <v>542</v>
       </c>
@@ -10183,17 +9765,17 @@
       <c r="O66" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="Q66" s="8" t="s">
+      <c r="Q66" s="84" t="s">
         <v>548</v>
       </c>
       <c r="R66" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="T66" s="8" t="s">
+      <c r="T66" s="84" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="67" s="8" customFormat="1" ht="109.2" spans="1:18">
+    <row r="67" spans="1:20" ht="119">
       <c r="A67" s="8" t="s">
         <v>550</v>
       </c>
@@ -10236,11 +9818,13 @@
       <c r="O67" s="16" t="s">
         <v>547</v>
       </c>
+      <c r="Q67" s="84"/>
       <c r="R67" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" s="8" customFormat="1" ht="109.2" spans="1:18">
+      <c r="T67" s="84"/>
+    </row>
+    <row r="68" spans="1:20" ht="119">
       <c r="A68" s="8" t="s">
         <v>552</v>
       </c>
@@ -10280,11 +9864,13 @@
       <c r="O68" s="16" t="s">
         <v>547</v>
       </c>
+      <c r="Q68" s="84"/>
       <c r="R68" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="69" s="8" customFormat="1" ht="109.2" spans="1:18">
+      <c r="T68" s="84"/>
+    </row>
+    <row r="69" spans="1:20" ht="119">
       <c r="A69" s="8" t="s">
         <v>554</v>
       </c>
@@ -10324,11 +9910,13 @@
       <c r="O69" s="16" t="s">
         <v>547</v>
       </c>
+      <c r="Q69" s="84"/>
       <c r="R69" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="70" ht="93.6" spans="1:20">
+      <c r="T69" s="84"/>
+    </row>
+    <row r="70" spans="1:20" ht="102">
       <c r="A70" s="26" t="s">
         <v>555</v>
       </c>
@@ -10384,7 +9972,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="71" ht="78" spans="1:20">
+    <row r="71" spans="1:20" ht="85">
       <c r="A71" s="8" t="s">
         <v>559</v>
       </c>
@@ -10437,7 +10025,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="72" ht="93.6" spans="1:20">
+    <row r="72" spans="1:20" ht="85">
       <c r="A72" s="8" t="s">
         <v>566</v>
       </c>
@@ -10490,7 +10078,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="73" ht="46.8" spans="1:18">
+    <row r="73" spans="1:20" ht="51">
       <c r="A73" s="8" t="s">
         <v>573</v>
       </c>
@@ -10531,7 +10119,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" ht="46.8" spans="1:18">
+    <row r="74" spans="1:20" ht="51">
       <c r="A74" s="8" t="s">
         <v>580</v>
       </c>
@@ -10572,7 +10160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" ht="46.8" spans="1:18">
+    <row r="75" spans="1:20" ht="51">
       <c r="A75" s="8" t="s">
         <v>582</v>
       </c>
@@ -10613,7 +10201,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" ht="46.8" spans="1:18">
+    <row r="76" spans="1:20" ht="51">
       <c r="A76" s="8" t="s">
         <v>584</v>
       </c>
@@ -10654,7 +10242,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" ht="46.8" spans="1:18">
+    <row r="77" spans="1:20" ht="51">
       <c r="A77" s="8" t="s">
         <v>587</v>
       </c>
@@ -10695,7 +10283,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" ht="46.8" spans="1:18">
+    <row r="78" spans="1:20" ht="51">
       <c r="A78" s="8" t="s">
         <v>589</v>
       </c>
@@ -10738,16 +10326,13 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="P34:P38"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="T62:T65"/>
+    <mergeCell ref="T66:T69"/>
+    <mergeCell ref="T34:T37"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="T50:T51"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="T58:T60"/>
     <mergeCell ref="Q40:Q41"/>
     <mergeCell ref="Q50:Q51"/>
     <mergeCell ref="Q58:Q60"/>
@@ -10758,128 +10343,129 @@
     <mergeCell ref="S28:S31"/>
     <mergeCell ref="S32:S33"/>
     <mergeCell ref="S34:S38"/>
-    <mergeCell ref="T34:T37"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="T50:T51"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="T58:T60"/>
-    <mergeCell ref="T62:T65"/>
-    <mergeCell ref="T66:T69"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="Q34:Q38"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="P34:P38"/>
   </mergeCells>
+  <phoneticPr fontId="44" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O70" r:id="rId1" display="https://doi.org/10.1016/j.cell.2021.12.018"/>
-    <hyperlink ref="O71" r:id="rId2" display="https://doi.org/10.3390/jcdd9010001"/>
-    <hyperlink ref="O72" r:id="rId3" display="https://doi.org/10.1038/s41593-022-01030-8"/>
-    <hyperlink ref="O73" r:id="rId4" display="https://doi.org/10.1101/2022.04.20.488964"/>
-    <hyperlink ref="O74" r:id="rId4" display="https://doi.org/10.1101/2022.04.20.488964"/>
-    <hyperlink ref="O75" r:id="rId4" display="https://doi.org/10.1101/2022.04.20.488964"/>
-    <hyperlink ref="O76" r:id="rId4" display="https://doi.org/10.1101/2022.04.20.488964"/>
-    <hyperlink ref="O77" r:id="rId4" display="https://doi.org/10.1101/2022.04.20.488964"/>
-    <hyperlink ref="O78" r:id="rId4" display="https://doi.org/10.1101/2022.04.20.488964"/>
-    <hyperlink ref="O28" r:id="rId5" display="https://doi.org/10.1101/2020.10.13.338475"/>
-    <hyperlink ref="O29" r:id="rId5" display="https://doi.org/10.1101/2020.10.13.338475"/>
-    <hyperlink ref="O30" r:id="rId5" display="https://doi.org/10.1101/2020.10.13.338475"/>
-    <hyperlink ref="O31" r:id="rId5" display="https://doi.org/10.1101/2020.10.13.338475"/>
-    <hyperlink ref="O32" r:id="rId6" display="https://doi.org/10.1172/jci.insight.147703"/>
-    <hyperlink ref="O33" r:id="rId6" display="https://doi.org/10.1172/jci.insight.147703"/>
-    <hyperlink ref="O34" r:id="rId7" display="https://doi.org/10.1016/j.cell.2021.05.010"/>
-    <hyperlink ref="O38" r:id="rId7" display="https://doi.org/10.1016/j.cell.2021.05.010"/>
-    <hyperlink ref="O35" r:id="rId7" display="https://doi.org/10.1016/j.cell.2021.05.010"/>
-    <hyperlink ref="O36" r:id="rId7" display="https://doi.org/10.1016/j.cell.2021.05.010"/>
-    <hyperlink ref="O37" r:id="rId7" display="https://doi.org/10.1016/j.cell.2021.05.010"/>
-    <hyperlink ref="O39" r:id="rId8" display="https://doi.org/10.1038/s41467-021-27354-w"/>
-    <hyperlink ref="O14" r:id="rId9" display="https://doi.org/10.1016/j.isci.2020.101556"/>
-    <hyperlink ref="O15" r:id="rId9" display="https://doi.org/10.1016/j.isci.2020.101556"/>
-    <hyperlink ref="O23" r:id="rId10" display="https://doi.org/10.1016/j.celrep.2021.109915"/>
-    <hyperlink ref="O24" r:id="rId11" display="https://doi.org/10.1101/2020.11.15.378125"/>
-    <hyperlink ref="O25" r:id="rId12" display="https://doi.org/10.1038/s42003-021-02810-x"/>
-    <hyperlink ref="O26" r:id="rId12" display="https://doi.org/10.1038/s42003-021-02810-x"/>
-    <hyperlink ref="O27" r:id="rId12" display="https://doi.org/10.1038/s42003-021-02810-x"/>
-    <hyperlink ref="O54" r:id="rId13" display="https://doi.org/10.1101/2021.11.01.466742"/>
-    <hyperlink ref="O55" r:id="rId13" display="https://doi.org/10.1101/2021.11.01.466742"/>
-    <hyperlink ref="O56" r:id="rId13" display="https://doi.org/10.1101/2021.11.01.466742"/>
-    <hyperlink ref="O57" r:id="rId13" display="https://doi.org/10.1101/2021.11.01.466742"/>
-    <hyperlink ref="O58" r:id="rId14" display="https://doi.org/10.1016/j.freeradbiomed.2021.11.011"/>
-    <hyperlink ref="O59" r:id="rId14" display="https://doi.org/10.1016/j.freeradbiomed.2021.11.011"/>
-    <hyperlink ref="O60" r:id="rId14" display="https://doi.org/10.1016/j.freeradbiomed.2021.11.011"/>
-    <hyperlink ref="O61" r:id="rId15" display="https://doi.org/10.1681/ASN.2021081150"/>
-    <hyperlink ref="O62" r:id="rId16" display="https://doi.org/10.1101/2021.12.07.471659"/>
-    <hyperlink ref="O63" r:id="rId16" display="https://doi.org/10.1101/2021.12.07.471659"/>
-    <hyperlink ref="O64" r:id="rId16" display="https://doi.org/10.1101/2021.12.07.471659"/>
-    <hyperlink ref="O65" r:id="rId16" display="https://doi.org/10.1101/2021.12.07.471659"/>
-    <hyperlink ref="O66" r:id="rId17" display="https://doi.org/10.1161/CIRCULATIONAHA.121.056666"/>
-    <hyperlink ref="O67" r:id="rId17" display="https://doi.org/10.1161/CIRCULATIONAHA.121.056666"/>
-    <hyperlink ref="O68" r:id="rId17" display="https://doi.org/10.1161/CIRCULATIONAHA.121.056666"/>
-    <hyperlink ref="O69" r:id="rId17" display="https://doi.org/10.1161/CIRCULATIONAHA.121.056666"/>
-    <hyperlink ref="O2" r:id="rId18" display="https://doi.org/10.1126/science.aaf2403"/>
-    <hyperlink ref="O5" r:id="rId19" display="https://doi.org/10.1016/j.cell.2020.10.026"/>
-    <hyperlink ref="O7" r:id="rId20" display="https://doi.org/10.1126/sciadv.abb3446"/>
-    <hyperlink ref="O8" r:id="rId21" display="https://doi.org/10.1016/j.xgen.2021.100065"/>
-    <hyperlink ref="O10" r:id="rId22" display="https://doi.org/10.1016/j.cell.2020.06.038"/>
-    <hyperlink ref="O11" r:id="rId23" display="https://doi.org/10.1038/s41467-020-20343-5"/>
-    <hyperlink ref="O13" r:id="rId24" display="https://doi.org/10.1101/2020.08.24.252296"/>
-    <hyperlink ref="O41" r:id="rId25" display="https://doi.org/10.1038/s41467-022-28497-0"/>
-    <hyperlink ref="O42" r:id="rId26" display="https://doi.org/10.1186/s12915-021-01071-8"/>
-    <hyperlink ref="O45" r:id="rId27" display="https://doi.org/10.1093/biolre/ioab147"/>
-    <hyperlink ref="O47" r:id="rId28" display="https://doi.org/10.1038/s41593-021-00905-6"/>
-    <hyperlink ref="O48" r:id="rId29" display="https://doi.org/10.1038/s41593-022-01011-x"/>
-    <hyperlink ref="O49" r:id="rId30" display="https://doi.org/10.1101/2021.09.20.461121"/>
-    <hyperlink ref="O51" r:id="rId31" display="https://doi.org/10.1016/j.isci.2022.104097"/>
-    <hyperlink ref="O53" r:id="rId32" display="https://doi.org/10.1073/pnas.2103087118"/>
-    <hyperlink ref="O4" r:id="rId19" display="https://doi.org/10.1016/j.cell.2020.10.026"/>
-    <hyperlink ref="O3" r:id="rId19" display="https://doi.org/10.1016/j.cell.2020.10.026"/>
-    <hyperlink ref="O9" r:id="rId22" display="https://doi.org/10.1016/j.cell.2020.06.038"/>
-    <hyperlink ref="O12" r:id="rId24" display="https://doi.org/10.1101/2020.08.24.252296"/>
-    <hyperlink ref="O40" r:id="rId25" display="https://doi.org/10.1038/s41467-022-28497-0"/>
-    <hyperlink ref="O44" r:id="rId27" display="https://doi.org/10.1093/biolre/ioab147"/>
-    <hyperlink ref="O46" r:id="rId28" display="https://doi.org/10.1038/s41593-021-00905-6"/>
-    <hyperlink ref="O50" r:id="rId31" display="https://doi.org/10.1016/j.isci.2022.104097"/>
-    <hyperlink ref="O52" r:id="rId32" display="https://doi.org/10.1073/pnas.2103087118"/>
-    <hyperlink ref="O22" r:id="rId10" display="https://doi.org/10.1016/j.celrep.2021.109915"/>
-    <hyperlink ref="O6" r:id="rId33" display="https://doi.org/10.1186/s12864-020-6631-z"/>
-    <hyperlink ref="O43" r:id="rId34" display="https://doi.org/10.1126/science.abb9536"/>
+    <hyperlink ref="O70" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="O71" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="O72" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="O73" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="O74" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="O75" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="O76" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="O77" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="O78" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="O28" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="O29" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="O30" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="O31" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="O32" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="O33" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="O34" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="O38" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="O35" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="O36" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="O37" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="O39" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="O14" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="O15" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="O23" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="O24" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="O25" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="O26" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="O27" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="O54" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="O55" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="O56" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="O57" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="O58" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="O59" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="O60" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="O61" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="O62" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="O63" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="O64" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="O65" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="O66" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="O67" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="O68" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="O69" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="O2" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="O5" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="O7" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="O8" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="O10" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="O11" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="O13" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="O41" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="O42" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="O45" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="O47" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="O48" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="O49" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="O51" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="O53" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="O4" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="O3" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="O9" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="O12" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="O40" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="O44" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="O46" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="O50" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="O52" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="O22" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="O6" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="O43" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.1666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.537037037037" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.5092592592593" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.83333333333333" style="4"/>
-    <col min="5" max="5" width="14.7685185185185" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.6666666666667" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.787037037037" style="4" customWidth="1"/>
-    <col min="8" max="8" width="31.5833333333333" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.1666666666667" style="4" customWidth="1"/>
-    <col min="10" max="10" width="36.1851851851852" style="4" customWidth="1"/>
-    <col min="11" max="11" width="23.8333333333333" style="4" customWidth="1"/>
-    <col min="12" max="12" width="31.8333333333333" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.8333333333333" style="4" customWidth="1"/>
-    <col min="14" max="14" width="21.3333333333333" style="4" customWidth="1"/>
-    <col min="15" max="15" width="43.1759259259259" style="4" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="4"/>
+    <col min="5" max="5" width="14.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="31.83203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="43.1640625" style="4" customWidth="1"/>
     <col min="16" max="16" width="20" style="4" customWidth="1"/>
-    <col min="17" max="17" width="10.1574074074074" style="4" customWidth="1"/>
-    <col min="18" max="18" width="25.1666666666667" style="4" customWidth="1"/>
-    <col min="19" max="19" width="25.2314814814815" style="4" customWidth="1"/>
-    <col min="20" max="20" width="36.8240740740741" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="8.83333333333333" style="4"/>
+    <col min="17" max="17" width="10.1640625" style="4" customWidth="1"/>
+    <col min="18" max="19" width="25.1640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="36.83203125" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42" customHeight="1" spans="1:20">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10917,7 +10503,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>216</v>
+        <v>690</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>13</v>
@@ -10941,7 +10527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="62.4" spans="1:20">
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="68">
       <c r="A2" s="2" t="s">
         <v>591</v>
       </c>
@@ -10992,7 +10578,7 @@
       </c>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="62.4" spans="1:20">
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="68">
       <c r="A3" s="2" t="s">
         <v>599</v>
       </c>
@@ -11040,7 +10626,7 @@
       </c>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="57.6" spans="1:20">
+    <row r="4" spans="1:20" s="2" customFormat="1" ht="64">
       <c r="A4" s="9" t="s">
         <v>601</v>
       </c>
@@ -11100,7 +10686,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="409.5" spans="1:20">
+    <row r="5" spans="1:20" s="2" customFormat="1" ht="409.6">
       <c r="A5" s="9" t="s">
         <v>610</v>
       </c>
@@ -11149,7 +10735,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="46.8" spans="1:20">
+    <row r="6" spans="1:20" s="2" customFormat="1" ht="34">
       <c r="A6" s="2" t="s">
         <v>618</v>
       </c>
@@ -11199,7 +10785,7 @@
       </c>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="46.8" spans="1:20">
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="34">
       <c r="A7" s="2" t="s">
         <v>624</v>
       </c>
@@ -11249,7 +10835,7 @@
       </c>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="409.5" spans="1:20">
+    <row r="8" spans="1:20" s="2" customFormat="1" ht="409.6">
       <c r="A8" s="9" t="s">
         <v>626</v>
       </c>
@@ -11277,7 +10863,7 @@
       <c r="I8" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="87" t="s">
         <v>629</v>
       </c>
       <c r="K8" s="17">
@@ -11300,12 +10886,12 @@
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="2" t="s">
+      <c r="S8" s="87" t="s">
         <v>616</v>
       </c>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="46.8" spans="1:20">
+    <row r="9" spans="1:20" s="3" customFormat="1" ht="51">
       <c r="A9" s="10" t="s">
         <v>633</v>
       </c>
@@ -11331,6 +10917,7 @@
         <v>94</v>
       </c>
       <c r="I9" s="11"/>
+      <c r="J9" s="88"/>
       <c r="K9" s="18">
         <v>44475</v>
       </c>
@@ -11349,9 +10936,10 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="23"/>
+      <c r="S9" s="88"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="46.8" spans="1:20">
+    <row r="10" spans="1:20" s="3" customFormat="1" ht="51">
       <c r="A10" s="10" t="s">
         <v>634</v>
       </c>
@@ -11377,6 +10965,7 @@
         <v>94</v>
       </c>
       <c r="I10" s="11"/>
+      <c r="J10" s="88"/>
       <c r="K10" s="18">
         <v>44475</v>
       </c>
@@ -11395,9 +10984,10 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="23"/>
+      <c r="S10" s="88"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="46.8" spans="1:20">
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="51">
       <c r="A11" s="10" t="s">
         <v>636</v>
       </c>
@@ -11423,6 +11013,7 @@
         <v>94</v>
       </c>
       <c r="I11" s="11"/>
+      <c r="J11" s="88"/>
       <c r="K11" s="18">
         <v>44475</v>
       </c>
@@ -11441,9 +11032,10 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="23"/>
+      <c r="S11" s="88"/>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="31.2" spans="1:20">
+    <row r="12" spans="1:20" s="2" customFormat="1" ht="34">
       <c r="A12" s="2" t="s">
         <v>638</v>
       </c>
@@ -11491,7 +11083,7 @@
       </c>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="93.6" spans="1:20">
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="102">
       <c r="A13" s="2" t="s">
         <v>643</v>
       </c>
@@ -11543,7 +11135,7 @@
       </c>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="46.8" spans="1:20">
+    <row r="14" spans="1:20" s="2" customFormat="1" ht="51">
       <c r="A14" s="2" t="s">
         <v>652</v>
       </c>
@@ -11595,7 +11187,7 @@
       </c>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="62.4" spans="1:20">
+    <row r="15" spans="1:20" s="2" customFormat="1" ht="68">
       <c r="A15" s="2" t="s">
         <v>659</v>
       </c>
@@ -11645,7 +11237,7 @@
       </c>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="62.4" spans="1:20">
+    <row r="16" spans="1:20" s="2" customFormat="1" ht="68">
       <c r="A16" s="2" t="s">
         <v>665</v>
       </c>
@@ -11693,7 +11285,7 @@
       </c>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="62.4" spans="1:20">
+    <row r="17" spans="1:20" s="2" customFormat="1" ht="68">
       <c r="A17" s="2" t="s">
         <v>671</v>
       </c>
@@ -11741,7 +11333,7 @@
       </c>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="46.8" spans="1:20">
+    <row r="18" spans="1:20" s="2" customFormat="1" ht="51">
       <c r="A18" s="2" t="s">
         <v>673</v>
       </c>
@@ -11783,7 +11375,7 @@
       </c>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="46.8" spans="1:20">
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="51">
       <c r="A19" s="2" t="s">
         <v>677</v>
       </c>
@@ -11825,7 +11417,7 @@
       </c>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="78" spans="1:20">
+    <row r="20" spans="1:20" s="2" customFormat="1" ht="68">
       <c r="A20" s="9" t="s">
         <v>678</v>
       </c>
@@ -11879,7 +11471,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="62.4" spans="1:20">
+    <row r="21" spans="1:20" s="2" customFormat="1" ht="51">
       <c r="A21" s="2" t="s">
         <v>681</v>
       </c>
@@ -11923,7 +11515,7 @@
       </c>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="62.4" spans="1:20">
+    <row r="22" spans="1:20" s="2" customFormat="1" ht="51">
       <c r="A22" s="2" t="s">
         <v>687</v>
       </c>
@@ -11972,31 +11564,31 @@
     <mergeCell ref="J8:J11"/>
     <mergeCell ref="S8:S11"/>
   </mergeCells>
+  <phoneticPr fontId="44" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O12" r:id="rId1" display="https://doi.org/10.1038/s41586-021-03775-x"/>
-    <hyperlink ref="O13" r:id="rId2" display="https://doi.org/10.1038/s41587-021-01006-2"/>
-    <hyperlink ref="O14" r:id="rId3" display="https://doi.org/10.1016/j.cell.2021.11.024"/>
-    <hyperlink ref="O15" r:id="rId4" display="https://doi.org/10.1101/2021.04.26.441547"/>
-    <hyperlink ref="O16" r:id="rId5" display="https://doi.org/10.1038/s41421-021-00266-1"/>
-    <hyperlink ref="O17" r:id="rId5" display="https://doi.org/10.1038/s41421-021-00266-1"/>
-    <hyperlink ref="O18" r:id="rId6" display="https://doi.org/10.1101/2022.03.04.483068"/>
-    <hyperlink ref="O19" r:id="rId6" display="https://doi.org/10.1101/2022.03.04.483068"/>
-    <hyperlink ref="O20" r:id="rId7" display="https://doi.org/10.1038/s41593-022-01030-8"/>
-    <hyperlink ref="O21" r:id="rId8" display="https://doi.org/10.1101/2022.03.23.485552"/>
-    <hyperlink ref="O22" r:id="rId8" display="https://doi.org/10.1101/2022.03.23.485552"/>
-    <hyperlink ref="O3" r:id="rId9" display="https://doi.org/10.1016/j.neuron.2016.10.001"/>
-    <hyperlink ref="O4" r:id="rId10" display="https://doi.org/10.1038/s41592-018-0175-z"/>
-    <hyperlink ref="O5" r:id="rId11" display="https://doi.org/10.1126/science.aau5324"/>
-    <hyperlink ref="O7" r:id="rId12" display="https://doi.org/10.1038/s41586-019-1049-y"/>
-    <hyperlink ref="O2" r:id="rId9" display="https://doi.org/10.1016/j.neuron.2016.10.001"/>
-    <hyperlink ref="O6" r:id="rId12" display="https://doi.org/10.1038/s41586-019-1049-y"/>
-    <hyperlink ref="O11" r:id="rId13" display="https://doi.org/10.1038/s41586-021-03705-x"/>
-    <hyperlink ref="O10" r:id="rId13" display="https://doi.org/10.1038/s41586-021-03705-x"/>
-    <hyperlink ref="O9" r:id="rId13" display="https://doi.org/10.1038/s41586-021-03705-x"/>
-    <hyperlink ref="O8" r:id="rId13" display="https://doi.org/10.1038/s41586-021-03705-x"/>
+    <hyperlink ref="O12" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="O13" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="O14" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="O15" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="O16" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="O17" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="O18" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="O19" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="O20" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="O21" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="O22" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="O3" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="O4" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="O5" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="O7" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="O2" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="O6" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="O11" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="O10" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="O9" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="O8" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/public/files/data_downloaded.xlsx
+++ b/public/files/data_downloaded.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunfu/WebstormProjects/Spatial_Trans_Web/public/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunfu/WebstormProjects/Spatial-Trans-Web/public/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F321984-7F90-A94B-8D85-57B7D370B2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAAABFF-C712-5043-A230-CAED2118D560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22360" windowHeight="9260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27660" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NGS-Human" sheetId="1" r:id="rId1"/>
@@ -2094,9 +2094,6 @@
   </si>
   <si>
     <t>GSM5513604-GSM5513610</t>
-  </si>
-  <si>
-    <t>Journrnal</t>
   </si>
   <si>
     <t>STW-M-Brain-ST-1</t>
@@ -3778,13 +3775,17 @@
     <t>Journal</t>
     <phoneticPr fontId="44" type="noConversion"/>
   </si>
+  <si>
+    <t>Jourrnal</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -4213,10 +4214,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4402,9 +4403,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4412,6 +4410,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4708,7 +4709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -5199,7 +5200,7 @@
       </c>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
-      <c r="S8" s="81" t="s">
+      <c r="S8" s="80" t="s">
         <v>81</v>
       </c>
       <c r="T8" s="52" t="s">
@@ -5249,7 +5250,7 @@
       </c>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
-      <c r="S9" s="82"/>
+      <c r="S9" s="81"/>
       <c r="T9" s="52" t="s">
         <v>92</v>
       </c>
@@ -5297,7 +5298,7 @@
       </c>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
-      <c r="S10" s="82"/>
+      <c r="S10" s="81"/>
       <c r="T10" s="52" t="s">
         <v>95</v>
       </c>
@@ -5445,7 +5446,7 @@
       <c r="R13" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="S13" s="81" t="s">
+      <c r="S13" s="80" t="s">
         <v>114</v>
       </c>
       <c r="T13" s="52" t="s">
@@ -5503,7 +5504,7 @@
       <c r="R14" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="S14" s="82"/>
+      <c r="S14" s="81"/>
       <c r="T14" s="52" t="s">
         <v>119</v>
       </c>
@@ -5619,7 +5620,7 @@
       <c r="R16" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="S16" s="81" t="s">
+      <c r="S16" s="80" t="s">
         <v>81</v>
       </c>
       <c r="T16" s="52" t="s">
@@ -5679,7 +5680,7 @@
       <c r="R17" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="S17" s="82"/>
+      <c r="S17" s="81"/>
       <c r="T17" s="52" t="s">
         <v>144</v>
       </c>
@@ -5831,14 +5832,14 @@
       <c r="O20" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="P20" s="80" t="s">
+      <c r="P20" s="83" t="s">
         <v>165</v>
       </c>
       <c r="Q20" s="79"/>
       <c r="R20" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="S20" s="81" t="s">
+      <c r="S20" s="80" t="s">
         <v>166</v>
       </c>
       <c r="T20" s="52" t="s">
@@ -5883,10 +5884,10 @@
       <c r="O21" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="P21" s="80"/>
+      <c r="P21" s="83"/>
       <c r="Q21" s="79"/>
       <c r="R21" s="79"/>
-      <c r="S21" s="82"/>
+      <c r="S21" s="81"/>
       <c r="T21" s="52" t="s">
         <v>170</v>
       </c>
@@ -5929,10 +5930,10 @@
       <c r="O22" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="P22" s="80"/>
+      <c r="P22" s="83"/>
       <c r="Q22" s="79"/>
       <c r="R22" s="79"/>
-      <c r="S22" s="82"/>
+      <c r="S22" s="81"/>
       <c r="T22" s="52" t="s">
         <v>173</v>
       </c>
@@ -6034,7 +6035,7 @@
       <c r="R24" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="S24" s="83" t="s">
+      <c r="S24" s="82" t="s">
         <v>81</v>
       </c>
       <c r="T24" s="52" t="s">
@@ -6131,13 +6132,13 @@
       <c r="O26" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="P26" s="80" t="s">
+      <c r="P26" s="83" t="s">
         <v>113</v>
       </c>
       <c r="R26" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="S26" s="83" t="s">
+      <c r="S26" s="82" t="s">
         <v>81</v>
       </c>
       <c r="T26" s="52" t="s">
@@ -6185,7 +6186,7 @@
       <c r="O27" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="P27" s="80"/>
+      <c r="P27" s="83"/>
       <c r="R27" s="79"/>
       <c r="S27" s="79"/>
       <c r="T27" s="52" t="s">
@@ -6244,6 +6245,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q24:Q25"/>
     <mergeCell ref="R20:R22"/>
     <mergeCell ref="R24:R25"/>
     <mergeCell ref="R26:R27"/>
@@ -6253,12 +6260,6 @@
     <mergeCell ref="S20:S22"/>
     <mergeCell ref="S24:S25"/>
     <mergeCell ref="S26:S27"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q24:Q25"/>
   </mergeCells>
   <phoneticPr fontId="44" type="noConversion"/>
   <hyperlinks>
@@ -6299,8 +6300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U78"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -6366,7 +6367,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>216</v>
+        <v>690</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>13</v>
@@ -6392,22 +6393,22 @@
     </row>
     <row r="2" spans="1:21" ht="313" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>175</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G2" s="12" t="b">
         <v>0</v>
@@ -6416,16 +6417,16 @@
         <v>94</v>
       </c>
       <c r="I2" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>221</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>222</v>
       </c>
       <c r="K2" s="12">
         <v>42552</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>26</v>
@@ -6434,58 +6435,58 @@
         <v>27365449</v>
       </c>
       <c r="O2" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="P2" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
         <v>225</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>226</v>
       </c>
       <c r="R2" s="42" t="s">
         <v>102</v>
       </c>
       <c r="S2" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="T2" s="35" t="s">
         <v>227</v>
-      </c>
-      <c r="T2" s="35" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="204">
       <c r="A3" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="28" t="s">
         <v>208</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G3" s="28" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="J3" s="84" t="s">
         <v>233</v>
-      </c>
-      <c r="J3" s="84" t="s">
-        <v>234</v>
       </c>
       <c r="K3" s="12">
         <v>44148</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>54</v>
@@ -6494,46 +6495,46 @@
         <v>33188776</v>
       </c>
       <c r="O3" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="P3" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="Q3" s="35" t="s">
         <v>237</v>
-      </c>
-      <c r="Q3" s="35" t="s">
-        <v>238</v>
       </c>
       <c r="R3" s="29" t="s">
         <v>102</v>
       </c>
       <c r="S3" s="84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="85">
       <c r="A4" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="29" t="s">
         <v>208</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G4" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>241</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>242</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>105</v>
@@ -6543,7 +6544,7 @@
         <v>44148</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>54</v>
@@ -6552,7 +6553,7 @@
         <v>33188776</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P4" s="35" t="s">
         <v>105</v>
@@ -6570,26 +6571,26 @@
     </row>
     <row r="5" spans="1:21" ht="85">
       <c r="A5" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="29" t="s">
         <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G5" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>241</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>242</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>105</v>
@@ -6599,7 +6600,7 @@
         <v>44148</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>54</v>
@@ -6608,7 +6609,7 @@
         <v>33188776</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P5" s="35" t="s">
         <v>105</v>
@@ -6626,76 +6627,76 @@
     </row>
     <row r="6" spans="1:21" s="25" customFormat="1" ht="238">
       <c r="A6" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>219</v>
-      </c>
       <c r="E6" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="G6" s="31" t="s">
         <v>246</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>247</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>94</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K6" s="31">
         <v>43936</v>
       </c>
       <c r="L6" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="M6" s="30" t="s">
         <v>249</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>250</v>
       </c>
       <c r="N6" s="30">
         <v>32293264</v>
       </c>
       <c r="O6" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="P6" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="Q6" s="32" t="s">
         <v>252</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>253</v>
       </c>
       <c r="R6" s="30" t="s">
         <v>102</v>
       </c>
       <c r="S6" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="T6" s="32" t="s">
         <v>254</v>
-      </c>
-      <c r="T6" s="32" t="s">
-        <v>255</v>
       </c>
       <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:21" ht="372">
       <c r="A7" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>175</v>
@@ -6713,13 +6714,13 @@
         <v>75</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K7" s="12">
         <v>44008</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>26</v>
@@ -6728,37 +6729,37 @@
         <v>32637622</v>
       </c>
       <c r="O7" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="Q7" s="21"/>
       <c r="R7" s="7" t="s">
         <v>102</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="170">
       <c r="A8" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G8" s="12" t="b">
         <v>0</v>
@@ -6770,47 +6771,47 @@
         <v>7</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K8" s="12">
         <v>44538</v>
       </c>
       <c r="L8" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>102</v>
       </c>
       <c r="S8" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="T8" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.5" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>175</v>
@@ -6822,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I9" s="7">
         <v>9</v>
@@ -6831,7 +6832,7 @@
         <v>44029</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>54</v>
@@ -6840,33 +6841,33 @@
         <v>32702314</v>
       </c>
       <c r="O9" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="P9" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="Q9" s="84" t="s">
         <v>278</v>
       </c>
-      <c r="Q9" s="84" t="s">
+      <c r="R9" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="R9" s="43" t="s">
+      <c r="T9" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="51">
       <c r="A10" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>175</v>
@@ -6878,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I10" s="7">
         <v>8</v>
@@ -6887,7 +6888,7 @@
         <v>44029</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>54</v>
@@ -6896,43 +6897,43 @@
         <v>32702314</v>
       </c>
       <c r="O10" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="P10" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="Q10" s="84"/>
       <c r="R10" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="102">
       <c r="A11" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>175</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G11" s="12" t="b">
         <v>0</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -6941,55 +6942,55 @@
         <v>44215</v>
       </c>
       <c r="L11" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="N11" s="7">
         <v>33469025</v>
       </c>
       <c r="O11" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="Q11" s="21"/>
       <c r="R11" s="7" t="s">
         <v>102</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.5" customHeight="1">
       <c r="A12" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="C12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G12" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I12" s="7">
         <v>2</v>
@@ -6998,50 +6999,50 @@
         <v>44566</v>
       </c>
       <c r="L12" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="84" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>102</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="51">
       <c r="A13" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G13" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I13" s="7">
         <v>4</v>
@@ -7050,14 +7051,14 @@
         <v>44566</v>
       </c>
       <c r="L13" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="84"/>
@@ -7065,27 +7066,27 @@
         <v>102</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="102">
       <c r="A14" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>175</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G14" s="12" t="b">
         <v>1</v>
@@ -7098,7 +7099,7 @@
         <v>44088</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>111</v>
@@ -7107,37 +7108,37 @@
         <v>33083725</v>
       </c>
       <c r="O14" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="P14" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="Q14" s="21"/>
       <c r="R14" s="12" t="s">
         <v>102</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="102">
       <c r="A15" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>175</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G15" s="12" t="b">
         <v>1</v>
@@ -7150,7 +7151,7 @@
         <v>44088</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>111</v>
@@ -7159,37 +7160,37 @@
         <v>33083725</v>
       </c>
       <c r="O15" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="P15" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="Q15" s="21"/>
       <c r="R15" s="12" t="s">
         <v>102</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="102">
       <c r="A16" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G16" s="12" t="b">
         <v>1</v>
@@ -7202,7 +7203,7 @@
         <v>44088</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>111</v>
@@ -7211,37 +7212,37 @@
         <v>33083725</v>
       </c>
       <c r="O16" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="P16" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="Q16" s="21"/>
       <c r="R16" s="12" t="s">
         <v>102</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="102">
       <c r="A17" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>175</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G17" s="12" t="b">
         <v>0</v>
@@ -7254,7 +7255,7 @@
         <v>44088</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>111</v>
@@ -7263,37 +7264,37 @@
         <v>33083725</v>
       </c>
       <c r="O17" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="P17" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="Q17" s="21"/>
       <c r="R17" s="12" t="s">
         <v>102</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="102">
       <c r="A18" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>175</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G18" s="12" t="b">
         <v>1</v>
@@ -7306,7 +7307,7 @@
         <v>44088</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>111</v>
@@ -7315,37 +7316,37 @@
         <v>33083725</v>
       </c>
       <c r="O18" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="P18" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="Q18" s="21"/>
       <c r="R18" s="12" t="s">
         <v>102</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="102">
       <c r="A19" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>175</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G19" s="12" t="b">
         <v>1</v>
@@ -7358,7 +7359,7 @@
         <v>44088</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>111</v>
@@ -7367,37 +7368,37 @@
         <v>33083725</v>
       </c>
       <c r="O19" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="P19" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="Q19" s="21"/>
       <c r="R19" s="12" t="s">
         <v>102</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="102">
       <c r="A20" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>175</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G20" s="12" t="b">
         <v>1</v>
@@ -7410,7 +7411,7 @@
         <v>44088</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>111</v>
@@ -7419,37 +7420,37 @@
         <v>33083725</v>
       </c>
       <c r="O20" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="P20" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="Q20" s="21"/>
       <c r="R20" s="12" t="s">
         <v>102</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="102">
       <c r="A21" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>175</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G21" s="12" t="b">
         <v>0</v>
@@ -7462,7 +7463,7 @@
         <v>44088</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M21" s="12" t="s">
         <v>111</v>
@@ -7471,27 +7472,27 @@
         <v>33083725</v>
       </c>
       <c r="O21" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="P21" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>312</v>
       </c>
       <c r="R21" s="12" t="s">
         <v>102</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="51">
       <c r="A22" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12" t="s">
@@ -7504,13 +7505,13 @@
         <v>1</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I22" s="7">
         <v>3</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K22" s="12">
         <v>44502</v>
@@ -7528,30 +7529,30 @@
         <v>65</v>
       </c>
       <c r="P22" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q22" s="86" t="s">
         <v>329</v>
-      </c>
-      <c r="Q22" s="86" t="s">
-        <v>330</v>
       </c>
       <c r="R22" s="12" t="s">
         <v>102</v>
       </c>
       <c r="S22" s="84" t="s">
+        <v>330</v>
+      </c>
+      <c r="T22" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="T22" s="8" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="51">
       <c r="A23" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12" t="s">
@@ -7564,13 +7565,13 @@
         <v>0</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I23" s="7">
         <v>3</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K23" s="12">
         <v>44502</v>
@@ -7588,7 +7589,7 @@
         <v>65</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q23" s="86"/>
       <c r="R23" s="12" t="s">
@@ -7596,101 +7597,101 @@
       </c>
       <c r="S23" s="84"/>
       <c r="T23" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="102">
       <c r="A24" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>175</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G24" s="12" t="b">
         <v>0</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I24" s="7">
         <v>5</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K24" s="12">
         <v>44152</v>
       </c>
       <c r="L24" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="O24" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="M24" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>341</v>
-      </c>
       <c r="P24" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R24" s="12" t="s">
         <v>102</v>
       </c>
       <c r="S24" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="T24" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="T24" s="8" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="85">
       <c r="A25" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="F25" s="12" t="s">
         <v>346</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>347</v>
       </c>
       <c r="G25" s="12" t="b">
         <v>1</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K25" s="12">
         <v>44512</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M25" s="12" t="s">
         <v>99</v>
@@ -7699,57 +7700,57 @@
         <v>34773081</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R25" s="12" t="s">
         <v>102</v>
       </c>
       <c r="S25" s="84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="85">
       <c r="A26" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="F26" s="12" t="s">
         <v>346</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>347</v>
       </c>
       <c r="G26" s="12" t="b">
         <v>1</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I26" s="7">
         <v>1</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K26" s="12">
         <v>44512</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>99</v>
@@ -7758,55 +7759,55 @@
         <v>34773081</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R26" s="12" t="s">
         <v>102</v>
       </c>
       <c r="S26" s="84"/>
       <c r="T26" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="85">
       <c r="A27" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D27" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="F27" s="12" t="s">
         <v>346</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>347</v>
       </c>
       <c r="G27" s="12" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I27" s="7">
         <v>1</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K27" s="12">
         <v>44512</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M27" s="12" t="s">
         <v>99</v>
@@ -7815,87 +7816,87 @@
         <v>34773081</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R27" s="12" t="s">
         <v>102</v>
       </c>
       <c r="S27" s="84"/>
       <c r="T27" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="51">
       <c r="A28" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>208</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G28" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I28" s="8">
         <v>2</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K28" s="12">
         <v>44123</v>
       </c>
       <c r="L28" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O28" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="M28" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O28" s="16" t="s">
+      <c r="P28" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="P28" s="8" t="s">
-        <v>365</v>
       </c>
       <c r="R28" s="8" t="s">
         <v>102</v>
       </c>
       <c r="S28" s="84" t="s">
+        <v>365</v>
+      </c>
+      <c r="T28" s="8" t="s">
         <v>366</v>
-      </c>
-      <c r="T28" s="8" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="51">
       <c r="A29" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>369</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>370</v>
       </c>
       <c r="G29" s="8" t="b">
         <v>0</v>
@@ -7907,46 +7908,46 @@
         <v>1</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K29" s="12">
         <v>44123</v>
       </c>
       <c r="L29" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O29" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="M29" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O29" s="16" t="s">
+      <c r="P29" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>365</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>102</v>
       </c>
       <c r="S29" s="84"/>
       <c r="T29" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="51">
       <c r="A30" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G30" s="8" t="b">
         <v>0</v>
@@ -7958,46 +7959,46 @@
         <v>1</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K30" s="12">
         <v>44123</v>
       </c>
       <c r="L30" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O30" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="M30" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O30" s="16" t="s">
+      <c r="P30" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>365</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>102</v>
       </c>
       <c r="S30" s="84"/>
       <c r="T30" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="51">
       <c r="A31" s="26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G31" s="8" t="b">
         <v>0</v>
@@ -8009,46 +8010,46 @@
         <v>1</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K31" s="12">
         <v>44123</v>
       </c>
       <c r="L31" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O31" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="M31" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O31" s="16" t="s">
+      <c r="P31" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>365</v>
       </c>
       <c r="R31" s="8" t="s">
         <v>102</v>
       </c>
       <c r="S31" s="84"/>
       <c r="T31" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="119">
       <c r="A32" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G32" s="8" t="b">
         <v>1</v>
@@ -8057,7 +8058,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="84" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K32" s="17">
         <v>44334</v>
@@ -8075,36 +8076,36 @@
         <v>126</v>
       </c>
       <c r="P32" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q32" s="84" t="s">
         <v>383</v>
-      </c>
-      <c r="Q32" s="84" t="s">
-        <v>384</v>
       </c>
       <c r="R32" s="8" t="s">
         <v>102</v>
       </c>
       <c r="S32" s="84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T32" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="119">
       <c r="A33" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>121</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G33" s="8" t="b">
         <v>1</v>
@@ -8129,7 +8130,7 @@
         <v>126</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q33" s="84"/>
       <c r="R33" s="8" t="s">
@@ -8137,18 +8138,18 @@
       </c>
       <c r="S33" s="84"/>
       <c r="T33" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="51">
       <c r="A34" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>390</v>
-      </c>
       <c r="C34" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>131</v>
@@ -8166,7 +8167,7 @@
         <v>44223</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>54</v>
@@ -8175,13 +8176,13 @@
         <v>34115981</v>
       </c>
       <c r="O34" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="P34" s="84" t="s">
         <v>392</v>
       </c>
-      <c r="P34" s="84" t="s">
+      <c r="Q34" s="84" t="s">
         <v>393</v>
-      </c>
-      <c r="Q34" s="84" t="s">
-        <v>394</v>
       </c>
       <c r="R34" s="8" t="s">
         <v>102</v>
@@ -8190,18 +8191,18 @@
         <v>102</v>
       </c>
       <c r="T34" s="84" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="51">
       <c r="A35" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>131</v>
@@ -8217,7 +8218,7 @@
         <v>44223</v>
       </c>
       <c r="L35" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>54</v>
@@ -8226,7 +8227,7 @@
         <v>34115981</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P35" s="84"/>
       <c r="Q35" s="84"/>
@@ -8238,13 +8239,13 @@
     </row>
     <row r="36" spans="1:20" ht="51">
       <c r="A36" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>131</v>
@@ -8260,7 +8261,7 @@
         <v>44223</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>54</v>
@@ -8269,7 +8270,7 @@
         <v>34115981</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P36" s="84"/>
       <c r="Q36" s="84"/>
@@ -8281,19 +8282,19 @@
     </row>
     <row r="37" spans="1:20" ht="51">
       <c r="A37" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>131</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G37" s="8" t="b">
         <v>1</v>
@@ -8303,7 +8304,7 @@
         <v>44223</v>
       </c>
       <c r="L37" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>54</v>
@@ -8312,7 +8313,7 @@
         <v>34115981</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P37" s="84"/>
       <c r="Q37" s="84"/>
@@ -8324,13 +8325,13 @@
     </row>
     <row r="38" spans="1:20" ht="51">
       <c r="A38" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>84</v>
@@ -8348,7 +8349,7 @@
         <v>44223</v>
       </c>
       <c r="L38" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>54</v>
@@ -8357,7 +8358,7 @@
         <v>34115981</v>
       </c>
       <c r="O38" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P38" s="84"/>
       <c r="Q38" s="84"/>
@@ -8366,21 +8367,21 @@
       </c>
       <c r="S38" s="84"/>
       <c r="T38" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="204">
       <c r="A39" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>131</v>
@@ -8392,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I39" s="8">
         <v>8</v>
@@ -8401,22 +8402,22 @@
         <v>44532</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N39" s="8">
         <v>34857782</v>
       </c>
       <c r="O39" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="P39" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="Q39" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="Q39" s="8" t="s">
-        <v>407</v>
       </c>
       <c r="R39" s="8" t="s">
         <v>102</v>
@@ -8425,21 +8426,21 @@
         <v>102</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="51">
       <c r="A40" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>84</v>
@@ -8457,54 +8458,54 @@
         <v>44603</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N40" s="7">
         <v>35149721</v>
       </c>
       <c r="O40" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="P40" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="P40" s="38" t="s">
+      <c r="Q40" s="84" t="s">
         <v>412</v>
-      </c>
-      <c r="Q40" s="84" t="s">
-        <v>413</v>
       </c>
       <c r="R40" s="7" t="s">
         <v>102</v>
       </c>
       <c r="T40" s="38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="51">
       <c r="A41" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>84</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G41" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I41" s="38">
         <v>1</v>
@@ -8513,52 +8514,52 @@
         <v>44603</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N41" s="7">
         <v>35149721</v>
       </c>
       <c r="O41" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="P41" s="38" t="s">
         <v>411</v>
-      </c>
-      <c r="P41" s="38" t="s">
-        <v>412</v>
       </c>
       <c r="Q41" s="84"/>
       <c r="R41" s="7" t="s">
         <v>102</v>
       </c>
       <c r="T41" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="119">
       <c r="A42" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>175</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G42" s="7" t="b">
         <v>0</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I42" s="38">
         <v>1</v>
@@ -8567,60 +8568,60 @@
         <v>44378</v>
       </c>
       <c r="L42" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M42" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="N42" s="7">
         <v>34210306</v>
       </c>
       <c r="O42" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="P42" s="38" t="s">
         <v>425</v>
-      </c>
-      <c r="P42" s="38" t="s">
-        <v>426</v>
       </c>
       <c r="R42" s="7" t="s">
         <v>102</v>
       </c>
       <c r="T42" s="38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="119">
       <c r="A43" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="C43" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="29" t="s">
         <v>429</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>430</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>208</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G43" s="29" t="b">
         <v>0</v>
       </c>
       <c r="H43" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="I43" s="28" t="s">
         <v>432</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>433</v>
       </c>
       <c r="K43" s="39">
         <v>44379</v>
       </c>
       <c r="L43" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M43" s="29" t="s">
         <v>26</v>
@@ -8629,33 +8630,33 @@
         <v>34210887</v>
       </c>
       <c r="O43" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="P43" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="P43" s="28" t="s">
+      <c r="Q43" s="35" t="s">
         <v>436</v>
-      </c>
-      <c r="Q43" s="35" t="s">
-        <v>437</v>
       </c>
       <c r="R43" s="29" t="s">
         <v>102</v>
       </c>
       <c r="T43" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="85">
       <c r="A44" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>73</v>
@@ -8674,37 +8675,37 @@
         <v>44411</v>
       </c>
       <c r="L44" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M44" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="N44" s="7">
         <v>34344022</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P44" s="38"/>
       <c r="R44" s="7" t="s">
         <v>102</v>
       </c>
       <c r="T44" s="85" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="85">
       <c r="A45" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>73</v>
@@ -8723,16 +8724,16 @@
         <v>44411</v>
       </c>
       <c r="L45" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M45" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="N45" s="7">
         <v>34344022</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P45" s="38"/>
       <c r="R45" s="7" t="s">
@@ -8742,28 +8743,28 @@
     </row>
     <row r="46" spans="1:20" ht="204">
       <c r="A46" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G46" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I46" s="38">
         <v>3</v>
@@ -8772,51 +8773,51 @@
         <v>44427</v>
       </c>
       <c r="L46" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="M46" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="N46" s="7">
         <v>34413515</v>
       </c>
       <c r="O46" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P46" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R46" s="7" t="s">
         <v>102</v>
       </c>
       <c r="T46" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="204">
       <c r="A47" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G47" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I47" s="38">
         <v>3</v>
@@ -8825,45 +8826,45 @@
         <v>44427</v>
       </c>
       <c r="L47" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="M47" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="N47" s="7">
         <v>34413515</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P47" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R47" s="7" t="s">
         <v>102</v>
       </c>
       <c r="T47" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="136">
       <c r="A48" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="C48" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>175</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G48" s="7" t="b">
         <v>0</v>
@@ -8875,43 +8876,43 @@
         <v>44616</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N48" s="7">
         <v>35210624</v>
       </c>
       <c r="O48" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P48" s="38"/>
       <c r="R48" s="7" t="s">
         <v>102</v>
       </c>
       <c r="T48" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="68">
       <c r="A49" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>467</v>
-      </c>
       <c r="F49" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G49" s="7" t="b">
         <v>1</v>
@@ -8923,43 +8924,43 @@
         <v>44462</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N49" s="7"/>
       <c r="O49" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="P49" s="38" t="s">
         <v>469</v>
-      </c>
-      <c r="P49" s="38" t="s">
-        <v>470</v>
       </c>
       <c r="R49" s="7" t="s">
         <v>102</v>
       </c>
       <c r="T49" s="38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="85">
       <c r="A50" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>121</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G50" s="8" t="b">
         <v>1</v>
@@ -8969,7 +8970,7 @@
         <v>44636</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>111</v>
@@ -8978,39 +8979,39 @@
         <v>35372810</v>
       </c>
       <c r="O50" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="P50" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="P50" s="38" t="s">
+      <c r="Q50" s="84" t="s">
         <v>477</v>
-      </c>
-      <c r="Q50" s="84" t="s">
-        <v>478</v>
       </c>
       <c r="R50" s="7" t="s">
         <v>102</v>
       </c>
       <c r="T50" s="85" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="85">
       <c r="A51" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G51" s="8" t="b">
         <v>0</v>
@@ -9020,7 +9021,7 @@
         <v>44636</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M51" s="7" t="s">
         <v>111</v>
@@ -9029,10 +9030,10 @@
         <v>35372810</v>
       </c>
       <c r="O51" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="P51" s="38" t="s">
         <v>476</v>
-      </c>
-      <c r="P51" s="38" t="s">
-        <v>477</v>
       </c>
       <c r="Q51" s="84"/>
       <c r="R51" s="7" t="s">
@@ -9042,97 +9043,97 @@
     </row>
     <row r="52" spans="1:20" ht="102">
       <c r="A52" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G52" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H52" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="I52" s="80" t="s">
         <v>485</v>
-      </c>
-      <c r="I52" s="81" t="s">
-        <v>486</v>
       </c>
       <c r="K52" s="15">
         <v>44488</v>
       </c>
       <c r="L52" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="M52" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="N52" s="7">
         <v>34663698</v>
       </c>
       <c r="O52" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P52" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R52" s="7" t="s">
         <v>102</v>
       </c>
       <c r="T52" s="85" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="102">
       <c r="A53" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F53" s="34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G53" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I53" s="85"/>
       <c r="K53" s="15">
         <v>44488</v>
       </c>
       <c r="L53" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="M53" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="N53" s="7">
         <v>34663698</v>
       </c>
       <c r="O53" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P53" s="38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R53" s="7" t="s">
         <v>102</v>
@@ -9141,28 +9142,28 @@
     </row>
     <row r="54" spans="1:20" ht="68">
       <c r="A54" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>196</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G54" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I54" s="8">
         <v>1</v>
@@ -9171,48 +9172,48 @@
         <v>44502</v>
       </c>
       <c r="L54" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O54" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="M54" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O54" s="16" t="s">
+      <c r="P54" s="8" t="s">
         <v>498</v>
-      </c>
-      <c r="P54" s="8" t="s">
-        <v>499</v>
       </c>
       <c r="R54" s="8" t="s">
         <v>102</v>
       </c>
       <c r="T54" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="68">
       <c r="A55" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>196</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G55" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I55" s="8">
         <v>1</v>
@@ -9221,48 +9222,48 @@
         <v>44502</v>
       </c>
       <c r="L55" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O55" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="M55" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O55" s="16" t="s">
+      <c r="P55" s="8" t="s">
         <v>498</v>
-      </c>
-      <c r="P55" s="8" t="s">
-        <v>499</v>
       </c>
       <c r="R55" s="8" t="s">
         <v>102</v>
       </c>
       <c r="T55" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="68">
       <c r="A56" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>196</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G56" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I56" s="8">
         <v>1</v>
@@ -9271,48 +9272,48 @@
         <v>44502</v>
       </c>
       <c r="L56" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O56" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="M56" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O56" s="16" t="s">
+      <c r="P56" s="8" t="s">
         <v>498</v>
-      </c>
-      <c r="P56" s="8" t="s">
-        <v>499</v>
       </c>
       <c r="R56" s="8" t="s">
         <v>102</v>
       </c>
       <c r="T56" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="68">
       <c r="A57" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>196</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G57" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I57" s="8">
         <v>1</v>
@@ -9321,42 +9322,42 @@
         <v>44502</v>
       </c>
       <c r="L57" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O57" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="M57" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O57" s="16" t="s">
+      <c r="P57" s="8" t="s">
         <v>498</v>
-      </c>
-      <c r="P57" s="8" t="s">
-        <v>499</v>
       </c>
       <c r="R57" s="8" t="s">
         <v>102</v>
       </c>
       <c r="T57" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="68">
       <c r="A58" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G58" s="8" t="b">
         <v>1</v>
@@ -9368,48 +9369,48 @@
         <v>44516</v>
       </c>
       <c r="L58" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="M58" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>512</v>
       </c>
       <c r="N58" s="8">
         <v>34793930</v>
       </c>
       <c r="O58" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q58" s="84" t="s">
         <v>513</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q58" s="84" t="s">
-        <v>514</v>
       </c>
       <c r="R58" s="8" t="s">
         <v>102</v>
       </c>
       <c r="T58" s="84" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="68">
       <c r="A59" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G59" s="8" t="b">
         <v>1</v>
@@ -9421,19 +9422,19 @@
         <v>44516</v>
       </c>
       <c r="L59" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="M59" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>512</v>
       </c>
       <c r="N59" s="8">
         <v>34793930</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P59" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q59" s="84"/>
       <c r="R59" s="8" t="s">
@@ -9443,22 +9444,22 @@
     </row>
     <row r="60" spans="1:20" ht="68">
       <c r="A60" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G60" s="8" t="b">
         <v>1</v>
@@ -9470,19 +9471,19 @@
         <v>44516</v>
       </c>
       <c r="L60" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="M60" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>512</v>
       </c>
       <c r="N60" s="8">
         <v>34793930</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P60" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q60" s="84"/>
       <c r="R60" s="8" t="s">
@@ -9492,28 +9493,28 @@
     </row>
     <row r="61" spans="1:20" ht="102">
       <c r="A61" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>121</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G61" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I61" s="8">
         <v>5</v>
@@ -9522,45 +9523,45 @@
         <v>44531</v>
       </c>
       <c r="L61" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="M61" s="8" t="s">
         <v>523</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>524</v>
       </c>
       <c r="N61" s="8">
         <v>34853151</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R61" s="8" t="s">
         <v>102</v>
       </c>
       <c r="T61" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="68">
       <c r="A62" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G62" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I62" s="8">
         <v>2</v>
@@ -9569,45 +9570,45 @@
         <v>44678</v>
       </c>
       <c r="L62" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O62" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="M62" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O62" s="16" t="s">
+      <c r="P62" s="8" t="s">
         <v>531</v>
-      </c>
-      <c r="P62" s="8" t="s">
-        <v>532</v>
       </c>
       <c r="R62" s="8" t="s">
         <v>102</v>
       </c>
       <c r="T62" s="84" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="68">
       <c r="A63" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E63" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>535</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>536</v>
       </c>
       <c r="G63" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I63" s="8">
         <v>2</v>
@@ -9616,16 +9617,16 @@
         <v>44678</v>
       </c>
       <c r="L63" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O63" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="M63" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O63" s="16" t="s">
+      <c r="P63" s="8" t="s">
         <v>531</v>
-      </c>
-      <c r="P63" s="8" t="s">
-        <v>532</v>
       </c>
       <c r="R63" s="8" t="s">
         <v>102</v>
@@ -9634,25 +9635,25 @@
     </row>
     <row r="64" spans="1:20" ht="68">
       <c r="A64" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G64" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I64" s="8">
         <v>2</v>
@@ -9661,16 +9662,16 @@
         <v>44678</v>
       </c>
       <c r="L64" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O64" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="M64" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O64" s="16" t="s">
+      <c r="P64" s="8" t="s">
         <v>531</v>
-      </c>
-      <c r="P64" s="8" t="s">
-        <v>532</v>
       </c>
       <c r="R64" s="8" t="s">
         <v>102</v>
@@ -9679,25 +9680,25 @@
     </row>
     <row r="65" spans="1:20" ht="68">
       <c r="A65" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G65" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I65" s="8">
         <v>2</v>
@@ -9706,16 +9707,16 @@
         <v>44678</v>
       </c>
       <c r="L65" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O65" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="M65" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O65" s="16" t="s">
+      <c r="P65" s="8" t="s">
         <v>531</v>
-      </c>
-      <c r="P65" s="8" t="s">
-        <v>532</v>
       </c>
       <c r="R65" s="8" t="s">
         <v>102</v>
@@ -9724,16 +9725,16 @@
     </row>
     <row r="66" spans="1:20" ht="119">
       <c r="A66" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>50</v>
@@ -9745,7 +9746,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I66" s="8">
         <v>1</v>
@@ -9754,39 +9755,39 @@
         <v>44547</v>
       </c>
       <c r="L66" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="M66" s="8" t="s">
         <v>545</v>
-      </c>
-      <c r="M66" s="8" t="s">
-        <v>546</v>
       </c>
       <c r="N66" s="8">
         <v>34915728</v>
       </c>
       <c r="O66" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q66" s="84" t="s">
         <v>547</v>
-      </c>
-      <c r="Q66" s="84" t="s">
-        <v>548</v>
       </c>
       <c r="R66" s="8" t="s">
         <v>102</v>
       </c>
       <c r="T66" s="84" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="119">
       <c r="A67" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>50</v>
@@ -9798,7 +9799,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I67" s="8">
         <v>1</v>
@@ -9807,16 +9808,16 @@
         <v>44547</v>
       </c>
       <c r="L67" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="M67" s="8" t="s">
         <v>545</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>546</v>
       </c>
       <c r="N67" s="8">
         <v>34915728</v>
       </c>
       <c r="O67" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q67" s="84"/>
       <c r="R67" s="8" t="s">
@@ -9826,25 +9827,25 @@
     </row>
     <row r="68" spans="1:20" ht="119">
       <c r="A68" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G68" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I68" s="8">
         <v>1</v>
@@ -9853,16 +9854,16 @@
         <v>44547</v>
       </c>
       <c r="L68" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="M68" s="8" t="s">
         <v>545</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>546</v>
       </c>
       <c r="N68" s="8">
         <v>34915728</v>
       </c>
       <c r="O68" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q68" s="84"/>
       <c r="R68" s="8" t="s">
@@ -9872,25 +9873,25 @@
     </row>
     <row r="69" spans="1:20" ht="119">
       <c r="A69" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G69" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I69" s="8">
         <v>1</v>
@@ -9899,16 +9900,16 @@
         <v>44547</v>
       </c>
       <c r="L69" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="M69" s="8" t="s">
         <v>545</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>546</v>
       </c>
       <c r="N69" s="8">
         <v>34915728</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Q69" s="84"/>
       <c r="R69" s="8" t="s">
@@ -9918,16 +9919,16 @@
     </row>
     <row r="70" spans="1:20" ht="102">
       <c r="A70" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>131</v>
@@ -9957,45 +9958,45 @@
         <v>187</v>
       </c>
       <c r="P70" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R70" s="8" t="s">
         <v>102</v>
       </c>
       <c r="S70" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="T70" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="85">
       <c r="A71" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G71" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I71" s="8">
         <v>4</v>
@@ -10004,16 +10005,16 @@
         <v>44551</v>
       </c>
       <c r="L71" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="M71" s="8" t="s">
         <v>562</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>563</v>
       </c>
       <c r="N71" s="8">
         <v>35050211</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="R71" s="8" t="s">
         <v>102</v>
@@ -10022,51 +10023,51 @@
         <v>102</v>
       </c>
       <c r="T71" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="85">
       <c r="A72" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G72" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H72" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="I72" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>568</v>
       </c>
       <c r="K72" s="17">
         <v>44641</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N72" s="8">
         <v>35314823</v>
       </c>
       <c r="O72" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="P72" s="8" t="s">
         <v>570</v>
-      </c>
-      <c r="P72" s="8" t="s">
-        <v>571</v>
       </c>
       <c r="R72" s="8" t="s">
         <v>102</v>
@@ -10075,45 +10076,45 @@
         <v>102</v>
       </c>
       <c r="T72" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="51">
       <c r="A73" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="C73" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E73" s="8" t="s">
+      <c r="F73" s="33" t="s">
         <v>575</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>576</v>
       </c>
       <c r="G73" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K73" s="17">
         <v>44672</v>
       </c>
       <c r="L73" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O73" s="44" t="s">
         <v>578</v>
-      </c>
-      <c r="M73" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O73" s="44" t="s">
-        <v>579</v>
       </c>
       <c r="R73" s="8" t="s">
         <v>102</v>
@@ -10121,40 +10122,40 @@
     </row>
     <row r="74" spans="1:20" ht="51">
       <c r="A74" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E74" s="8" t="s">
+      <c r="F74" s="33" t="s">
         <v>575</v>
-      </c>
-      <c r="F74" s="33" t="s">
-        <v>576</v>
       </c>
       <c r="G74" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K74" s="17">
         <v>44672</v>
       </c>
       <c r="L74" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O74" s="16" t="s">
         <v>578</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O74" s="16" t="s">
-        <v>579</v>
       </c>
       <c r="R74" s="8" t="s">
         <v>102</v>
@@ -10162,40 +10163,40 @@
     </row>
     <row r="75" spans="1:20" ht="51">
       <c r="A75" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E75" s="8" t="s">
+      <c r="F75" s="33" t="s">
         <v>575</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>576</v>
       </c>
       <c r="G75" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K75" s="17">
         <v>44672</v>
       </c>
       <c r="L75" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O75" s="16" t="s">
         <v>578</v>
-      </c>
-      <c r="M75" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O75" s="16" t="s">
-        <v>579</v>
       </c>
       <c r="R75" s="8" t="s">
         <v>102</v>
@@ -10203,40 +10204,40 @@
     </row>
     <row r="76" spans="1:20" ht="51">
       <c r="A76" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="F76" s="33" t="s">
         <v>584</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>585</v>
       </c>
       <c r="G76" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K76" s="17">
         <v>44672</v>
       </c>
       <c r="L76" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O76" s="16" t="s">
         <v>578</v>
-      </c>
-      <c r="M76" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O76" s="16" t="s">
-        <v>579</v>
       </c>
       <c r="R76" s="8" t="s">
         <v>102</v>
@@ -10244,40 +10245,40 @@
     </row>
     <row r="77" spans="1:20" ht="51">
       <c r="A77" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G77" s="8" t="b">
         <v>1</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K77" s="17">
         <v>44672</v>
       </c>
       <c r="L77" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O77" s="16" t="s">
         <v>578</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O77" s="16" t="s">
-        <v>579</v>
       </c>
       <c r="R77" s="8" t="s">
         <v>102</v>
@@ -10285,40 +10286,40 @@
     </row>
     <row r="78" spans="1:20" ht="51">
       <c r="A78" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G78" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K78" s="17">
         <v>44672</v>
       </c>
       <c r="L78" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O78" s="16" t="s">
         <v>578</v>
-      </c>
-      <c r="M78" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O78" s="16" t="s">
-        <v>579</v>
       </c>
       <c r="R78" s="8" t="s">
         <v>102</v>
@@ -10326,13 +10327,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="T62:T65"/>
-    <mergeCell ref="T66:T69"/>
-    <mergeCell ref="T34:T37"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="T50:T51"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="T58:T60"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="P34:P38"/>
     <mergeCell ref="Q40:Q41"/>
     <mergeCell ref="Q50:Q51"/>
     <mergeCell ref="Q58:Q60"/>
@@ -10348,11 +10347,13 @@
     <mergeCell ref="Q22:Q23"/>
     <mergeCell ref="Q32:Q33"/>
     <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="P34:P38"/>
+    <mergeCell ref="T62:T65"/>
+    <mergeCell ref="T66:T69"/>
+    <mergeCell ref="T34:T37"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="T50:T51"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="T58:T60"/>
   </mergeCells>
   <phoneticPr fontId="44" type="noConversion"/>
   <hyperlinks>
@@ -10437,7 +10438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -10503,7 +10504,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>13</v>
@@ -10529,44 +10530,44 @@
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="68">
       <c r="A2" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>592</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>593</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G2" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I2" s="8"/>
       <c r="K2" s="15">
         <v>42662</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>596</v>
       </c>
       <c r="N2" s="7">
         <v>27764670</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="21"/>
@@ -10574,50 +10575,50 @@
         <v>102</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="T2" s="8"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="68">
       <c r="A3" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>592</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>593</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G3" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I3" s="8"/>
       <c r="K3" s="15">
         <v>42662</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>596</v>
       </c>
       <c r="N3" s="7">
         <v>27764670</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="21"/>
@@ -10628,28 +10629,28 @@
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="64">
       <c r="A4" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G4" s="7" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I4" s="8">
         <v>1</v>
@@ -10661,7 +10662,7 @@
         <v>43403</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>178</v>
@@ -10670,17 +10671,17 @@
         <v>30377364</v>
       </c>
       <c r="O4" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>608</v>
       </c>
       <c r="Q4" s="21"/>
       <c r="R4" s="7" t="s">
         <v>102</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T4" s="8" t="s">
         <v>155</v>
@@ -10688,31 +10689,31 @@
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="409.6">
       <c r="A5" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>611</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
         <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
       <c r="J5" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K5" s="15">
         <v>43420</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>26</v>
@@ -10721,7 +10722,7 @@
         <v>30385464</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="21"/>
@@ -10729,36 +10730,36 @@
         <v>102</v>
       </c>
       <c r="S5" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="T5" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="34">
       <c r="A6" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>619</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G6" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I6" s="8">
         <v>1</v>
@@ -10767,7 +10768,7 @@
         <v>43549</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>200</v>
@@ -10776,7 +10777,7 @@
         <v>30911168</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="21"/>
@@ -10787,28 +10788,28 @@
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="34">
       <c r="A7" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G7" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I7" s="8">
         <v>1</v>
@@ -10817,7 +10818,7 @@
         <v>43549</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>200</v>
@@ -10826,7 +10827,7 @@
         <v>30911168</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="21"/>
@@ -10837,22 +10838,22 @@
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="409.6">
       <c r="A8" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G8" s="8" t="b">
         <v>0</v>
@@ -10861,16 +10862,16 @@
         <v>94</v>
       </c>
       <c r="I8" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="J8" s="87" t="s">
         <v>628</v>
-      </c>
-      <c r="J8" s="87" t="s">
-        <v>629</v>
       </c>
       <c r="K8" s="17">
         <v>44475</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>200</v>
@@ -10879,36 +10880,36 @@
         <v>34616063</v>
       </c>
       <c r="O8" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="P8" s="8" t="s">
         <v>631</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>632</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="7"/>
       <c r="S8" s="87" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:20" s="3" customFormat="1" ht="51">
       <c r="A9" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>175</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G9" s="11" t="b">
         <v>0</v>
@@ -10922,7 +10923,7 @@
         <v>44475</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>200</v>
@@ -10931,7 +10932,7 @@
         <v>34616063</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="22"/>
@@ -10941,22 +10942,22 @@
     </row>
     <row r="10" spans="1:20" s="3" customFormat="1" ht="51">
       <c r="A10" s="10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>175</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G10" s="11" t="b">
         <v>0</v>
@@ -10970,7 +10971,7 @@
         <v>44475</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>200</v>
@@ -10979,7 +10980,7 @@
         <v>34616063</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="22"/>
@@ -10989,22 +10990,22 @@
     </row>
     <row r="11" spans="1:20" s="3" customFormat="1" ht="51">
       <c r="A11" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>175</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G11" s="11" t="b">
         <v>0</v>
@@ -11018,7 +11019,7 @@
         <v>44475</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>200</v>
@@ -11027,7 +11028,7 @@
         <v>34616063</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="22"/>
@@ -11037,26 +11038,26 @@
     </row>
     <row r="12" spans="1:20" s="2" customFormat="1" ht="34">
       <c r="A12" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>639</v>
-      </c>
       <c r="C12" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12" t="s">
         <v>175</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G12" s="12" t="b">
         <v>0</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I12" s="8">
         <v>24</v>
@@ -11065,7 +11066,7 @@
         <v>44405</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M12" s="12" t="s">
         <v>200</v>
@@ -11074,7 +11075,7 @@
         <v>34321664</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="24"/>
@@ -11085,49 +11086,49 @@
     </row>
     <row r="13" spans="1:20" s="2" customFormat="1" ht="102">
       <c r="A13" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>644</v>
-      </c>
       <c r="C13" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>208</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G13" s="12" t="b">
         <v>0</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>646</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>647</v>
       </c>
       <c r="K13" s="12">
         <v>44445</v>
       </c>
       <c r="L13" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>648</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>649</v>
       </c>
       <c r="N13" s="8">
         <v>34489600</v>
       </c>
       <c r="O13" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="P13" s="8" t="s">
         <v>650</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>651</v>
       </c>
       <c r="Q13" s="24"/>
       <c r="R13" s="12" t="s">
@@ -11137,28 +11138,28 @@
     </row>
     <row r="14" spans="1:20" s="2" customFormat="1" ht="51">
       <c r="A14" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>653</v>
-      </c>
       <c r="C14" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>175</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G14" s="12" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I14" s="8">
         <v>1</v>
@@ -11167,7 +11168,7 @@
         <v>44536</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>54</v>
@@ -11176,10 +11177,10 @@
         <v>34875226</v>
       </c>
       <c r="O14" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="P14" s="8" t="s">
         <v>657</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>658</v>
       </c>
       <c r="Q14" s="24"/>
       <c r="R14" s="12" t="s">
@@ -11189,28 +11190,28 @@
     </row>
     <row r="15" spans="1:20" s="2" customFormat="1" ht="68">
       <c r="A15" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>660</v>
-      </c>
       <c r="C15" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>175</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G15" s="12" t="b">
         <v>0</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I15" s="8">
         <v>3</v>
@@ -11219,17 +11220,17 @@
         <v>44313</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q15" s="24"/>
       <c r="R15" s="12" t="s">
@@ -11239,44 +11240,44 @@
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" ht="68">
       <c r="A16" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>131</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G16" s="12" t="b">
         <v>0</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I16" s="8"/>
       <c r="K16" s="12">
         <v>44376</v>
       </c>
       <c r="L16" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>668</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>669</v>
       </c>
       <c r="N16" s="8">
         <v>34183665</v>
       </c>
       <c r="O16" s="16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="24"/>
@@ -11287,44 +11288,44 @@
     </row>
     <row r="17" spans="1:20" s="2" customFormat="1" ht="68">
       <c r="A17" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>131</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G17" s="12" t="b">
         <v>1</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I17" s="8"/>
       <c r="K17" s="12">
         <v>44376</v>
       </c>
       <c r="L17" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>668</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>669</v>
       </c>
       <c r="N17" s="8">
         <v>34183665</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="24"/>
@@ -11335,13 +11336,13 @@
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" ht="51">
       <c r="A18" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>131</v>
@@ -11359,16 +11360,16 @@
         <v>44627</v>
       </c>
       <c r="L18" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O18" s="16" t="s">
         <v>674</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O18" s="16" t="s">
+      <c r="P18" s="8" t="s">
         <v>675</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>676</v>
       </c>
       <c r="R18" s="12" t="s">
         <v>102</v>
@@ -11377,13 +11378,13 @@
     </row>
     <row r="19" spans="1:20" s="2" customFormat="1" ht="51">
       <c r="A19" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>121</v>
@@ -11401,16 +11402,16 @@
         <v>44627</v>
       </c>
       <c r="L19" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O19" s="20" t="s">
         <v>674</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O19" s="20" t="s">
+      <c r="P19" s="8" t="s">
         <v>675</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>676</v>
       </c>
       <c r="R19" s="12" t="s">
         <v>102</v>
@@ -11419,95 +11420,95 @@
     </row>
     <row r="20" spans="1:20" s="2" customFormat="1" ht="68">
       <c r="A20" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G20" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I20" s="8">
         <v>3</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K20" s="17">
         <v>44641</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N20" s="8">
         <v>35314823</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P20" s="8"/>
       <c r="R20" s="12" t="s">
         <v>102</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="2" customFormat="1" ht="51">
       <c r="A21" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>682</v>
-      </c>
       <c r="C21" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G21" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I21" s="8"/>
       <c r="K21" s="17">
         <v>44646</v>
       </c>
       <c r="L21" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O21" s="16" t="s">
         <v>685</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>686</v>
       </c>
       <c r="P21" s="8"/>
       <c r="R21" s="12" t="s">
@@ -11517,41 +11518,41 @@
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" ht="51">
       <c r="A22" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>175</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G22" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I22" s="8"/>
       <c r="K22" s="17">
         <v>44646</v>
       </c>
       <c r="L22" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O22" s="16" t="s">
         <v>685</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>686</v>
       </c>
       <c r="P22" s="8"/>
       <c r="R22" s="12" t="s">

--- a/public/files/data_downloaded.xlsx
+++ b/public/files/data_downloaded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunfu/WebstormProjects/Spatial-Trans-Web/public/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAAABFF-C712-5043-A230-CAED2118D560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DFD9BD-0837-5640-8AAD-2A59043D01A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27660" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="NGS-Mouse" sheetId="2" r:id="rId2"/>
     <sheet name="Smfish-Mouse" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -4403,6 +4403,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4410,9 +4413,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
-      <c r="S8" s="80" t="s">
+      <c r="S8" s="81" t="s">
         <v>81</v>
       </c>
       <c r="T8" s="52" t="s">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
-      <c r="S9" s="81"/>
+      <c r="S9" s="82"/>
       <c r="T9" s="52" t="s">
         <v>92</v>
       </c>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
-      <c r="S10" s="81"/>
+      <c r="S10" s="82"/>
       <c r="T10" s="52" t="s">
         <v>95</v>
       </c>
@@ -5446,7 +5446,7 @@
       <c r="R13" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="S13" s="80" t="s">
+      <c r="S13" s="81" t="s">
         <v>114</v>
       </c>
       <c r="T13" s="52" t="s">
@@ -5504,7 +5504,7 @@
       <c r="R14" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="S14" s="81"/>
+      <c r="S14" s="82"/>
       <c r="T14" s="52" t="s">
         <v>119</v>
       </c>
@@ -5620,7 +5620,7 @@
       <c r="R16" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="S16" s="80" t="s">
+      <c r="S16" s="81" t="s">
         <v>81</v>
       </c>
       <c r="T16" s="52" t="s">
@@ -5680,7 +5680,7 @@
       <c r="R17" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="S17" s="81"/>
+      <c r="S17" s="82"/>
       <c r="T17" s="52" t="s">
         <v>144</v>
       </c>
@@ -5832,14 +5832,14 @@
       <c r="O20" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="P20" s="83" t="s">
+      <c r="P20" s="80" t="s">
         <v>165</v>
       </c>
       <c r="Q20" s="79"/>
       <c r="R20" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="S20" s="80" t="s">
+      <c r="S20" s="81" t="s">
         <v>166</v>
       </c>
       <c r="T20" s="52" t="s">
@@ -5884,10 +5884,10 @@
       <c r="O21" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="P21" s="83"/>
+      <c r="P21" s="80"/>
       <c r="Q21" s="79"/>
       <c r="R21" s="79"/>
-      <c r="S21" s="81"/>
+      <c r="S21" s="82"/>
       <c r="T21" s="52" t="s">
         <v>170</v>
       </c>
@@ -5930,10 +5930,10 @@
       <c r="O22" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="P22" s="83"/>
+      <c r="P22" s="80"/>
       <c r="Q22" s="79"/>
       <c r="R22" s="79"/>
-      <c r="S22" s="81"/>
+      <c r="S22" s="82"/>
       <c r="T22" s="52" t="s">
         <v>173</v>
       </c>
@@ -6035,7 +6035,7 @@
       <c r="R24" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="S24" s="82" t="s">
+      <c r="S24" s="83" t="s">
         <v>81</v>
       </c>
       <c r="T24" s="52" t="s">
@@ -6132,13 +6132,13 @@
       <c r="O26" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="P26" s="83" t="s">
+      <c r="P26" s="80" t="s">
         <v>113</v>
       </c>
       <c r="R26" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="S26" s="82" t="s">
+      <c r="S26" s="83" t="s">
         <v>81</v>
       </c>
       <c r="T26" s="52" t="s">
@@ -6186,7 +6186,7 @@
       <c r="O27" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="P27" s="83"/>
+      <c r="P27" s="80"/>
       <c r="R27" s="79"/>
       <c r="S27" s="79"/>
       <c r="T27" s="52" t="s">
@@ -6245,12 +6245,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="Q24:Q25"/>
     <mergeCell ref="R20:R22"/>
     <mergeCell ref="R24:R25"/>
     <mergeCell ref="R26:R27"/>
@@ -6260,6 +6254,12 @@
     <mergeCell ref="S20:S22"/>
     <mergeCell ref="S24:S25"/>
     <mergeCell ref="S26:S27"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="Q24:Q25"/>
   </mergeCells>
   <phoneticPr fontId="44" type="noConversion"/>
   <hyperlinks>
@@ -9063,7 +9063,7 @@
       <c r="H52" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="I52" s="80" t="s">
+      <c r="I52" s="81" t="s">
         <v>485</v>
       </c>
       <c r="K52" s="15">
@@ -10327,11 +10327,13 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="P34:P38"/>
+    <mergeCell ref="T62:T65"/>
+    <mergeCell ref="T66:T69"/>
+    <mergeCell ref="T34:T37"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="T50:T51"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="T58:T60"/>
     <mergeCell ref="Q40:Q41"/>
     <mergeCell ref="Q50:Q51"/>
     <mergeCell ref="Q58:Q60"/>
@@ -10347,13 +10349,11 @@
     <mergeCell ref="Q22:Q23"/>
     <mergeCell ref="Q32:Q33"/>
     <mergeCell ref="Q34:Q38"/>
-    <mergeCell ref="T62:T65"/>
-    <mergeCell ref="T66:T69"/>
-    <mergeCell ref="T34:T37"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="T50:T51"/>
-    <mergeCell ref="T52:T53"/>
-    <mergeCell ref="T58:T60"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="P34:P38"/>
   </mergeCells>
   <phoneticPr fontId="44" type="noConversion"/>
   <hyperlinks>

--- a/public/files/data_downloaded.xlsx
+++ b/public/files/data_downloaded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chunfu/WebstormProjects/Spatial-Trans-Web/public/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEB8E2F-2999-8442-94E4-D588949F5BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA80CDC4-0CDF-F04A-BAD1-C3CDDD1DA0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2340" windowWidth="27480" windowHeight="15180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="820" windowWidth="27480" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NGS-Human" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="542">
   <si>
     <t>ID</t>
   </si>
@@ -1927,7 +1927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2108,6 +2108,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3871,9 +3874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5619,20 +5622,20 @@
       <c r="J37" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="K37" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>537</v>
+      <c r="K37" s="17">
+        <v>44532</v>
+      </c>
+      <c r="L37" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="M37" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="N37" s="61">
+        <v>34857782</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="46.75" customHeight="1">
@@ -6315,13 +6318,13 @@
       <c r="G52" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H52" s="61" t="s">
+      <c r="H52" s="62" t="s">
         <v>537</v>
       </c>
       <c r="I52" s="9">
         <v>4</v>
       </c>
-      <c r="J52" s="61" t="s">
+      <c r="J52" s="62" t="s">
         <v>537</v>
       </c>
       <c r="K52" s="17">
@@ -6362,11 +6365,11 @@
       <c r="G53" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H53" s="62"/>
+      <c r="H53" s="63"/>
       <c r="I53" s="9">
         <v>1</v>
       </c>
-      <c r="J53" s="62"/>
+      <c r="J53" s="63"/>
       <c r="K53" s="17">
         <v>44516</v>
       </c>
@@ -6405,11 +6408,11 @@
       <c r="G54" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="H54" s="62"/>
+      <c r="H54" s="63"/>
       <c r="I54" s="9">
         <v>1</v>
       </c>
-      <c r="J54" s="62"/>
+      <c r="J54" s="63"/>
       <c r="K54" s="17">
         <v>44516</v>
       </c>
@@ -7391,6 +7394,7 @@
     <hyperlink ref="O33" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
     <hyperlink ref="O73" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
     <hyperlink ref="O32" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="O37" r:id="rId66" xr:uid="{B2813A65-6688-594F-BAEC-3F860702C160}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7401,8 +7405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="157" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
